--- a/_Sold Data_/Breaking_Sold_Data_Unique.xlsx
+++ b/_Sold Data_/Breaking_Sold_Data_Unique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,43 +483,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Breaking</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fast Break Pink</t>
+          <t>Purple Fast Break Prizm</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Alperen Sengun</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$299.00</t>
+          <t>$203.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>117</v>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267142791569?_skw=PSA+10&amp;hash=item3e32f38191:g:8tkAAOSwMLBnL7ia&amp;itmprp=enc%3AAQAKAAAAwFkggFvd1GGDu0w3yXCmi1e4zisW7d6Fdz3VvWoCjv%2F%2BZNmLjiDBpPdgAQ49sioPZ%2FZuF5K4bXmRMn4VfjhjEeVyXuRfB6uHf0k2I8d7Bm3W5%2BTxzoq2F6s6G09LkEuzJzpVzy7pR6kTzO5xf6cW6jaViJoovv1cOknCDlYLKcLw2AdeowB2sAWGhjXpny7M%2B5nKqx5iZdLn0tu0EqqN2A5%2B1auuGQFrOdOgsgObnuFmCz6se5TfypgDDrlqoWOXyw%3D%3D%7Ctkp%3ABk9SR5DL84ifZQ</t>
+          <t>https://www.ebay.com/itm/186932642776?_skw=PSA+10&amp;epid=4056495413&amp;hash=item2b860dc3d8:g:tkcAAOSwWbJnpRyo&amp;itmprp=enc%3AAQAKAAAA4FkggFvd1GGDu0w3yXCmi1e%2BCdKEqOvnfl25JveqtJwR8fHuWZJxhzri%2Bjojv1yhvEeB%2BlxwCxqC%2BFycblZk7JjoBOTwRt9i4AbxYRJLJmn8muCcz3nKpeRXXSvtSFl5UDWsjbiADpA5XgWpBk7CISFvM7y9PYiABTlbe5W3ln8sH8CCQRvS2r5sV2SZIFhMZey2SgH563re1TnfbxVrdcieKwdFjUjuTCeF3HX5yb%2B%2Fl7fiK3rGZxU9EPIvGpfoHiSKB3ofAwcZpdcAb4Mlo0sJEPEN5FuZCUx4Y70yyBvs%7Ctkp%3ABk9SR4D42q2gZQ</t>
         </is>
       </c>
     </row>
@@ -531,215 +533,213 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Holo Fast Break Prizm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$199.50</t>
+          <t>$157.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>162</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286299889570?_skw=PSA+10&amp;epid=14060317780&amp;hash=item42a8cd9fa2:g:d6MAAOSwauBnmYhl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnY9%2BpALvNnUxmDqLeHDbBwX66Wf%2Bdu6rj%2FzZK%2FSghnOWK27rLH%2Bx3obM1TP%2FFxfboVR%2BxAWQtFw1GR8ROl4Ckr5%2FwtGUgYmmIKrL06JoGdIwupqL4A9QR6iOYswfsHz9y66RshG%2Fma725VXFN%2FILCq96xsMf5GjbL9izJGvQM%2B4WoOcqGLFng5DXi7bKYaqfSQUPqYDDGjaERHlY6w4KHbb7Wr2oyLd5na9s8rGxUS%2BA%3D%3D%7Ctkp%3ABk9SR6icvsyeZQ</t>
+          <t>https://www.ebay.com/itm/186932624490?_skw=PSA+10&amp;epid=13056522060&amp;hash=item2b860d7c6a:g:R3sAAOSwfH9npRu-&amp;itmprp=enc%3AAQAKAAAAwFkggFvd1GGDu0w3yXCmi1dzP6aD5e7cnhR2RI3KtCPTDiv8i22pbDkwWcctkkKfOeGjOjvWqaaUiJrgdsIxC88bDJmctNeh8F%2BVZBvUkcoPBFkh0T79%2FMSKVCztivD%2FcSxyaoP8LR2CDayq7cr0tzCx9CacxO5ZX6024I9StBrM7gInzOQAhQ1OSq0vLs%2F8efkR3FMUYQPxrCiM3cLB07MCGKPLiweANgCebzm8rWoifeMGBSeKCQKyrX6GgugybA%3D%3D%7Ctkp%3ABk9SR4D42q2gZQ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Breaking, Basketball</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-24</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
+          <t>Breaking</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ausar Thompson, Anthony Edwards, Anthony Davis, Victor Wembanyama, LeBron James, Bilal Coulibaly, Jonathan Kuminga, Stephen Curry, LaMelo Ball, Brandon Miller, Paolo Banchero, Ja Morant</t>
+          <t>Ausar Thompson</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$650.00</t>
+          <t>$425.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205058146521?_skw=PSA+10&amp;epid=15065165233&amp;hash=item2fbe6b00d9:g:BJsAAOSwx7tnGG3w&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlIK8uEVl%2BPgsNEmBFJAnPYAe7zbCaqOaOO3t3dTx2wAA85sELrk0GvunezoxVNNQvmZ1CFvPG8jx%2FHFtUBNLUNxxJK3vQnlPaWRxGPamHN1V983WPFOn2%2FouHqL5rRFzd%2BFSLB6JeRdK0cQcsZHeDQOL3MqOMc2TuUL2WVR0ql8LihfqNFNAnO5mW0AJNCWlQmnGc%2FHTrESl%2FB2iCnlivy7Ejq6yD4hDbWud%2B37X%2BW4Q%3D%3D%7Ctkp%3ABk9SR6icvsyeZQ</t>
+          <t>https://www.ebay.com/itm/146227553367?_skw=PSA+10&amp;epid=20065164073&amp;hash=item220bd76457:g:Bl8AAOSwHaBnR-C0&amp;itmprp=enc%3AAQAKAAAA4FkggFvd1GGDu0w3yXCmi1cUpgpMhOT0zDkBsP%2B40oO0ZXNPshw%2B2%2FlMwaE%2Fvr9eHcx8HOa3X5GCfVwER7Qw4WoQ5znuce3zsL%2BX%2BZsvN7kTN7vDxybp%2BT%2FWxcTZvr1QLxIqqXxqxOuF4o6l8pYlCHGltBY0H8K67%2B9AWU%2BkzSMuq6hLC8Q4OeujTR%2FawMN4ZS4d%2FYW7I21Ike1bXkIwcFM%2FTmUrHeWbOrwSiby8MDVYRXjDhyNrqxk9q5pFizQsaoyW9xTBwgH4jnZDmhWmRPBiGqX%2FyIttqJNhMdpB5YrV%7Ctkp%3ABk9SR5CkotufZQ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
+          <t>Breaking, Basketball</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Fast Break Blue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$167.50</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>199</v>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196984524550?_skw=PSA+10&amp;epid=8056507497&amp;hash=item2ddd314f06:g:siMAAOSw4m5nnWbg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnG1McIK2kNCBiIDoJFM1wFC%2BP2JlyGZbiCySq9cTzbUyRvZt%2FaFmNlJBNqsmsaGXFrGhwDXNAtul3K8VAQKqTKWg7C1O7QKxcCgOFrD3HP0pyLCxpcSdUR3cRrbZhI%2FlaCEIwIFoVqrNsCggDKh%2BFB64oGF7tz3ypFNKTQbWgecKeJRUPWMm4Phgdt7shgrIo0j8IYVxgs5odA2VJsh1K9CJODblheYUwa5R4IAeU%2BW00MTagAi3wQL83dgb%2FVM%2FXp0pT31ifqtrtALwmfQBJ4%7Ctkp%3ABk9SR6acvsyeZQ</t>
+          <t>https://www.ebay.com/itm/405391568242?_skw=PSA+10&amp;hash=item5e63386d72:g:11IAAOSwvSVnS6qE&amp;itmprp=enc%3AAQAKAAAA4FkggFvd1GGDu0w3yXCmi1cJmO0bYvbbQV28RuxWw%2FRgbWubFjnUl7F%2F3O2LGlHZWIVuD%2F%2BRWfvaHVdZk4A4qr46Wlhd5Q02ssIM3zGVh6OFbeLqH7PvoFOb6RBsd2c8kJXLru%2F3gv3knJEL904bRvUXaeMkta2JK4ib3uU6aEGO7Qcemudc0nPRQUwxZ6JV7A3WdzPBdJvAFmuhaRPBOyTOdM7478HJPBkESWsRmotYB04k7I2%2BwDSeBkbzh19LrmkDDgtZBBjnbTu8MI%2Fzc1s6myiJqYbwT08k%2BdBd1Nk3%7Ctkp%3ABk9SR5CkotufZQ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023-24</t>
-        </is>
+          <t>Breaking</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2021</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Donruss Optic</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Purple Fast Break Prizm</t>
+          <t>Fast Break Pink</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Alperen Sengun</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$479.99</t>
+          <t>$299.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167296984796?_skw=PSA+10&amp;epid=19065162739&amp;hash=item26f3ad66dc:g:ZpAAAOSwQR9no~cD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkRFgN5YUhZr1BQSo3QKKuBFlYT35SqNXYfuZ%2BcpGZSH90j1BUClI3bPmkcUiBZUUmskq%2F4sEuJ%2B%2BfcJXH4z2Z87%2FR8y6N0%2FTGgDKAGRQ5fdhxeEQjhKLWfldoumCfmTA5j1pcYwW48n5Iu6yg%2B43o49T4Xfg26w1yQ1TEz6rHkQl%2BSTCtVlcUZGkmoXAYHfzK7hjBQWC8qRIJAJnsO87vHZoptQZ%2FJVZk1FrNQc24sAL57R1%2FhrLgr7Kz12AvkirByofaT2wxsqyAI0%2Bsy1Lek%7Ctkp%3ABk9SR6icvsyeZQ</t>
+          <t>https://www.ebay.com/itm/267142791569?_skw=PSA+10&amp;hash=item3e32f38191:g:8tkAAOSwMLBnL7ia&amp;itmprp=enc%3AAQAKAAAAwFkggFvd1GGDu0w3yXCmi1e4zisW7d6Fdz3VvWoCjv%2F%2BZNmLjiDBpPdgAQ49sioPZ9ECHIiJQwh2ga4g6c4eNK4Dt9fCih5ePGrXUmkQwdE9m2ouIEZzjKJhhmfu5xDzP5U7cy8OVqwUr0TVscFvhYB74LTzELyXvyCTkSYcgcEPbdd2as8dlPowql6Vrr1jcWupRgbQAHvZ9rdk6lwCiXu7feEVXIoN6OW8XB%2Fcl%2BLQz736iH57yYucmtT3AvN7WQ%3D%3D%7Ctkp%3ABk9SR8b9u9SfZQ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Breaking</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fast Break Pink</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$660.00</t>
+          <t>$167.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226578768764?_skw=PSA+10&amp;hash=item34c125a37c:g:ZlwAAOSw5ztnn8Ma&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnVA2sU0SIqJqsxUUoxT7jUf5xC%2BGSKim7n1jGf4Yo8H%2BNPl7lRgBozD3X4hM%2BnWHkaei73FWL%2BQpCPymEwun96N9CEx9VTEtuMXjCJ8RZZ%2BLBt%2Fxn1ty2vIus5k9PTghld%2Bx3%2BSYPXuaDNnEs6eEXenbgHcS70S3nJdT7fDb%2FVqMbwLJJA4TonqCKepOYh0boLuT%2Bbr9TeY85JxDMIH6yA0Oz4F5bM%2BwB4dsQHndWo5elpyQ3pyLlXP5O5zQTMifrz%2FviIFXGfiHvi6Y49aiaY%7Ctkp%3ABk9SR5Ly4ICeZQ</t>
+          <t>https://www.ebay.com/itm/196984524550?_skw=PSA+10&amp;epid=8056507497&amp;hash=item2ddd314f06:g:siMAAOSw4m5nnWbg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnG1McIK2kNCBiIDoJFM1wFC%2BP2JlyGZbiCySq9cTzbUyRvZt%2FaFmNlJBNqsmsaGXFrGhwDXNAtul3K8VAQKqTKWg7C1O7QKxcCgOFrD3HP0pyLCxpcSdUR3cRrbZhI%2FlaCEIwIFoVqrNsCggDKh%2BFB64oGF7tz3ypFNKTQbWgecKeJRUPWMm4Phgdt7shgrIo0j8IYVxgs5odA2VJsh1K9CJODblheYUwa5R4IAeU%2BW00MTagAi3wQL83dgb%2FVM%2FXp0pT31ifqtrtALwmfQBJ4%7Ctkp%3ABk9SR6acvsyeZQ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Breaking</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2023</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -748,28 +748,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fast Break</t>
+          <t>Purple Fast Break Prizm</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jett Howard</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$479.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267117569767?_skw=PSA+10&amp;epid=10065171196&amp;hash=item3e3172a6e7:g:O2YAAOSwlFpnfGZI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnHOPMa1PG9suHdlco9XJ%2FfYv8LSoEcNuIuHeJxd%2Fx6NLJm0kftjjDkAwTqVENoYhFjwRNEXbI6a5DoJzFBNS5CAzsSFrjeYO%2FWt%2FC0FxCSjIB8qsQegndkRqcxSaoWH%2FvmUwDJqTwAPq0a13l5WR%2BfloAobHdomKn5R%2F4F6CFcYwUNX9VuvJTcBo7zFcDG0YnidJLvR4ok67uvzbMErkchAoMfqriBmUQvcgB8oB5Ycg%3D%3D%7Ctkp%3ABk9SR5Ly4ICeZQ</t>
+          <t>https://www.ebay.com/itm/167296984796?_skw=PSA+10&amp;epid=19065162739&amp;hash=item26f3ad66dc:g:ZpAAAOSwQR9no~cD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkRFgN5YUhZr1BQSo3QKKuBFlYT35SqNXYfuZ%2BcpGZSH90j1BUClI3bPmkcUiBZUUmskq%2F4sEuJ%2B%2BfcJXH4z2Z87%2FR8y6N0%2FTGgDKAGRQ5fdhxeEQjhKLWfldoumCfmTA5j1pcYwW48n5Iu6yg%2B43o49T4Xfg26w1yQ1TEz6rHkQl%2BSTCtVlcUZGkmoXAYHfzK7hjBQWC8qRIJAJnsO87vHZoptQZ%2FJVZk1FrNQc24sAL57R1%2FhrLgr7Kz12AvkirByofaT2wxsqyAI0%2Bsy1Lek%7Ctkp%3ABk9SR6icvsyeZQ</t>
         </is>
       </c>
     </row>
@@ -781,49 +781,51 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Orange Fast Break Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$199.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-02-08</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286295794336?_skw=PSA+10&amp;epid=26056520722&amp;hash=item42a88f22a0:g:p-IAAOSwhLtmIZAx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmIKY7dLd4AwPCB0igQp9BRzT7q%2FtkvH1SkIUlqF1QlfXTKty%2Fo7chvyJCi2mnlL%2FqWJ6eoJVDsHer33HWc%2Bknb3B4CQRagsa4bhKLh2owZ5ijSnXb%2Ba8ZJvM4KoSNhTb2tg03cUPInxyaTkQjg3pE1uEQzawrE5Bx9idZFXyufslnkwq5%2FgBPtGtfhnaefP%2F54BdLu8oabynkjmcdgxti2P7jxVx%2Bqi6AEcpb2RflkBw%3D%3D%7Ctkp%3ABk9SR5i9lKidZQ</t>
+          <t>https://www.ebay.com/itm/286299889570?_skw=PSA+10&amp;epid=14060317780&amp;hash=item42a8cd9fa2:g:d6MAAOSwauBnmYhl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnY9%2BpALvNnUxmDqLeHDbBwX66Wf%2Bdu6rj%2FzZK%2FSghnOWK27rLH%2Bx3obM1TP%2FFxfboVR%2BxAWQtFw1GR8ROl4Ckr5%2FwtGUgYmmIKrL06JoGdIwupqL4A9QR6iOYswfsHz9y66RshG%2Fma725VXFN%2FILCq96xsMf5GjbL9izJGvQM%2B4WoOcqGLFng5DXi7bKYaqfSQUPqYDDGjaERHlY6w4KHbb7Wr2oyLd5na9s8rGxUS%2BA%3D%3D%7Ctkp%3ABk9SR6icvsyeZQ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Breaking</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2018</v>
+          <t>Breaking, Basketball</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -832,108 +834,106 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Ausar Thompson, Anthony Edwards, Anthony Davis, Victor Wembanyama, LeBron James, Bilal Coulibaly, Jonathan Kuminga, Stephen Curry, LaMelo Ball, Brandon Miller, Paolo Banchero, Ja Morant</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$650.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404780061297?_skw=PSA+10&amp;epid=8056586580&amp;hash=item5e3ec59271:g:150AAOSwBrhlvwH7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmqYQ6LHkymb0TxvivDWBpIc%2Fi%2BEoE7fHDGGGfTinO%2FC0B110kJMzgA%2FUA6CNW7CXIHGQkSyQU03JGu81W1sJrOLAbLjjJYKJfsFUNy5wXUTazlWo0K2eeq6VTFNefCUDeEtK1jdUlEBzotz6IaH%2FAmi899C8lyoSVvFq7C617SP3NwasTOZWxA57Tk3CzyxfuIg2TCanjD6IPJPVXXgWCVvLTIBhxYcY1HWLnKIzKxag%3D%3D%7Ctkp%3ABk9SR6aA9dacZQ</t>
+          <t>https://www.ebay.com/itm/205058146521?_skw=PSA+10&amp;epid=15065165233&amp;hash=item2fbe6b00d9:g:BJsAAOSwx7tnGG3w&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlIK8uEVl%2BPgsNEmBFJAnPYAe7zbCaqOaOO3t3dTx2wAA85sELrk0GvunezoxVNNQvmZ1CFvPG8jx%2FHFtUBNLUNxxJK3vQnlPaWRxGPamHN1V983WPFOn2%2FouHqL5rRFzd%2BFSLB6JeRdK0cQcsZHeDQOL3MqOMc2TuUL2WVR0ql8LihfqNFNAnO5mW0AJNCWlQmnGc%2FHTrESl%2FB2iCnlivy7Ejq6yD4hDbWud%2B37X%2BW4Q%3D%3D%7Ctkp%3ABk9SR6icvsyeZQ</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2022-23</t>
-        </is>
+          <t>Breaking</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2023</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Fast Break</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Jett Howard</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$217.50</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396170104067?_skw=PSA+10&amp;epid=22062601822&amp;hash=item5c3d940d03:g:XEgAAOSwR5VnnvFd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcOwWLRFd%2Bn9rZWZ4cYxVsq1SyDDHAqEeK7cDcr9UijDNVymT0E3iPK5wPOt8NwHgsJkuoJI3w2vDCJbITMsqWOpoxMcM%2FKVz8joJt00Jbexo5weKFXcVeF7bZf%2Fwp43KFDCT%2BbOTzcN8z%2B1tmx8v59aG8pDEDCIQHf%2FuiOBjQ0QKSBHSTTLrjQTpTKxxjlrmVSNxMk4lOIJ0eC06uhT%2BMVmNZQoQse%2BgvWejIDuYsRA%3D%3D%7Ctkp%3ABk9SR6aA9dacZQ</t>
+          <t>https://www.ebay.com/itm/267117569767?_skw=PSA+10&amp;epid=10065171196&amp;hash=item3e3172a6e7:g:O2YAAOSwlFpnfGZI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnHOPMa1PG9suHdlco9XJ%2FfYv8LSoEcNuIuHeJxd%2Fx6NLJm0kftjjDkAwTqVENoYhFjwRNEXbI6a5DoJzFBNS5CAzsSFrjeYO%2FWt%2FC0FxCSjIB8qsQegndkRqcxSaoWH%2FvmUwDJqTwAPq0a13l5WR%2BfloAobHdomKn5R%2F4F6CFcYwUNX9VuvJTcBo7zFcDG0YnidJLvR4ok67uvzbMErkchAoMfqriBmUQvcgB8oB5Ycg%3D%3D%7Ctkp%3ABk9SR5Ly4ICeZQ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Baseball</t>
+          <t>Breaking</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Topps</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fast Break Pink</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pete Rose</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$3,999.99</t>
+          <t>$660.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156671168403?_skw=PSA+10&amp;epid=26055900717&amp;hash=item247a544f93:g:c8QAAOSwWkRnUATC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkrJjLPaV4kOBUgd2u79WjOgo5kUrpZa2kn740uxF1YyVXQnJAkGDXJhORl%2F4NzL9C6h8dvtyVEAzYAJwimgUXGcNNlZefvb7MSMoSdrt%2BgWi6H9UXXF7hbhDu2PuncsosFwE1bUp%2FD1XEOXZjpk6ec3LUbI9pKGNW13DNe3PdF5i0KJ1y9jMUo0irrqbBlahS5dlidjGdMUlodgBmG51u08AS5qTnZ8ClH68Y0FdLWlN2X0OAe%2FO68WES2DT0Z%2BzemViqjZ5HZ2MsvLRLuMqa%7Ctkp%3ABk9SR-7v4LCcZQ</t>
+          <t>https://www.ebay.com/itm/226578768764?_skw=PSA+10&amp;hash=item34c125a37c:g:ZlwAAOSw5ztnn8Ma&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnVA2sU0SIqJqsxUUoxT7jUf5xC%2BGSKim7n1jGf4Yo8H%2BNPl7lRgBozD3X4hM%2BnWHkaei73FWL%2BQpCPymEwun96N9CEx9VTEtuMXjCJ8RZZ%2BLBt%2Fxn1ty2vIus5k9PTghld%2Bx3%2BSYPXuaDNnEs6eEXenbgHcS70S3nJdT7fDb%2FVqMbwLJJA4TonqCKepOYh0boLuT%2Bbr9TeY85JxDMIH6yA0Oz4F5bM%2BwB4dsQHndWo5elpyQ3pyLlXP5O5zQTMifrz%2FviIFXGfiHvi6Y49aiaY%7Ctkp%3ABk9SR5Ly4ICeZQ</t>
         </is>
       </c>
     </row>
@@ -950,12 +950,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pink Fast Break Prizm</t>
+          <t>Orange Fast Break Prizm</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -965,45 +965,43 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$995.00</t>
+          <t>$175.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116416149510?_skw=PSA+10&amp;epid=8056571397&amp;hash=item1b1af17806:g:0OYAAOSwudJnV5HS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm4BUUW2KiqkuW4AV7K8VLHClK%2BsZ2F4EeA6uFHfnlvYKb%2FqnbLB7kdryHpyV7LaCgi5qubHvKq%2BDkByh%2BQjhkb1uckQfUCj0xQM%2F01mifAWUrytDkgaE%2BymOiiLDwvFzGnC1JsZg%2FKu9EiVowkMpIfV1Fv4WedHwW7GpuHX%2Boq80gnxVmbrCs3sWvN%2BrbO5Dmw4fvphThKinVAp%2FbTDkbmY5zjxEfKmdbVKll4%2F3jeziuDTZHvEbBlTub3%2BTDhWCp%2F8Y5kV3B9yKM%2FAx%2FZ76Tz%7Ctkp%3ABk9SR-zv4LCcZQ</t>
+          <t>https://www.ebay.com/itm/286295794336?_skw=PSA+10&amp;epid=26056520722&amp;hash=item42a88f22a0:g:p-IAAOSwhLtmIZAx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmIKY7dLd4AwPCB0igQp9BRzT7q%2FtkvH1SkIUlqF1QlfXTKty%2Fo7chvyJCi2mnlL%2FqWJ6eoJVDsHer33HWc%2Bknb3B4CQRagsa4bhKLh2owZ5ijSnXb%2Ba8ZJvM4KoSNhTb2tg03cUPInxyaTkQjg3pE1uEQzawrE5Bx9idZFXyufslnkwq5%2FgBPtGtfhnaefP%2F54BdLu8oabynkjmcdgxti2P7jxVx%2Bqi6AEcpb2RflkBw%3D%3D%7Ctkp%3ABk9SR5i9lKidZQ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2023-24</t>
-        </is>
+          <t>Breaking</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2018</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fast Break Silver Mosaic Prizm</t>
+          <t>Prizm</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1013,80 +1011,88 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356535496504?_skw=PSA+10&amp;epid=16073107422&amp;hash=item53032bef38:g:AnAAAOSw5EBnc17Z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkAX89G%2Fwmu2K%2BDFV78F764S7zngNDEpq3AnYxoewOrbmwcEs8w9noWiIMIYmiDnUpupRMYyovI0%2BKDV1mpLnxHzQGHQRuvA9rt9kGtKAbjBYge6Mz27BkZ0GcFuMnFdELvG%2BuHeLSMbLNTsvbLZTyuyWQYd4d1Nn1f5DbFlIYdhoJwor7deexH9C9y8kp3yCqsW0te8mdIP91aDwQQDbbLe0ulfEUlkBRrVLWecnmioVZkGUWjyHxwTIROGjFwbtOfi2hlZlUplxbLx2nufeoY%7Ctkp%3ABk9SR-zv4LCcZQ</t>
+          <t>https://www.ebay.com/itm/404780061297?_skw=PSA+10&amp;epid=8056586580&amp;hash=item5e3ec59271:g:150AAOSwBrhlvwH7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmqYQ6LHkymb0TxvivDWBpIc%2Fi%2BEoE7fHDGGGfTinO%2FC0B110kJMzgA%2FUA6CNW7CXIHGQkSyQU03JGu81W1sJrOLAbLjjJYKJfsFUNy5wXUTazlWo0K2eeq6VTFNefCUDeEtK1jdUlEBzotz6IaH%2FAmi899C8lyoSVvFq7C617SP3NwasTOZWxA57Tk3CzyxfuIg2TCanjD6IPJPVXXgWCVvLTIBhxYcY1HWLnKIzKxag%3D%3D%7Ctkp%3ABk9SR6aA9dacZQ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Breaking, Football</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2023</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2022-23</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>mosaic football</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>stained glass</t>
+          <t>Blue Fast Break Prizm</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$217.50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167289252438?_skw=PSA+10&amp;hash=item26f3376a56:g:Ho4AAOSw11RnfECB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm42bD0ZD4Jcqm%2Fqj3p0i%2FzBwjSskQ0rrU7eHFTjgpNSZht6ZG8KMMnZdPLtDwieiDhJDp6h%2F9zgU4v4E5TyqJN35xst0YROOwF4vCPj0fm6xGxhqLlphs0LYPkmLuThF9sUDIwf8pObHu%2FubwIdL63aBMyd3LvjtFn41E1H8wzV4cV1gjupSPVoLNjW3Ye0wPbFWsMUYwK%2Bxzb3bNra%2FklGGND8ZwFzU6m85D1Z%2F2umEmfK2%2Fg9OHXwv7lhA1%2FDrEDO97cL3ACiLkSkzTZaals%7Ctkp%3ABk9SR-zv4LCcZQ</t>
+          <t>https://www.ebay.com/itm/396170104067?_skw=PSA+10&amp;epid=22062601822&amp;hash=item5c3d940d03:g:XEgAAOSwR5VnnvFd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcOwWLRFd%2Bn9rZWZ4cYxVsq1SyDDHAqEeK7cDcr9UijDNVymT0E3iPK5wPOt8NwHgsJkuoJI3w2vDCJbITMsqWOpoxMcM%2FKVz8joJt00Jbexo5weKFXcVeF7bZf%2Fwp43KFDCT%2BbOTzcN8z%2B1tmx8v59aG8pDEDCIQHf%2FuiOBjQ0QKSBHSTTLrjQTpTKxxjlrmVSNxMk4lOIJ0eC06uhT%2BMVmNZQoQse%2BgvWejIDuYsRA%3D%3D%7Ctkp%3ABk9SR6aA9dacZQ</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Baseball</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1986</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Leaf Canadian</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fast Break Silver Mosaic Prizm</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pete Rose</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$175.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1097,48 +1103,44 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186558277216?_skw=PSA+10&amp;epid=12055965689&amp;hash=item2b6fbd6660:g:axgAAOSw1y5mkLee&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmfFj%2F2PdcHcdN9xfLyjPMFcFFYw9orEB4s2y8AFEil1hZC1UO39HERObWyVPqb0Me%2B4pj15ivyTWV%2Fqvxg%2FUWHnNvsjntSmJt0PC4aB3rDC0EHJ3o%2F9fspgoYIQVAuFGCYglBUCFGF1c04vW9AsJny1v8yx%2B1QxtB%2Fgq99eT3%2Ff4XuXzFS7k75Kb1UqTq9MsQq89cMmRL4xZ2qoLenegffXJTIq4FTizyDBS%2Ft%2Blj2MQ%3D%3D%7Ctkp%3ABk9SR-zv4LCcZQ</t>
+          <t>https://www.ebay.com/itm/356535496504?_skw=PSA+10&amp;epid=16073107422&amp;hash=item53032bef38:g:AnAAAOSw5EBnc17Z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkAX89G%2Fwmu2K%2BDFV78F764S7zngNDEpq3AnYxoewOrbmwcEs8w9noWiIMIYmiDnUpupRMYyovI0%2BKDV1mpLnxHzQGHQRuvA9rt9kGtKAbjBYge6Mz27BkZ0GcFuMnFdELvG%2BuHeLSMbLNTsvbLZTyuyWQYd4d1Nn1f5DbFlIYdhoJwor7deexH9C9y8kp3yCqsW0te8mdIP91aDwQQDbbLe0ulfEUlkBRrVLWecnmioVZkGUWjyHxwTIROGjFwbtOfi2hlZlUplxbLx2nufeoY%7Ctkp%3ABk9SR-zv4LCcZQ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Breaking</t>
+          <t>Baseball</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>1986</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Prizm</t>
-        </is>
-      </c>
+          <t>Leaf Canadian</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Pete Rose</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$399.99</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396168217606?_skw=PSA+10&amp;hash=item5c3d774406:g:FnEAAOSwheRnnvJA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnchRq4zt%2B6eOkJ4xtXf64YA6x8zrJP%2Fs0zjHplWm7iwqq4wN8LTOigQ6mEfYMFJdJE1OiI5FgmjVaPY4FsU6kPSIfMt7nTm2MU3QpP4pCZU6Tn%2BIMZP7QE761OVTOYG33G6grknyPBF7ZkbinMQaukyGgRfbYDo6nbQA0esGHFj2vRAhNGrDU1jn%2FzNfqNhSsXOf4EONC%2Fvz6JaTMzLWU%2Bdw5z%2Bsb1TexJAMm%2FRcy2GQ%3D%3D%7Ctkp%3ABk9SR7TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/186558277216?_skw=PSA+10&amp;epid=12055965689&amp;hash=item2b6fbd6660:g:axgAAOSw1y5mkLee&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmfFj%2F2PdcHcdN9xfLyjPMFcFFYw9orEB4s2y8AFEil1hZC1UO39HERObWyVPqb0Me%2B4pj15ivyTWV%2Fqvxg%2FUWHnNvsjntSmJt0PC4aB3rDC0EHJ3o%2F9fspgoYIQVAuFGCYglBUCFGF1c04vW9AsJny1v8yx%2B1QxtB%2Fgq99eT3%2Ff4XuXzFS7k75Kb1UqTq9MsQq89cMmRL4xZ2qoLenegffXJTIq4FTizyDBS%2Ft%2Blj2MQ%3D%3D%7Ctkp%3ABk9SR-zv4LCcZQ</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1152,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1160,114 +1162,106 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Pink Fast Break Prizm</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$995.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267109154896?_skw=PSA+10&amp;epid=3056524493&amp;hash=item3e30f24050:g:meAAAOSwk4xncMzE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnuX9HeuurfoFcJKkfIk%2BTxI%2BdPxLY%2FiOIfjaefQMwdPijI0IMcGXsuebfVjzpoSWaex5H6tVmgyNJViYANSdY9q%2Ff6J%2F%2BKtpESRv5ree4bna8iMGD8OqoXReD8Cpnf%2FfG3W%2B09q74zUY8v5iUq7SbRLMS22Ix05%2Bhhp3cNEoaVkVvV%2BFlE7ataQl4mlEeB6DJ4EdVQA2hD1uUzOu1JNf%2FzdOFKWFSqudUS5wZe02FBGTQYc3af9SVKzUUYiOdoFeY3oBR3X%2B8%2BstvtuEy%2Foa7U%7Ctkp%3ABk9SR7TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/116416149510?_skw=PSA+10&amp;epid=8056571397&amp;hash=item1b1af17806:g:0OYAAOSwudJnV5HS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm4BUUW2KiqkuW4AV7K8VLHClK%2BsZ2F4EeA6uFHfnlvYKb%2FqnbLB7kdryHpyV7LaCgi5qubHvKq%2BDkByh%2BQjhkb1uckQfUCj0xQM%2F01mifAWUrytDkgaE%2BymOiiLDwvFzGnC1JsZg%2FKu9EiVowkMpIfV1Fv4WedHwW7GpuHX%2Boq80gnxVmbrCs3sWvN%2BrbO5Dmw4fvphThKinVAp%2FbTDkbmY5zjxEfKmdbVKll4%2F3jeziuDTZHvEbBlTub3%2BTDhWCp%2F8Y5kV3B9yKM%2FAx%2FZ76Tz%7Ctkp%3ABk9SR-zv4LCcZQ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1981</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Purple Fast Break Prizm</t>
-        </is>
-      </c>
+          <t>Topps</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Pete Rose</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>$455.00</t>
+          <t>$3,999.99</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256799041501?_skw=PSA+10&amp;epid=6056522913&amp;hash=item3bca6a67dd:g:cmcAAOSwaKJnlAmB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn3a1niUUQLT7u0RHJY%2FJWl5byoEc7MZY4%2FZxo95JX2uEzoDkLu2kAYXZXEJttIF0qwZM3P%2BErrpkXdVkZ2KCbX%2BsNppve%2Bcf3Vc7V1Uhv7v4qGC523Ymq%2FKpcVW0LB0jHwce6JOFiwFyvrmRWbfUhcv6VIMScuH79kClLr8ACCpc5kgTCIQoXcxuRd3PIvwXKpC4ovnFaw4bBzaIsa8lxG8izw7w8kGGbKiqmDCd6Z4566jUsEqNO47DYEKNVMnZgUObjrz28sCZfiIrmacCak%7Ctkp%3ABk9SR7TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/156671168403?_skw=PSA+10&amp;epid=26055900717&amp;hash=item247a544f93:g:c8QAAOSwWkRnUATC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkrJjLPaV4kOBUgd2u79WjOgo5kUrpZa2kn740uxF1YyVXQnJAkGDXJhORl%2F4NzL9C6h8dvtyVEAzYAJwimgUXGcNNlZefvb7MSMoSdrt%2BgWi6H9UXXF7hbhDu2PuncsosFwE1bUp%2FD1XEOXZjpk6ec3LUbI9pKGNW13DNe3PdF5i0KJ1y9jMUo0irrqbBlahS5dlidjGdMUlodgBmG51u08AS5qTnZ8ClH68Y0FdLWlN2X0OAe%2FO68WES2DT0Z%2BzemViqjZ5HZ2MsvLRLuMqa%7Ctkp%3ABk9SR-7v4LCcZQ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2023-24</t>
-        </is>
+          <t>Breaking, Football</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2023</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>mosaic football</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>stained glass</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Zion Williamson</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>$201.50</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356505320971?_skw=PSA+10&amp;epid=13069593920&amp;hash=item53015f7e0b:g:GD4AAOSwinhnj7I-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm6vGLI4xJ1lt9TAutLRwS2aIa5Z1CzzHdXgskAMsM5HME4KG7kmXSA0BECwjiJ9CDciARmayMiFFCJuzwjrK8DRu%2ByyWyFSQrSulTr%2FYj7QhJnQQj2WduAadfz8kho5f3xhEjmxH%2FFlOeYTt6kquGOdqWGgNur1%2Bv65fjzcHiTFikCPOURwHzC8%2Bwo2S1uyHE%2FnIJqamXXhkSBqFe36z0C1iyS8VLd%2FQzw4TaNuZ%2FLZ%2BWe96WFaN3Qvxh7Bue7CIwB9atByp89I4EZOn13BPlz%7Ctkp%3ABk9SR7TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/167289252438?_skw=PSA+10&amp;hash=item26f3376a56:g:Ho4AAOSw11RnfECB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm42bD0ZD4Jcqm%2Fqj3p0i%2FzBwjSskQ0rrU7eHFTjgpNSZht6ZG8KMMnZdPLtDwieiDhJDp6h%2F9zgU4v4E5TyqJN35xst0YROOwF4vCPj0fm6xGxhqLlphs0LYPkmLuThF9sUDIwf8pObHu%2FubwIdL63aBMyd3LvjtFn41E1H8wzV4cV1gjupSPVoLNjW3Ye0wPbFWsMUYwK%2Bxzb3bNra%2FklGGND8ZwFzU6m85D1Z%2F2umEmfK2%2Fg9OHXwv7lhA1%2FDrEDO97cL3ACiLkSkzTZaals%7Ctkp%3ABk9SR-zv4LCcZQ</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1273,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1294,23 +1288,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gg Jackson</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>$203.50</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356514054996?_skw=PSA+10&amp;epid=5065172223&amp;hash=item5301e4c354:g:PnsAAOSwlwNnmYWl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmiCfY3B77sO3YFG14qou8mt3GXPl5JpyD1HujrbrEZyBr5iMjXQvIK0c2%2Bi9RsfFt6vLiSVu8DMdFDZKVa16K4TsTIZjZDdExKWssT0vZmUJ3z0Qpjqphvl5FGRIv98Af2Ppv%2Bfu5lvANYKV9uXC7sTl0PCOAH%2BhQMcAebOneEE%2FWnElvg2foDbVpeSGRtq5ss%2B9UgagBwJGRzwSmn%2ByI3DHsaKHx%2Fa9L677Q3XpyZFMJs0CvbhMl%2BIncVzECI5HBAPV4z7fvUYSfg8x3VxPAT%7Ctkp%3ABk9SR7TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/267109154896?_skw=PSA+10&amp;epid=3056524493&amp;hash=item3e30f24050:g:meAAAOSwk4xncMzE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnuX9HeuurfoFcJKkfIk%2BTxI%2BdPxLY%2FiOIfjaefQMwdPijI0IMcGXsuebfVjzpoSWaex5H6tVmgyNJViYANSdY9q%2Ff6J%2F%2BKtpESRv5ree4bna8iMGD8OqoXReD8Cpnf%2FfG3W%2B09q74zUY8v5iUq7SbRLMS22Ix05%2Bhhp3cNEoaVkVvV%2BFlE7ataQl4mlEeB6DJ4EdVQA2hD1uUzOu1JNf%2FzdOFKWFSqudUS5wZe02FBGTQYc3af9SVKzUUYiOdoFeY3oBR3X%2B8%2BstvtuEy%2Foa7U%7Ctkp%3ABk9SR7TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1316,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1332,28 +1326,28 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Neon Green Fast Break Prizm</t>
+          <t>Purple Fast Break Prizm</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>$5,000.00</t>
+          <t>$455.00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156660561081?_skw=PSA+10&amp;epid=18065164202&amp;hash=item2479b274b9:g:wMkAAOSwLvtnmWRg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKneJQL%2FmHxEWl7YF7j6z5Z%2B5ngXMNbD8Ay%2Fxb1qj6HyKnKH%2Fi2kirjQVZTd43gkh%2BbgYVQ2WMGQXRoH%2B4CpdgWuBNJ1pTCHvDRJ2qTOwXxyatRT%2FBbMMviPz%2BjOzg5nSHpoYxg9QZmxWtPjRB%2B9x5LQBl90Suq2HmZ76P2PxAenUl%2BbdkSU86j4BNXZO5cP%2ByeNcNj13LUidTBbcn%2BOnOhbrOUhBKQcj94BC4ud8%2FJn94gxFwK0RxNiKJtl6toIvoY8agvhQbPQEdBLSUJ8NHII%7Ctkp%3ABk9SR7TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/256799041501?_skw=PSA+10&amp;epid=6056522913&amp;hash=item3bca6a67dd:g:cmcAAOSwaKJnlAmB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn3a1niUUQLT7u0RHJY%2FJWl5byoEc7MZY4%2FZxo95JX2uEzoDkLu2kAYXZXEJttIF0qwZM3P%2BErrpkXdVkZ2KCbX%2BsNppve%2Bcf3Vc7V1Uhv7v4qGC523Ymq%2FKpcVW0LB0jHwce6JOFiwFyvrmRWbfUhcv6VIMScuH79kClLr8ACCpc5kgTCIQoXcxuRd3PIvwXKpC4ovnFaw4bBzaIsa8lxG8izw7w8kGGbKiqmDCd6Z4566jUsEqNO47DYEKNVMnZgUObjrz28sCZfiIrmacCak%7Ctkp%3ABk9SR7TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1364,33 +1358,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Prizm</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>$157.50</t>
+          <t>$399.99</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306069298963?_skw=PSA+10&amp;hash=item474326df13:g:aL8AAOSwEJxnmCAu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlZQ4bBBUKL7cGAs%2FU1R0zZ915TWI5PAcWg097rOUU8VqsHQdwtCxbitu3D3ixdKiqDS4kok7ds1s7iDmA7ILyhiVwU3eJf30C3J4zh7LnokF7AzARLy6zrcRQoExexNyNjXcEdAmG0r3o9o%2BRylDQkjIIG3%2BdNb7rWfZEBLFwyIGpIjIYPUE35MJw6ReuXAGItdJ7J4s%2FkNxVeAPRsfqx7QrTeLXBQGX%2F4G32BqJFSABD4PySVTYt%2FwjuLfa5%2FY%2B7UA7vPAS%2FYfx9b5fIAprm6%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/396168217606?_skw=PSA+10&amp;hash=item5c3d774406:g:FnEAAOSwheRnnvJA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnchRq4zt%2B6eOkJ4xtXf64YA6x8zrJP%2Fs0zjHplWm7iwqq4wN8LTOigQ6mEfYMFJdJE1OiI5FgmjVaPY4FsU6kPSIfMt7nTm2MU3QpP4pCZU6Tn%2BIMZP7QE761OVTOYG33G6grknyPBF7ZkbinMQaukyGgRfbYDo6nbQA0esGHFj2vRAhNGrDU1jn%2FzNfqNhSsXOf4EONC%2Fvz6JaTMzLWU%2Bdw5z%2Bsb1TexJAMm%2FRcy2GQ%3D%3D%7Ctkp%3ABk9SR7TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1400,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1412,28 +1410,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pink Fast Break Prizm</t>
+          <t>Neon Green Fast Break Prizm</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>$995.00</t>
+          <t>$5,000.00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256803347683?_skw=PSA+10&amp;epid=8056571397&amp;hash=item3bcaac1ce3:g:lusAAOSwTgFnoDP3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmLQ7%2F2UbMz1I3jqZ4IHNggc3ngSIl8hnit4L%2FUKbHppZeNEJXue09k9EZNuWA7RZa7E680bXUL5%2FhUvn7sTh401I1s1vSCGpRtxuWnl6Dtat5c%2FaOrB6NiYJaE3LkMKF2aeNYhR%2BnkT9%2Bzp6L0Fk5p2jcF%2Fxr%2FRIA3zY3d%2BjFMSv9xOIo9giL17YT6EinUdvxJtoLNQnZ499gXBoP7CPftSaOotHh35MxMzBUeBuOQbA%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/156660561081?_skw=PSA+10&amp;epid=18065164202&amp;hash=item2479b274b9:g:wMkAAOSwLvtnmWRg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKneJQL%2FmHxEWl7YF7j6z5Z%2B5ngXMNbD8Ay%2Fxb1qj6HyKnKH%2Fi2kirjQVZTd43gkh%2BbgYVQ2WMGQXRoH%2B4CpdgWuBNJ1pTCHvDRJ2qTOwXxyatRT%2FBbMMviPz%2BjOzg5nSHpoYxg9QZmxWtPjRB%2B9x5LQBl90Suq2HmZ76P2PxAenUl%2BbdkSU86j4BNXZO5cP%2ByeNcNj13LUidTBbcn%2BOnOhbrOUhBKQcj94BC4ud8%2FJn94gxFwK0RxNiKJtl6toIvoY8agvhQbPQEdBLSUJ8NHII%7Ctkp%3ABk9SR7TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1445,38 +1443,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fast Break Prizm Autographs</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Zion Williamson</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>$499.00</t>
+          <t>$201.50</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204797804196?_skw=PSA+10&amp;epid=7056500595&amp;hash=item2faee67ea4:g:6xUAAOSw-IhmS7H6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlrKfBcrdGUTo2ZeQefwFaFg%2BN9ZGiTy6h8fQgTok8KSCZys501xA0N9m39wTJ4buYmHkkP%2BHCtYg92uBtpA2AbCashDyIlNMHTb4RVp6sWQH3JwP4IPtZ%2BFVyLh60HXNglqT4TbMM1etFxLw50uLPX3h1MabY%2FKhubwtNm--2rRcVaQA%2F2kfdPnfUqblnNH3Ex9Wy4x%2BWAG5kx%2F3yFEWLg1A9eG5cv2ldoA7hVYvO2BQ%3D%3D%7Ctkp%3ABk9SR7TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/356505320971?_skw=PSA+10&amp;epid=13069593920&amp;hash=item53015f7e0b:g:GD4AAOSwinhnj7I-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm6vGLI4xJ1lt9TAutLRwS2aIa5Z1CzzHdXgskAMsM5HME4KG7kmXSA0BECwjiJ9CDciARmayMiFFCJuzwjrK8DRu%2ByyWyFSQrSulTr%2FYj7QhJnQQj2WduAadfz8kho5f3xhEjmxH%2FFlOeYTt6kquGOdqWGgNur1%2Bv65fjzcHiTFikCPOURwHzC8%2Bwo2S1uyHE%2FnIJqamXXhkSBqFe36z0C1iyS8VLd%2FQzw4TaNuZ%2FLZ%2BWe96WFaN3Qvxh7Bue7CIwB9atByp89I4EZOn13BPlz%7Ctkp%3ABk9SR7TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1486,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,55 +1501,49 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Gg Jackson</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>$811.25</t>
+          <t>$203.50</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235935442998?_skw=PSA+10&amp;epid=3056560501&amp;hash=item36eed92836:g:~ooAAOSwgKtnk6hc&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKldY6g6Cfou1%2FVcjWQqqPrpF4j7zK%2FpQP%2BQh%2Fl0iBakyA6f6Id4TleXQmRxkNBV5EQGvl9tmNmc64wwo4urJQ8nQcNhAaADip7AMAfMYNt3skmHwFBUy9XMdnIAI4kVvILKS6AoN5q2c%2BecjaAPyI2U2ofEKgQ8FqfheNVsu%2BMYx1uw24bhY30scO1Bkc14dlAZauSyU8599bAWAdY%2FYdFrUliZ%2BZGweDR681L6fkC0lQ%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/356514054996?_skw=PSA+10&amp;epid=5065172223&amp;hash=item5301e4c354:g:PnsAAOSwlwNnmYWl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmiCfY3B77sO3YFG14qou8mt3GXPl5JpyD1HujrbrEZyBr5iMjXQvIK0c2%2Bi9RsfFt6vLiSVu8DMdFDZKVa16K4TsTIZjZDdExKWssT0vZmUJ3z0Qpjqphvl5FGRIv98Af2Ppv%2Bfu5lvANYKV9uXC7sTl0PCOAH%2BhQMcAebOneEE%2FWnElvg2foDbVpeSGRtq5ss%2B9UgagBwJGRzwSmn%2ByI3DHsaKHx%2Fa9L677Q3XpyZFMJs0CvbhMl%2BIncVzECI5HBAPV4z7fvUYSfg8x3VxPAT%7Ctkp%3ABk9SR7TOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
+          <t>Breaking</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Gold Fast Break Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$157.50</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1562,7 +1554,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365377807067?_skw=PSA+10&amp;epid=27056573632&amp;hash=item551236e2db:g:e0kAAOSwIStnoW-W&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmVU6g0W6RXEuKYAOCq91Y0YjtRZ4PHhdqKtyLZ9%2BJhhnrtejLAUX4bcBWOXKlkCq31ubmhg0BULxl7d4FAZFR2r3wY9ujZRtHRzDUc%2FAePuUdjPyzQQzYvbofZtMh1P6ylum9DaQ61GUkbeHv2X0ySPo64x7THlVpMeFeY3VdCTt5kjJ929lmbj3B%2BmoO86ZzfZWpLq6yQETrQa1KbARRz3hu%2BSWxoWxzXSh8h9bE5EQ%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/306069298963?_skw=PSA+10&amp;hash=item474326df13:g:aL8AAOSwEJxnmCAu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlZQ4bBBUKL7cGAs%2FU1R0zZ915TWI5PAcWg097rOUU8VqsHQdwtCxbitu3D3ixdKiqDS4kok7ds1s7iDmA7ILyhiVwU3eJf30C3J4zh7LnokF7AzARLy6zrcRQoExexNyNjXcEdAmG0r3o9o%2BRylDQkjIIG3%2BdNb7rWfZEBLFwyIGpIjIYPUE35MJw6ReuXAGItdJ7J4s%2FkNxVeAPRsfqx7QrTeLXBQGX%2F4G32BqJFSABD4PySVTYt%2FwjuLfa5%2FY%2B7UA7vPAS%2FYfx9b5fIAprm6%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1574,38 +1566,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fast Break Prizm Signatures</t>
+          <t>Pink Fast Break Prizm</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>$164.70</t>
+          <t>$995.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316154459568?_skw=PSA+10&amp;epid=4060320419&amp;hash=item499c4635b0:g:iX0AAOSwGZlnebzB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnTKasCOIRpBrzA7FiHfQCft3iK9k9Wgg3gA7YaU2V13a%2FSRYhShD%2BxCOiSidEWttciilDrBHUpfeUc7HZcIZ90JshvUZwx%2BoKXtamzIYPgugceGG3KClWKsZogVvnmcmNNjB%2BjIDRArDOkqzP4zaXWNy0Agoza62ErLLVOC7GNnndd7mIR3VYHhiUeQJRrnHqdjaz%2FnFyvGZ6%2BwOyt39liXtfhQcn6XAvCwhf5ljHY0LteZBqGwcbMpJ3pbhKRKYlBqXJtatIG5chn99bjejK5%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/256803347683?_skw=PSA+10&amp;epid=8056571397&amp;hash=item3bcaac1ce3:g:lusAAOSwTgFnoDP3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmLQ7%2F2UbMz1I3jqZ4IHNggc3ngSIl8hnit4L%2FUKbHppZeNEJXue09k9EZNuWA7RZa7E680bXUL5%2FhUvn7sTh401I1s1vSCGpRtxuWnl6Dtat5c%2FaOrB6NiYJaE3LkMKF2aeNYhR%2BnkT9%2Bzp6L0Fk5p2jcF%2Fxr%2FRIA3zY3d%2BjFMSv9xOIo9giL17YT6EinUdvxJtoLNQnZ499gXBoP7CPftSaOotHh35MxMzBUeBuOQbA%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1619,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pink Fast Break Prizm</t>
+          <t>Fast Break Prizm Autographs</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1637,18 +1629,18 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>$595.00</t>
+          <t>$499.00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186805345254?_skw=PSA+10&amp;epid=8056571397&amp;hash=item2b7e775be6:g:5nQAAOSwGZNnjBub&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk60hpj5mqfK%2Bj8ZyyD--nf5XcSU44b8ys6RCbn%2BYhoZuPVfuMFDoXW6UpJKFJjLibfLzzAW%2BZa%2FoH9vnNiP8cYbHbnmD6jx5WByFnDnHzJpD2hsjUWij2JJ0FOIEVPQXrCvPB3r%2FrGX2JEawbKdloTccG2dQTA4zScJy539IKIwUEcZeGgM%2BTY%2B5k%2B6oqG%2FWxApTHVQt0TkYLJM%2BQm4ciglC7tl71IFMs8%2F01CKXZo%2Fx039ltK4vdirXbZUhUP7oTNI2LfX3vaqrb5%2FVg8e%2FLa%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/204797804196?_skw=PSA+10&amp;epid=7056500595&amp;hash=item2faee67ea4:g:6xUAAOSw-IhmS7H6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlrKfBcrdGUTo2ZeQefwFaFg%2BN9ZGiTy6h8fQgTok8KSCZys501xA0N9m39wTJ4buYmHkkP%2BHCtYg92uBtpA2AbCashDyIlNMHTb4RVp6sWQH3JwP4IPtZ%2BFVyLh60HXNglqT4TbMM1etFxLw50uLPX3h1MabY%2FKhubwtNm--2rRcVaQA%2F2kfdPnfUqblnNH3Ex9Wy4x%2BWAG5kx%2F3yFEWLg1A9eG5cv2ldoA7hVYvO2BQ%3D%3D%7Ctkp%3ABk9SR7TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1652,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1670,28 +1662,28 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Blue Fast Break Prizm</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>$415.00</t>
+          <t>$811.25</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356513752158?_skw=PSA+10&amp;epid=6056522134&amp;hash=item5301e0245e:g:8TQAAOSwHMtnmWdt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk40jg1BrKiycH6h9f8PE2DEXHpRs0utafzF0YIgiUuOKg5Ng6aHMG%2FxbM8fWqYN1ZZ60%2BQOwjnd2NSyFVPdBwyhenBHLtAD3ymcS%2BPFoysd87wSDe9W%2B8iVt2M74nUhBCcQjifCNkOshXoX%2F98y8uZKSiVod7L3YTH8qySzyEb496ZOBYmhs89Paf3Xi8lvJX0LVySg%2FC6RNj4lNOG8vsf7EOtorz2QE08bVuY96%2BCAQ%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/235935442998?_skw=PSA+10&amp;epid=3056560501&amp;hash=item36eed92836:g:~ooAAOSwgKtnk6hc&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKldY6g6Cfou1%2FVcjWQqqPrpF4j7zK%2FpQP%2BQh%2Fl0iBakyA6f6Id4TleXQmRxkNBV5EQGvl9tmNmc64wwo4urJQ8nQcNhAaADip7AMAfMYNt3skmHwFBUy9XMdnIAI4kVvILKS6AoN5q2c%2BecjaAPyI2U2ofEKgQ8FqfheNVsu%2BMYx1uw24bhY30scO1Bkc14dlAZauSyU8599bAWAdY%2FYdFrUliZ%2BZGweDR681L6fkC0lQ%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1703,79 +1695,81 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Choice Blue Yellow &amp; Green Prizm</t>
+          <t>Gold Fast Break Prizm</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>$375.00</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226564998276?_skw=PSA+10&amp;epid=9056565632&amp;hash=item34c0538484:g:~bgAAOSwc6JnDufi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmWNzVZOEssAifdGIAV%2BU1xELLWsZnouSTF7P6Gd%2BfutAoC27oGyOR7szaZCohICzw0kiwPppLz1%2BiNqKUISHwAMMsqmzdcBb7M0qEhnuO614Xhyc%2FUatfQM7xAYFJyn%2FVO1lsnH455%2BlWho0fiRxLG8kpf4wcm36h1lPVvGE8if4oSyT%2BM0Xnm94jg6y4WqGh1f%2FkPfgHmUUQVqpH07U4CK9HhYF%2Br5OxCbWhCtoxbA9L%2BouX5EHbX%2FIjoJOP0p3sTnooiDUpqMY%2BAMfIOVp9B%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/365377807067?_skw=PSA+10&amp;epid=27056573632&amp;hash=item551236e2db:g:e0kAAOSwIStnoW-W&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmVU6g0W6RXEuKYAOCq91Y0YjtRZ4PHhdqKtyLZ9%2BJhhnrtejLAUX4bcBWOXKlkCq31ubmhg0BULxl7d4FAZFR2r3wY9ujZRtHRzDUc%2FAePuUdjPyzQQzYvbofZtMh1P6ylum9DaQ61GUkbeHv2X0ySPo64x7THlVpMeFeY3VdCTt5kjJ929lmbj3B%2BmoO86ZzfZWpLq6yQETrQa1KbARRz3hu%2BSWxoWxzXSh8h9bE5EQ%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Breaking, Football</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2023</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>mosaic football</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>stained glass</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$415.00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167279911857?_skw=PSA+10&amp;hash=item26f2a8e3b1:g:Ho4AAOSw11RnfECB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm9ADHVaYjYZJOnhiGEEZiNMLVTk9yFl7gUkvHyS6DB3Q0JYFvq4prWSSZZeHMh4XCMFEi0aN8kDqyarZK0XB7%2Fm%2BRjg3%2B3o8%2B%2F57UnA1kyMWBQdVc5%2FheMU1J%2B4fsmB5lsZ4sLuSnzDnGPY2HaI0WMqTfCOFSsIchBaut4n%2F6PAnhtFroIPEbwGXzx2wzV3NwZNTBhX3hMqtTx72Kulh1e2mY1vU7cpd%2B16E6hdNqGTpS0CpK6SDXOgpqaobb%2FTZOLrbuA0lkMWqBhOC8j8llL%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/356513752158?_skw=PSA+10&amp;epid=6056522134&amp;hash=item5301e0245e:g:8TQAAOSwHMtnmWdt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk40jg1BrKiycH6h9f8PE2DEXHpRs0utafzF0YIgiUuOKg5Ng6aHMG%2FxbM8fWqYN1ZZ60%2BQOwjnd2NSyFVPdBwyhenBHLtAD3ymcS%2BPFoysd87wSDe9W%2B8iVt2M74nUhBCcQjifCNkOshXoX%2F98y8uZKSiVod7L3YTH8qySzyEb496ZOBYmhs89Paf3Xi8lvJX0LVySg%2FC6RNj4lNOG8vsf7EOtorz2QE08bVuY96%2BCAQ%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1787,38 +1781,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pink Fast Break Prizm</t>
+          <t>Fast Break Prizm Signatures</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>$202.50</t>
+          <t>$164.70</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306060044747?_skw=PSA+10&amp;epid=17065165141&amp;hash=item474299a9cb:g:aH4AAOSw6kdnkpkJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnrNQi%2B4IHJiU6TsXI%2Fi0P14ULtj6dDgXJFyGHXzKXhpvX4FiYvQ2dUkvf3J%2FdsNUnhfYxeK0CUF4nHqZcNg7v2Srn%2FXyVfGnD9SppfMvZx17oHvFSEypCqAndn0id4PHnouz4pwf3%2BbZT8xd9Bw4tZeYwIogrPvwn7pjWo92Kya2KHNNgb6BQw977hAEH0nQtnNY%2BpCU1JdCjf1kI4VP0J1I1pEB%2FqveI2PQDqT7O1aA%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/316154459568?_skw=PSA+10&amp;epid=4060320419&amp;hash=item499c4635b0:g:iX0AAOSwGZlnebzB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnTKasCOIRpBrzA7FiHfQCft3iK9k9Wgg3gA7YaU2V13a%2FSRYhShD%2BxCOiSidEWttciilDrBHUpfeUc7HZcIZ90JshvUZwx%2BoKXtamzIYPgugceGG3KClWKsZogVvnmcmNNjB%2BjIDRArDOkqzP4zaXWNy0Agoza62ErLLVOC7GNnndd7mIR3VYHhiUeQJRrnHqdjaz%2FnFyvGZ6%2BwOyt39liXtfhQcn6XAvCwhf5ljHY0LteZBqGwcbMpJ3pbhKRKYlBqXJtatIG5chn99bjejK5%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1824,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1840,60 +1834,60 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Red Fast Break Prizm</t>
+          <t>Pink Fast Break Prizm</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Scoot Henderson</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>$375.00</t>
+          <t>$595.00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146347795556?_skw=PSA+10&amp;epid=24065154976&amp;hash=item2213022464:g:TYkAAOSw3TVnklhU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSs6kvayZDnyNJUNhXGd%2B%2FpFwtSSA2zY43Ee3c1UVNmtfi6g32a7dXOn8I0a9%2FruM6c2YhPIi8NSOcfiZfI4FN4BcERjNXi07jJ2f8gJC93JVgVqGXo95p6mnZ6vRkF%2BpwwBpleWghZMdJ6msBGdvuD9jhFfTKbrj2sydmYflZZSld4pjvgrOYB98J3mh71l6TcNwaoHA2ToiqODsXAY4ZiVO3PCdc1wD4eoZUWopBR%2BKzvj5EL%2BhnfLns%2FTYuWvOJk2eEH1MuuWtbKk7lOGGV%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/186805345254?_skw=PSA+10&amp;epid=8056571397&amp;hash=item2b7e775be6:g:5nQAAOSwGZNnjBub&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk60hpj5mqfK%2Bj8ZyyD--nf5XcSU44b8ys6RCbn%2BYhoZuPVfuMFDoXW6UpJKFJjLibfLzzAW%2BZa%2FoH9vnNiP8cYbHbnmD6jx5WByFnDnHzJpD2hsjUWij2JJ0FOIEVPQXrCvPB3r%2FrGX2JEawbKdloTccG2dQTA4zScJy539IKIwUEcZeGgM%2BTY%2B5k%2B6oqG%2FWxApTHVQt0TkYLJM%2BQm4ciglC7tl71IFMs8%2F01CKXZo%2Fx039ltK4vdirXbZUhUP7oTNI2LfX3vaqrb5%2FVg8e%2FLa%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Breaking</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Prizm</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fast Break</t>
+          <t>Pink Fast Break Prizm</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>$1,570.75</t>
+          <t>$202.50</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1904,14 +1898,14 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365169598459?_skw=PSA+10&amp;hash=item5505cddffb:g:Em8AAOSw6K9nB15B&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkM1IMnAzneUlD4dPpCiZXAHUMRkZCJhqOKc9pEunb54pcMhg4s5BYJ7ZYplWvN8mk5W64M4MF2rH3flE1ajoec%2BhRyiKBpHmGEbFL8gYWWQn6gOrU9y1gEusIotX0YsbI61MNLQtuEIdmAvejzgGP%2Bege0iv1tHhklF7b7NLBZah0VsZUwlcsm01N8ubCJqo8k6Y5PAahycDTVnIVWK98LgNb7tztLEP0gJOK3p%2Fra0A%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/306060044747?_skw=PSA+10&amp;epid=17065165141&amp;hash=item474299a9cb:g:aH4AAOSw6kdnkpkJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnrNQi%2B4IHJiU6TsXI%2Fi0P14ULtj6dDgXJFyGHXzKXhpvX4FiYvQ2dUkvf3J%2FdsNUnhfYxeK0CUF4nHqZcNg7v2Srn%2FXyVfGnD9SppfMvZx17oHvFSEypCqAndn0id4PHnouz4pwf3%2BbZT8xd9Bw4tZeYwIogrPvwn7pjWo92Kya2KHNNgb6BQw977hAEH0nQtnNY%2BpCU1JdCjf1kI4VP0J1I1pEB%2FqveI2PQDqT7O1aA%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Breaking</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1921,33 +1915,33 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Prizm</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Fast Break</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>$950.00</t>
+          <t>$1,570.75</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266740767578?_skw=PSA+10&amp;epid=8056525107&amp;hash=item3e1afd1b5a:g:ojAAAOSwsz1mBHn8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm16yiQOFtVnhrh4ID1opIYJgY1AqbcxVU08ArFbHZhDyMu6VGxCQ2nkdcCH1edDrbF6uM7aIelO81KjdfnrXpaYSMI7%2FhHPkfn33s3ytNgAWip7uI5eAY63gGf4BacgYlRK3p7nNzC83i1tafsQvgNz54ZIyUyuqC2YG0nFfjnnW7WgPMPME91E%2BVcwkE3v21qS8wg%2BStCPIp7RXn3o6SwmmqEKY1EjxvavKl4xkAdMQ%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/365169598459?_skw=PSA+10&amp;hash=item5505cddffb:g:Em8AAOSw6K9nB15B&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkM1IMnAzneUlD4dPpCiZXAHUMRkZCJhqOKc9pEunb54pcMhg4s5BYJ7ZYplWvN8mk5W64M4MF2rH3flE1ajoec%2BhRyiKBpHmGEbFL8gYWWQn6gOrU9y1gEusIotX0YsbI61MNLQtuEIdmAvejzgGP%2Bege0iv1tHhklF7b7NLBZah0VsZUwlcsm01N8ubCJqo8k6Y5PAahycDTVnIVWK98LgNb7tztLEP0gJOK3p%2Fra0A%3D%3D%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -1959,77 +1953,79 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Red Fast Break Prizm</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Scoot Henderson</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>$160.00</t>
+          <t>$375.00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396143481169?_skw=PSA+10&amp;epid=18060336314&amp;hash=item5c3bfdd151:g:uIwAAOSwuRlnkXNr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlCd8Kwqk%2FdxCk%2FVv9XZXzfvxwVN2ixPdBoOD09l06tYjArkG0YkFj96iGbIeyKAqNAkv%2Fd3kjsRwk9wX3YIXOF%2F4zaT2lWV4Frg%2FIOHGWOaw%2F%2BzBZxQbXLys9yyv6P7miKI98c8Y1nAExMVjx7dhzSC5n6IgwHmGPYFKCwtBdbNFL79UdCnyhCOn1LAOVZUMkAq2YuJkllNxjgtL9X%2BqqdDvp%2BxrOeL%2BlWUxqU9r2ckuG4FN%2BkzkPNJKep%2Blhc3rtt1RZbzftOLkWZgLb9KX%2Fj%7Ctkp%3ABk9SR7bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/146347795556?_skw=PSA+10&amp;epid=24065154976&amp;hash=item2213022464:g:TYkAAOSw3TVnklhU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSs6kvayZDnyNJUNhXGd%2B%2FpFwtSSA2zY43Ee3c1UVNmtfi6g32a7dXOn8I0a9%2FruM6c2YhPIi8NSOcfiZfI4FN4BcERjNXi07jJ2f8gJC93JVgVqGXo95p6mnZ6vRkF%2BpwwBpleWghZMdJ6msBGdvuD9jhFfTKbrj2sydmYflZZSld4pjvgrOYB98J3mh71l6TcNwaoHA2ToiqODsXAY4ZiVO3PCdc1wD4eoZUWopBR%2BKzvj5EL%2BhnfLns%2FTYuWvOJk2eEH1MuuWtbKk7lOGGV%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
+          <t>Breaking, Football</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2023</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>mosaic football</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>stained glass</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>$1,025.00</t>
+          <t>$325.00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405498000997?_skw=PSA+10&amp;epid=8056549226&amp;hash=item5e69907665:g:O8gAAOSwhWlnktC1&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmiE%2BhK6s%2FgAMwVcspGR8xUllU434aH%2BRnMtCu4rOXNdan1MCkKvpitsN%2FRB3Qn5SRWLWaUdeW6v3QkzTVAR4GJruxsJHiOMRJdXsspghGTb%2Bcc1ODeLf1FrniqUGYh8O7qKRF3aufi9L1VOoqMuh8QiARC6yzhFZSxQDZpw37Au30f3UTk%2BwdA9wjVWCzLY%2BhzXdN1G15YZ1j0%2BRDmVTbw9iinjsvQ%2BfebL38hQgkjQSL3353WRZiG%2BqCp%2F1N3PnD%2B6P2ksdFZ8Pame2B16p0I%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/167279911857?_skw=PSA+10&amp;hash=item26f2a8e3b1:g:Ho4AAOSw11RnfECB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm9ADHVaYjYZJOnhiGEEZiNMLVTk9yFl7gUkvHyS6DB3Q0JYFvq4prWSSZZeHMh4XCMFEi0aN8kDqyarZK0XB7%2Fm%2BRjg3%2B3o8%2B%2F57UnA1kyMWBQdVc5%2FheMU1J%2B4fsmB5lsZ4sLuSnzDnGPY2HaI0WMqTfCOFSsIchBaut4n%2F6PAnhtFroIPEbwGXzx2wzV3NwZNTBhX3hMqtTx72Kulh1e2mY1vU7cpd%2B16E6hdNqGTpS0CpK6SDXOgpqaobb%2FTZOLrbuA0lkMWqBhOC8j8llL%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2041,38 +2037,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Purple Fast Break Prizm</t>
+          <t>Choice Blue Yellow &amp; Green Prizm</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>$201.50</t>
+          <t>$375.00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326415906374?_skw=PSA+10&amp;epid=5056533079&amp;hash=item4bffe77646:g:HO0AAOSwrbRnkpFG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnoFdpWOpkCIonMeGqBhN9Gm322RKKXre%2B36psLa9gnEHfNyNOCNY2N03zwca2uq9TYZhv9ScBq9eSHVcVxHN%2BmZh%2B9CoE4BcAV9dND2wczMAkNmqojFgwIvBzw2Voy5kOao9nHvEFYQjmociTavx5rzK82sZhXr%2BBL%2FnCRdVWc6E9bFHBCbJkcrarXdS0msyP3L24timNePX9B8mNw9hgChxrFe%2FzqDF1oHS%2F3c69nWA%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/226564998276?_skw=PSA+10&amp;epid=9056565632&amp;hash=item34c0538484:g:~bgAAOSwc6JnDufi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmWNzVZOEssAifdGIAV%2BU1xELLWsZnouSTF7P6Gd%2BfutAoC27oGyOR7szaZCohICzw0kiwPppLz1%2BiNqKUISHwAMMsqmzdcBb7M0qEhnuO614Xhyc%2FUatfQM7xAYFJyn%2FVO1lsnH455%2BlWho0fiRxLG8kpf4wcm36h1lPVvGE8if4oSyT%2BM0Xnm94jg6y4WqGh1f%2FkPfgHmUUQVqpH07U4CK9HhYF%2Br5OxCbWhCtoxbA9L%2BouX5EHbX%2FIjoJOP0p3sTnooiDUpqMY%2BAMfIOVp9B%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2084,34 +2080,34 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>$449.99</t>
+          <t>$160.00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356449212950?_skw=PSA+10&amp;epid=17056519586&amp;hash=item52fe075a16:g:z4wAAOSwgkBnfx6O&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKljoLC0N533OpHkDQpVQlqY40xTGjjFC5RZGpbA8zuXGp54PxBe%2FkYHnbUOeJCVTGX5I2EKFODXgb03RueMdD6kmJRtM%2FG%2FEVI6V8wdbRFkT2sK88bIFXHzsfcQWVGkXY5YSDNMJgfvP8zD4gvR%2Bjh3bDnr1%2BSHfI0vV7ZkiFKolxsfbV3SRZQ%2FxOLnd--7W1eMxjYlb3UyZ4C4TCOW8xA97UuJZHjLosN6qa50gFjMng%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/396143481169?_skw=PSA+10&amp;epid=18060336314&amp;hash=item5c3bfdd151:g:uIwAAOSwuRlnkXNr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlCd8Kwqk%2FdxCk%2FVv9XZXzfvxwVN2ixPdBoOD09l06tYjArkG0YkFj96iGbIeyKAqNAkv%2Fd3kjsRwk9wX3YIXOF%2F4zaT2lWV4Frg%2FIOHGWOaw%2F%2BzBZxQbXLys9yyv6P7miKI98c8Y1nAExMVjx7dhzSC5n6IgwHmGPYFKCwtBdbNFL79UdCnyhCOn1LAOVZUMkAq2YuJkllNxjgtL9X%2BqqdDvp%2BxrOeL%2BlWUxqU9r2ckuG4FN%2BkzkPNJKep%2Blhc3rtt1RZbzftOLkWZgLb9KX%2Fj%7Ctkp%3ABk9SR7bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2119,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,28 +2129,28 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Purple Fast Break Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ausar Thompson</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>$157.50</t>
+          <t>$950.00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146354055165?_skw=PSA+10&amp;epid=8065161390&amp;hash=item221361a7fd:g:mVUAAOSwtDdnlvKw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmyWgd%2BgqFijU7TXmByWRYorbX0knLBq3crc5MJiX9%2FUcZHqNXhS9vcVm%2BXXTE2awb1vuiIM%2BA0QfDPH734YroG4a5aAjC%2BUm6btF%2B1fUNvvZxUeuiZT4cumt3DqHBPe4%2FpInKi5bfWlogx24KK4kYmtlvhg7%2F8NK8kbw6YqavDHyGzYauQS8G7UMQCM1Us4fIXXpyDwiWPwahUxY4bhzTR1MfT4Nlbyxc%2BWQdaOYedWkEO1Wc1hAL7vMxDOJIyc8J%2Fs%2FQV3p9QXDHgiK3RvvQo%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/266740767578?_skw=PSA+10&amp;epid=8056525107&amp;hash=item3e1afd1b5a:g:ojAAAOSwsz1mBHn8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm16yiQOFtVnhrh4ID1opIYJgY1AqbcxVU08ArFbHZhDyMu6VGxCQ2nkdcCH1edDrbF6uM7aIelO81KjdfnrXpaYSMI7%2FhHPkfn33s3ytNgAWip7uI5eAY63gGf4BacgYlRK3p7nNzC83i1tafsQvgNz54ZIyUyuqC2YG0nFfjnnW7WgPMPME91E%2BVcwkE3v21qS8wg%2BStCPIp7RXn3o6SwmmqEKY1EjxvavKl4xkAdMQ%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2172,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2186,18 +2182,18 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>$4,400.00</t>
+          <t>$1,025.00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267137711834?_skw=PSA+10&amp;epid=20056511905&amp;hash=item3e32a5feda:g:yPYAAOSwaGJnl7MH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkR4aa3rxb7w5sAhf0yc9RjklnIw3U92TZpwqdReHmt18%2BZwi0kDGK9%2B2UsPPC8UGTuDJupC0QhSfHpkPE5a7Q6HjFNB4D5wsZhnxZtY7%2BT4EuQHgJ1ax6rFQV3rLrA8epkMQvoI6JmRpKIwIFr6HxfSIxBN6jf%2B%2F6rkMzdE8Dz0Apa085XVcWz3SOmKCFAn0TFb6fualFxKHjhNf1wd3Pte884d87jUOKGrOprO5uNlw%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/405498000997?_skw=PSA+10&amp;epid=8056549226&amp;hash=item5e69907665:g:O8gAAOSwhWlnktC1&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmiE%2BhK6s%2FgAMwVcspGR8xUllU434aH%2BRnMtCu4rOXNdan1MCkKvpitsN%2FRB3Qn5SRWLWaUdeW6v3QkzTVAR4GJruxsJHiOMRJdXsspghGTb%2Bcc1ODeLf1FrniqUGYh8O7qKRF3aufi9L1VOoqMuh8QiARC6yzhFZSxQDZpw37Au30f3UTk%2BwdA9wjVWCzLY%2BhzXdN1G15YZ1j0%2BRDmVTbw9iinjsvQ%2BfebL38hQgkjQSL3353WRZiG%2BqCp%2F1N3PnD%2B6P2ksdFZ8Pame2B16p0I%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2209,79 +2205,81 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Purple Fast Break Prizm</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>$282.00</t>
+          <t>$201.50</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116451887220?_skw=PSA+10&amp;epid=13056500058&amp;hash=item1b1d12c874:g:wHAAAOSwsOBnjJd2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnY%2F%2Bpvv3bf3At851HZwvcFIpcl0eanhGuYeIVP95uTZL31xLQG5E8HuBg5OkaMOFPXeZQSN3Vpnh8LUcG%2BSH1mxNQNrpTz40obDbMw40xx1wgTdTRoi5a%2FrMatsWO8vIyVhQNNZ9QLLJddXHHhhv6MdGLKMbtqP72H9rUaTdZh8Yxz5KL3PKEtYp33L3kTW9CjE30RpS3zftWLAPkSebVZ9BD1JsSVDi2RpwEfcvVCOR7%2BiYP0cygrNBbG3yd32ZZIZyvSH1H5IPA0MkW7ynCu%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/326415906374?_skw=PSA+10&amp;epid=5056533079&amp;hash=item4bffe77646:g:HO0AAOSwrbRnkpFG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnoFdpWOpkCIonMeGqBhN9Gm322RKKXre%2B36psLa9gnEHfNyNOCNY2N03zwca2uq9TYZhv9ScBq9eSHVcVxHN%2BmZh%2B9CoE4BcAV9dND2wczMAkNmqojFgwIvBzw2Voy5kOao9nHvEFYQjmociTavx5rzK82sZhXr%2BBL%2FnCRdVWc6E9bFHBCbJkcrarXdS0msyP3L24timNePX9B8mNw9hgChxrFe%2FzqDF1oHS%2F3c69nWA%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Basketball, Breaking</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2023</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Panini Prizm Draft Picks</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Green Wave</t>
+          <t>Purple Fast Break Prizm</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Ausar Thompson</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$157.50</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286021338357?_skw=PSA+10&amp;epid=22063547990&amp;hash=item42983344f5:g:kAcAAOSwFhBmxPLQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlB%2FEAAmHdaZuaR10dIC6TNCIWLYmnuByXfCvlwER%2FY74HjTr61%2FRlZOg3pIWKf3FqvXpFQfGfC8YNdPmiY%2FyAX030P9ju9kHp4SIu1e36WymxX3vK2x8O3iiNY1atmCvlgjejOwqBoLCY0KvI5FTfWm4j0fxt1XfFhxF6JcxD2BavCZB2E%2F8izMzHTY33%2FodEvOkUtRpxZkuDM%2Bmx4yFeDt8uYFldbjoBZy5x%2B5T9y0w%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/146354055165?_skw=PSA+10&amp;epid=8065161390&amp;hash=item221361a7fd:g:mVUAAOSwtDdnlvKw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmyWgd%2BgqFijU7TXmByWRYorbX0knLBq3crc5MJiX9%2FUcZHqNXhS9vcVm%2BXXTE2awb1vuiIM%2BA0QfDPH734YroG4a5aAjC%2BUm6btF%2B1fUNvvZxUeuiZT4cumt3DqHBPe4%2FpInKi5bfWlogx24KK4kYmtlvhg7%2F8NK8kbw6YqavDHyGzYauQS8G7UMQCM1Us4fIXXpyDwiWPwahUxY4bhzTR1MfT4Nlbyxc%2BWQdaOYedWkEO1Wc1hAL7vMxDOJIyc8J%2Fs%2FQV3p9QXDHgiK3RvvQo%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2293,38 +2291,34 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Gold Fast Break Prizm Autographs</t>
-        </is>
-      </c>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>$180.50</t>
+          <t>$449.99</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226552706600?_skw=PSA+10&amp;epid=6056592229&amp;hash=item34bf97f628:g:3bgAAOSwpndni0WE&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKml%2BflS03fQL1Su2sOT6ET2SIaqORzVsPeMIOp6tWhvbQX2xLgtK%2FoOfu8ZYkWNiBIR3nD0gBNnaiMHM%2BNI5n9FypY1YNt%2FqT5ISjKI5p3qzkDZ9OhjFA%2BlNj2mJyPh%2FciRyLRZeEeWu%2B8A1X1ugKxaIfoCukbFacTDf4dvHe%2FGUvwfK7YxkfWINnxmqDhiedRELfujys83%2FMJbTXBvT43zFONx%2B30dLwXdQdXcCXlF2Q%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/356449212950?_skw=PSA+10&amp;epid=17056519586&amp;hash=item52fe075a16:g:z4wAAOSwgkBnfx6O&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKljoLC0N533OpHkDQpVQlqY40xTGjjFC5RZGpbA8zuXGp54PxBe%2FkYHnbUOeJCVTGX5I2EKFODXgb03RueMdD6kmJRtM%2FG%2FEVI6V8wdbRFkT2sK88bIFXHzsfcQWVGkXY5YSDNMJgfvP8zD4gvR%2Bjh3bDnr1%2BSHfI0vV7ZkiFKolxsfbV3SRZQ%2FxOLnd--7W1eMxjYlb3UyZ4C4TCOW8xA97UuJZHjLosN6qa50gFjMng%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2336,45 +2330,51 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Blue Fast Break Prizm</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Allen Iverson</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>$275.00</t>
+          <t>$4,400.00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126886183151?_skw=PSA+10&amp;epid=22056580357&amp;hash=item1d8b0180ef:g:t98AAOSwqHVniP6W&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm%2FiwkkdFOtt0mZeGu4Bk1NX5tc56Ai7OeiGyhwahUBeOWupxOS16XFn7siq5xu%2Fy8LINyq7e%2BZUTM2psRhQm2v1l6QCa4v4VQX4RiCB7WOvj74YB3nHDNupLBTYlK%2FJfshgCUQYyQR1y4veUKzAIGHgTVexXDVebYFZm8T6aYqN4XPauAGaWpwKmqZVV0lQl0nNk2k8LkLsls0nU47qgPdj8Kf5WqLdtsfrOW47MOuMKWppixjM6M5k60ovUEMjqEEc8SWamh%2FaEOXyvpJZewO%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/267137711834?_skw=PSA+10&amp;epid=20056511905&amp;hash=item3e32a5feda:g:yPYAAOSwaGJnl7MH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkR4aa3rxb7w5sAhf0yc9RjklnIw3U92TZpwqdReHmt18%2BZwi0kDGK9%2B2UsPPC8UGTuDJupC0QhSfHpkPE5a7Q6HjFNB4D5wsZhnxZtY7%2BT4EuQHgJ1ax6rFQV3rLrA8epkMQvoI6JmRpKIwIFr6HxfSIxBN6jf%2B%2F6rkMzdE8Dz0Apa085XVcWz3SOmKCFAn0TFb6fualFxKHjhNf1wd3Pte884d87jUOKGrOprO5uNlw%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Basketball, Breaking</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2023</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2383,67 +2383,69 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fast Break</t>
+          <t>Blue Fast Break Prizm</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BRANDIN PODZIEMSKI</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>$502.64</t>
+          <t>$282.00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156649427785?_skw=PSA+10&amp;hash=item2479089349:g:gN0AAOSwfu5nkLXr&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl0Z3b0VBJNMFLxSDayi4%2Bzc4n%2FJOz1dpafqfZVygZfjpK2rlcFXIBMHa%2BzXc2EcrqsLnniro1%2FZD81c934skdAgdS8ibgDH5wrTGGDsbFdw4s0Bb3KE07SkxKuNHQhRu%2BjNTvoe5NPXSrQ5DooJwDwumcxR%2BC4vdLs3CeHh4WAluT9lDsmOkWzxNGm6qdTMje1T1Ca5ltYY7ofxgKr%2B%2Fo5jWJA%2BUFvTb5XZ45TMS0xkQ%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/116451887220?_skw=PSA+10&amp;epid=13056500058&amp;hash=item1b1d12c874:g:wHAAAOSwsOBnjJd2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnY%2F%2Bpvv3bf3At851HZwvcFIpcl0eanhGuYeIVP95uTZL31xLQG5E8HuBg5OkaMOFPXeZQSN3Vpnh8LUcG%2BSH1mxNQNrpTz40obDbMw40xx1wgTdTRoi5a%2FrMatsWO8vIyVhQNNZ9QLLJddXHHhhv6MdGLKMbtqP72H9rUaTdZh8Yxz5KL3PKEtYp33L3kTW9CjE30RpS3zftWLAPkSebVZ9BD1JsSVDi2RpwEfcvVCOR7%2BiYP0cygrNBbG3yd32ZZIZyvSH1H5IPA0MkW7ynCu%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
+          <t>Basketball, Breaking</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2023</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>Panini Prizm Draft Picks</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Green Wave</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>$449.99</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387842884786?_skw=PSA+10&amp;epid=17056519586&amp;hash=item5a4d3cc4b2:g:8lMAAOSwtFRngsQL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnDqrzcauujZN%2BvgaWTJrkxZYJ7fyJBjOqpCHj7Gt94ElsoIMJi9X2O%2FdeJ%2FTeczm%2FibyaAXk%2FuDarI70lHZC9TPBvVAxAGqz%2Bi0EQK0%2FYLBiAyNdO4%2FaoT3A8Zbb6hQdANS1frAiHPn9Ce0d5MQ7t%2F3Q5yUu7hhxD8ypARCZUuGHkNLcMMWJdqbykKXqq%2FgPDCnNJ1msdCXHpKqvjnoaiq71cTOqUA2WWYIGO4Sgw7Jw%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/286021338357?_skw=PSA+10&amp;epid=22063547990&amp;hash=item42983344f5:g:kAcAAOSwFhBmxPLQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlB%2FEAAmHdaZuaR10dIC6TNCIWLYmnuByXfCvlwER%2FY74HjTr61%2FRlZOg3pIWKf3FqvXpFQfGfC8YNdPmiY%2FyAX030P9ju9kHp4SIu1e36WymxX3vK2x8O3iiNY1atmCvlgjejOwqBoLCY0KvI5FTfWm4j0fxt1XfFhxF6JcxD2BavCZB2E%2F8izMzHTY33%2FodEvOkUtRpxZkuDM%2Bmx4yFeDt8uYFldbjoBZy5x%2B5T9y0w%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2457,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2465,28 +2467,28 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Gold Fast Break Prizm Autographs</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>$4,000.00</t>
+          <t>$180.50</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146236536814?_skw=PSA+10&amp;epid=3065166541&amp;hash=item220c6077ee:g:tt8AAOSwvEZnTGRi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnBLw3PjqKInI2cCdo3YcLwcJMgAu0NsDvkIJy8a0cXlHOixwj3DSbTr%2BGqv%2FrYN160252HFfs8gyfX422TYO3sjC%2Fi4hvp%2F1at0HjS9MgzMrx%2FCmkh7H5Z%2F83MpmNBTlvLILs3MC9sz87D3b%2FvT745vcIourutm7KPe6khL1a4RaCQovj6qh0gBGMoKzn8QPwWBwBzvA26R62TiLQ7brjZpBPAeRU2HPGcQeBbyDjfAg%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/226552706600?_skw=PSA+10&amp;epid=6056592229&amp;hash=item34bf97f628:g:3bgAAOSwpndni0WE&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKml%2BflS03fQL1Su2sOT6ET2SIaqORzVsPeMIOp6tWhvbQX2xLgtK%2FoOfu8ZYkWNiBIR3nD0gBNnaiMHM%2BNI5n9FypY1YNt%2FqT5ISjKI5p3qzkDZ9OhjFA%2BlNj2mJyPh%2FciRyLRZeEeWu%2B8A1X1ugKxaIfoCukbFacTDf4dvHe%2FGUvwfK7YxkfWINnxmqDhiedRELfujys83%2FMJbTXBvT43zFONx%2B30dLwXdQdXcCXlF2Q%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2509,107 +2511,103 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Allen Iverson</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>$449.99</t>
+          <t>$275.00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387814670248?_skw=PSA+10&amp;epid=17056519586&amp;hash=item5a4b8e3fa8:g:8lMAAOSwtFRngsQL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkpbBKH5tie%2Fjk%2FoCivtqzJbe9TAdsKgoQAN4hn%2BVokNR0hC6S4TMI5B%2B5V3nveIgA%2F5JESKkFWjVFtQwYSJ0i6fak8GjOrB2GcnwYkae3wXURvrfjREKD2PSndPulOEGHmhzNJdf7mTxVqTOW5DD%2FCWSMFxRAVrJFe%2FhGn31CT04CawsRy29iUowhtyTBCML07ywgC6kUnhfespRLvKanUmZGpcqYK%2FmZT9XfrbVs%2BEg%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/126886183151?_skw=PSA+10&amp;epid=22056580357&amp;hash=item1d8b0180ef:g:t98AAOSwqHVniP6W&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm%2FiwkkdFOtt0mZeGu4Bk1NX5tc56Ai7OeiGyhwahUBeOWupxOS16XFn7siq5xu%2Fy8LINyq7e%2BZUTM2psRhQm2v1l6QCa4v4VQX4RiCB7WOvj74YB3nHDNupLBTYlK%2FJfshgCUQYyQR1y4veUKzAIGHgTVexXDVebYFZm8T6aYqN4XPauAGaWpwKmqZVV0lQl0nNk2k8LkLsls0nU47qgPdj8Kf5WqLdtsfrOW47MOuMKWppixjM6M5k60ovUEMjqEEc8SWamh%2FaEOXyvpJZewO%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
+          <t>Basketball, Breaking</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2023</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Red Fast Break Prizm</t>
+          <t>Fast Break</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>BRANDIN PODZIEMSKI</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>$1,200.00</t>
+          <t>$502.64</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256787513485?_skw=PSA+10&amp;epid=19056512871&amp;hash=item3bc9ba808d:g:mlMAAOSwMGZni-69&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkfywW%2BTvcDcn1%2FTH7266A2Z8Ex1srWyTfzsn8c9NOqcGiPChO%2B6zQvsmwS2zGxKYQBYG92Xtul5NLI7WWRjec%2FAg09tpLxU3rbJsj4v7WScf%2F6TBVOj%2FSQfWH8kwjAdaw2BoPF8vre23zjq7PeVgbFDD4XRp4seoKKowk9t9mEvjuA7kROCeEWDUYlB2lpW%2BOi%2BWLAj4kpruLTm2DFFqzt6VJRi0ZXfodlKhHbTNxUmg%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/156649427785?_skw=PSA+10&amp;hash=item2479089349:g:gN0AAOSwfu5nkLXr&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl0Z3b0VBJNMFLxSDayi4%2Bzc4n%2FJOz1dpafqfZVygZfjpK2rlcFXIBMHa%2BzXc2EcrqsLnniro1%2FZD81c934skdAgdS8ibgDH5wrTGGDsbFdw4s0Bb3KE07SkxKuNHQhRu%2BjNTvoe5NPXSrQ5DooJwDwumcxR%2BC4vdLs3CeHh4WAluT9lDsmOkWzxNGm6qdTMje1T1Ca5ltYY7ofxgKr%2B%2Fo5jWJA%2BUFvTb5XZ45TMS0xkQ%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Breaking, Basketball</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2020</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Fast Break</t>
-        </is>
-      </c>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>LaMelo Ball, Tyrese Haliburton, Anthony Edwards, LeBron James, Kobe Bryant</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>$282.74</t>
+          <t>$449.99</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196940930960?_skw=PSA+10&amp;hash=item2dda981f90:g:8~YAAOSwLGZngLa-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlWVydI%2F4X6tJe%2BZaROCWrP4tk0FFulM28N61LQwB6cUAPGxufpssG70FHoD152X4c7FvScH9m5yQn9E4OlO9GI1gyVxys46PLO1IkEBnRloD%2BD8dkvhD7rxWyUXO%2FIx%2FPQy72Dordplr4c0ZAbMVEgres1TEo47zvLX%2FQmwEd9Cfm%2BTFhMoErD3qbc%2BxLgVNqo%2BhqAH7Zjk8XnfDp2fBEZ0waa%2BOpirfS9JvpDrZW3WA%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/387842884786?_skw=PSA+10&amp;epid=17056519586&amp;hash=item5a4d3cc4b2:g:8lMAAOSwtFRngsQL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnDqrzcauujZN%2BvgaWTJrkxZYJ7fyJBjOqpCHj7Gt94ElsoIMJi9X2O%2FdeJ%2FTeczm%2FibyaAXk%2FuDarI70lHZC9TPBvVAxAGqz%2Bi0EQK0%2FYLBiAyNdO4%2FaoT3A8Zbb6hQdANS1frAiHPn9Ce0d5MQ7t%2F3Q5yUu7hhxD8ypARCZUuGHkNLcMMWJdqbykKXqq%2FgPDCnNJ1msdCXHpKqvjnoaiq71cTOqUA2WWYIGO4Sgw7Jw%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2621,34 +2619,38 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Blue Fast Break Prizm</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Alperen Sengun</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>$168.50</t>
+          <t>$4,000.00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326402154852?_skw=PSA+10&amp;epid=14058640425&amp;hash=item4bff15a164:g:ZW8AAOSwMQJngsLB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl3hGFfSQG2RQTjC1ByPf3n1vUjlF9VPtcEXR83h3wNnFp0jOo2k0r%2BGXO2iOJrIaZhSlCHYX6%2FqG0E9mTD%2FDjdCYC13aT7kDdc3YgEKuPj6zZcGx0U2kTNhw2CFtD80xjo7WchQQWwQpYGlOen3SS3bxkj1AxhA5BbCbRPaLBAtW999X8XhMg74zsqrke0k1chcUzMxv3XbUP2wXgxWeRqQOOGWmqcLXl06C%2BUqR0ir9ufCeuqFCe%2BRTIiSAhS6FCl1otuiyUKz5UAXT%2BXHPhG%7Ctkp%3ABk9SR7jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/146236536814?_skw=PSA+10&amp;epid=3065166541&amp;hash=item220c6077ee:g:tt8AAOSwvEZnTGRi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnBLw3PjqKInI2cCdo3YcLwcJMgAu0NsDvkIJy8a0cXlHOixwj3DSbTr%2BGqv%2FrYN160252HFfs8gyfX422TYO3sjC%2Fi4hvp%2F1at0HjS9MgzMrx%2FCmkh7H5Z%2F83MpmNBTlvLILs3MC9sz87D3b%2FvT745vcIourutm7KPe6khL1a4RaCQovj6qh0gBGMoKzn8QPwWBwBzvA26R62TiLQ7brjZpBPAeRU2HPGcQeBbyDjfAg%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2660,120 +2662,118 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Panini Select</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Red Disco Prizm</t>
-        </is>
-      </c>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Alperen Sengun</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>$174.50</t>
+          <t>$449.99</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387811312786?_skw=PSA+10&amp;epid=22057546990&amp;hash=item5a4b5b0492:g:nH0AAOSw~vdngVDd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmMp1xDpU11wjiCXA5X%2BxnEv%2Fo5CZpfYP1jMdY46u393KqoCIjr98WR32sZr2Klg6jCxxlVfzdwaetowdvkQ5UzwQh4qPf%2BBXQEBOBFJSkr2S%2FfVlrJCV4GXm6DGsb3TvKr2wzVT22C5exKHBwyJF5%2BkDl1FtfPuQ1qZAhc1PN7d544ZwssqMHD6QlBe2k7Nx2y2HdnQQfHVOcTDSm%2FsBSn080yQ3kC%2Fax5NVSzeQ%2BzFQ%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/387814670248?_skw=PSA+10&amp;epid=17056519586&amp;hash=item5a4b8e3fa8:g:8lMAAOSwtFRngsQL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkpbBKH5tie%2Fjk%2FoCivtqzJbe9TAdsKgoQAN4hn%2BVokNR0hC6S4TMI5B%2B5V3nveIgA%2F5JESKkFWjVFtQwYSJ0i6fak8GjOrB2GcnwYkae3wXURvrfjREKD2PSndPulOEGHmhzNJdf7mTxVqTOW5DD%2FCWSMFxRAVrJFe%2FhGn31CT04CawsRy29iUowhtyTBCML07ywgC6kUnhfespRLvKanUmZGpcqYK%2FmZT9XfrbVs%2BEg%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ice Hockey</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Kraft Dream Team</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Red Fast Break Prizm</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Patrick Roy</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>$183.00</t>
+          <t>$1,200.00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405462326561?_skw=PSA+10&amp;epid=21056565359&amp;hash=item5e67701d21:g:VIsAAOSwk1NnTF0s&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnSUwtrbIixdnKJUEQt7DP2MBdDc9liunthFMtLTxk0DFNVGjEFTGua%2FS2DeJ1xb3k7HGtLUxQwWoLeX7rmTgELGVuW%2B5SS2tTw3AyguqdjFCB5InE8sSrZhCMIO4vL7eHqPv6bMf4F%2BUGVmH%2BfPHGKuduUHdLBljyAjwQ%2FpQIG0wAv8rS0RgI6WIR0omj3oH79MmTDcW0BLZPSCDjjhrYe62EVQMI4TBeBvsWwHf6rVwflrVleC%2Bq%2Fstz20y0JsjDHBshv%2FPJKNmMHiclxryMg%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/256787513485?_skw=PSA+10&amp;epid=19056512871&amp;hash=item3bc9ba808d:g:mlMAAOSwMGZni-69&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkfywW%2BTvcDcn1%2FTH7266A2Z8Ex1srWyTfzsn8c9NOqcGiPChO%2B6zQvsmwS2zGxKYQBYG92Xtul5NLI7WWRjec%2FAg09tpLxU3rbJsj4v7WScf%2F6TBVOj%2FSQfWH8kwjAdaw2BoPF8vre23zjq7PeVgbFDD4XRp4seoKKowk9t9mEvjuA7kROCeEWDUYlB2lpW%2BOi%2BWLAj4kpruLTm2DFFqzt6VJRi0ZXfodlKhHbTNxUmg%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
+          <t>Breaking, Basketball</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2020</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>Fast Break</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>LaMelo Ball, Tyrese Haliburton, Anthony Edwards, LeBron James, Kobe Bryant</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>$399.99</t>
+          <t>$282.74</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365262940065?_skw=PSA+10&amp;epid=18056521247&amp;hash=item550b5e27a1:g:O6IAAOSwz1hlY8Qw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKluqV6u0WbVMeU0pOuGAhzG3FoZcRhEbk2OIyKZ4QfSwHnOzv2qYZc5Bn7ts4f%2BHMGRCeU75EP22nJqffXtsdzmc07RdTnaVohvN0C0cK6Zu7oquLnJVCCBmNaUEMrx4PD7Mu%2BUM%2BICZkd6DMz0dmV%2FJXow5eQxbi17ulP%2FYhK4HyS0j1BsADfLzlVtGuxraok3T6COEHqFk9LScpEa%2B0FRhOhDtdjpFEtu1TrfUxlOfw%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/196940930960?_skw=PSA+10&amp;hash=item2dda981f90:g:8~YAAOSwLGZngLa-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlWVydI%2F4X6tJe%2BZaROCWrP4tk0FFulM28N61LQwB6cUAPGxufpssG70FHoD152X4c7FvScH9m5yQn9E4OlO9GI1gyVxys46PLO1IkEBnRloD%2BD8dkvhD7rxWyUXO%2FIx%2FPQy72Dordplr4c0ZAbMVEgres1TEo47zvLX%2FQmwEd9Cfm%2BTFhMoErD3qbc%2BxLgVNqo%2BhqAH7Zjk8XnfDp2fBEZ0waa%2BOpirfS9JvpDrZW3WA%3D%3D%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2785,38 +2785,34 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Holo Fast Break Prizm</t>
-        </is>
-      </c>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Alperen Sengun</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>$225.00</t>
+          <t>$168.50</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176792760164?_skw=PSA+10&amp;epid=17068497636&amp;hash=item2929ab6f64:g:dwgAAOSwGnVniK~T&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkdNGMvjOz3k%2B5gNyFwdjvD4OKIPwN%2FBw25kmM2lNay5jihxENHT8y2aOyexOYsI%2F%2BsKxk7nydDA11zWXKE5xuRpc4fCQeXdmuloc1VFqAsIv56oq9l8kwnXsicdO7rCr9v2Tv1k3hiB07KJC5hgUwKhSfdCduPqkcs46UcpyH6gE6WP6v%2FpaVPTzBkGX6SEM4I7QcsX0sXRMcZMjHDa1Q%2Bxq9rTo1R0NDGdHJgVKuSSg%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/326402154852?_skw=PSA+10&amp;epid=14058640425&amp;hash=item4bff15a164:g:ZW8AAOSwMQJngsLB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl3hGFfSQG2RQTjC1ByPf3n1vUjlF9VPtcEXR83h3wNnFp0jOo2k0r%2BGXO2iOJrIaZhSlCHYX6%2FqG0E9mTD%2FDjdCYC13aT7kDdc3YgEKuPj6zZcGx0U2kTNhw2CFtD80xjo7WchQQWwQpYGlOen3SS3bxkj1AxhA5BbCbRPaLBAtW999X8XhMg74zsqrke0k1chcUzMxv3XbUP2wXgxWeRqQOOGWmqcLXl06C%2BUqR0ir9ufCeuqFCe%2BRTIiSAhS6FCl1otuiyUKz5UAXT%2BXHPhG%7Ctkp%3ABk9SR7jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2828,38 +2824,38 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Red Disco Prizm</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Alperen Sengun</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>$260.00</t>
+          <t>$174.50</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276809628236?_skw=PSA+10&amp;epid=10060333795&amp;hash=item407323ba4c:g:yHgAAOSwy05nfsLd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmaaAOg9wljOK5FP6sMor0O7mKpqqJPN3Nt6A%2BwLJbLFRH5moGKo9v1UTDl0mte65sFapgUdpV7%2B9beGQhP082zrA2Sfs9yBdt4bbPmDufwXp%2B4bhY2saamv0QOssZ44j%2FfhJehBWkol08ixUVH1XM%2BBIhdP5j9%2FBX2XOnn%2B6zbVbGQzoR4HTraLqA%2FxuAAW3MH4naBtIfOi8PAltO18lL%2FDgC14kw0zivyBK38FNIKfw%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/387811312786?_skw=PSA+10&amp;epid=22057546990&amp;hash=item5a4b5b0492:g:nH0AAOSw~vdngVDd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmMp1xDpU11wjiCXA5X%2BxnEv%2Fo5CZpfYP1jMdY46u393KqoCIjr98WR32sZr2Klg6jCxxlVfzdwaetowdvkQ5UzwQh4qPf%2BBXQEBOBFJSkr2S%2FfVlrJCV4GXm6DGsb3TvKr2wzVT22C5exKHBwyJF5%2BkDl1FtfPuQ1qZAhc1PN7d544ZwssqMHD6QlBe2k7Nx2y2HdnQQfHVOcTDSm%2FsBSn080yQ3kC%2Fax5NVSzeQ%2BzFQ%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2871,81 +2867,77 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Red Fast Break Prizm</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Scoot Henderson</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>$165.00</t>
+          <t>$399.99</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267039893886?_skw=PSA+10&amp;epid=24065154976&amp;hash=item3e2cd1697e:g:rK4AAOSwJo1nGpTg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2B7Px%2Fz%2Flq%2F0z20PuiuD2Pc4TE6Aj0d2g4RPQi3K1e4Ypieh2vlE3a89iPYMPZcT9nqxFOTTJNAyvI9r1xpQv0pd90aiOsPrIj1JL43suw2dzWWk6Lp%2BKyXEC0wKJc0KAzExkzO0AAhYoiAnISOubwVQ%2FMPQdB0t3YGzEnsHPIKDHPbYAWI6UJ5q%2FZ4CnXCPV67RVAZWDiWqTLXF54e%2B5surPRvOQkA%2F0d5MXxwKgG46UzOTqCmUFmOSvvXETGizfHAXELTNmVb5u767SfSnz5%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/365262940065?_skw=PSA+10&amp;epid=18056521247&amp;hash=item550b5e27a1:g:O6IAAOSwz1hlY8Qw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKluqV6u0WbVMeU0pOuGAhzG3FoZcRhEbk2OIyKZ4QfSwHnOzv2qYZc5Bn7ts4f%2BHMGRCeU75EP22nJqffXtsdzmc07RdTnaVohvN0C0cK6Zu7oquLnJVCCBmNaUEMrx4PD7Mu%2BUM%2BICZkd6DMz0dmV%2FJXow5eQxbi17ulP%2FYhK4HyS0j1BsADfLzlVtGuxraok3T6COEHqFk9LScpEa%2B0FRhOhDtdjpFEtu1TrfUxlOfw%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Ice Hockey</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>1986-87</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Gold Prizm</t>
-        </is>
-      </c>
+          <t>Kraft Dream Team</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Patrick Roy</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>$1,463.00</t>
+          <t>$183.00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146321374406?_skw=PSA+10&amp;epid=16056510735&amp;hash=item22116efcc6:g:wpMAAOSwtKlndDlF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm0Dr%2BVzxsB0RcuaBCxahu4Ohc%2F4hLy%2FU1cyrAlwRbk4k0En8uqUFx3vwbHempkmRErIu9m%2FuwFATlag1M8rsHC1z%2FvWJvTJl7Wnzva4vxPsfJGsddcDepWkp3MquZqS%2FASEAAb4O7C%2FQPFyGSNSCuvuAZZ9f694hHUPsQO14laTl9V1ReUgjHeM48qVjoIb06GS1wzG%2Fg82ro2IdHhCIhpZG17pHRm6mmHbLfG0IMMLRYyhK2KE4kBBLSyb%2BBQP4mYWElK--MaVl9l6GZsEuUY%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/405462326561?_skw=PSA+10&amp;epid=21056565359&amp;hash=item5e67701d21:g:VIsAAOSwk1NnTF0s&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnSUwtrbIixdnKJUEQt7DP2MBdDc9liunthFMtLTxk0DFNVGjEFTGua%2FS2DeJ1xb3k7HGtLUxQwWoLeX7rmTgELGVuW%2B5SS2tTw3AyguqdjFCB5InE8sSrZhCMIO4vL7eHqPv6bMf4F%2BUGVmH%2BfPHGKuduUHdLBljyAjwQ%2FpQIG0wAv8rS0RgI6WIR0omj3oH79MmTDcW0BLZPSCDjjhrYe62EVQMI4TBeBvsWwHf6rVwflrVleC%2Bq%2Fstz20y0JsjDHBshv%2FPJKNmMHiclxryMg%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -2957,38 +2949,38 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Gold Fast Break Prizm</t>
+          <t>Holo Fast Break Prizm</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$225.00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396073922872?_skw=PSA+10&amp;epid=11058631937&amp;hash=item5c37d87138:g:98kAAOSwshhncxz7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm1te0FTxKs7F9POo3YB1Lon42iD%2ByJLdqlR27xLgM3zTljFBBSCx%2BhQU%2FouBkhKCZInI7ANIUggHy6%2Fxl6vi9JqikBwyRAZTfe67VXUG1irOXY0sIxLEXS%2BGQAQfGafj6CDSX0yPFDkxhcNxqQg05f7QusKJP4cGZXZIKRzsJQs%2FelZXii78SMoe91o%2BgC3R0s1pKQZ2N80ajd%2Bz1NV%2B8VHohdkBL8eBD3tnWDAnSwHXDz29CMPfTLA2mL9D5Ecq76mnAFm%2BeSAQw11UjMVhD%2F%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/176792760164?_skw=PSA+10&amp;epid=17068497636&amp;hash=item2929ab6f64:g:dwgAAOSwGnVniK~T&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkdNGMvjOz3k%2B5gNyFwdjvD4OKIPwN%2FBw25kmM2lNay5jihxENHT8y2aOyexOYsI%2F%2BsKxk7nydDA11zWXKE5xuRpc4fCQeXdmuloc1VFqAsIv56oq9l8kwnXsicdO7rCr9v2Tv1k3hiB07KJC5hgUwKhSfdCduPqkcs46UcpyH6gE6WP6v%2FpaVPTzBkGX6SEM4I7QcsX0sXRMcZMjHDa1Q%2Bxq9rTo1R0NDGdHJgVKuSSg%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3000,34 +2992,38 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Blue Fast Break Prizm</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Charles Barkley</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$260.00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126870043725?_skw=PSA+10&amp;epid=26059318341&amp;hash=item1d8a0b3c4d:g:joUAAOSwAyNnaLEJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnTF7LNCQzfayOWEAUXwdEDFe7m32%2F3Xi%2Bb9r%2FfTtX2l7Uw%2FDRFfMW2xWuR5blVPffwlLmlwuRP13JPG7txUQJL9N1AZahDvYk0vBdo1VoKo8u8al0z5it3g19xAVk81iV6g%2F8btzvUM%2F8kdz7IkeJrXSHRm6VC4C4LkVy4cBhUqQDev6PSuwYuSpGi52fF5RZdlRgD76ZBKeQ4naVWr8NkiOtghvF3UOHvtnVHELe0Zw%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/276809628236?_skw=PSA+10&amp;epid=10060333795&amp;hash=item407323ba4c:g:yHgAAOSwy05nfsLd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmaaAOg9wljOK5FP6sMor0O7mKpqqJPN3Nt6A%2BwLJbLFRH5moGKo9v1UTDl0mte65sFapgUdpV7%2B9beGQhP082zrA2Sfs9yBdt4bbPmDufwXp%2B4bhY2saamv0QOssZ44j%2FfhJehBWkol08ixUVH1XM%2BBIhdP5j9%2FBX2XOnn%2B6zbVbGQzoR4HTraLqA%2FxuAAW3MH4naBtIfOi8PAltO18lL%2FDgC14kw0zivyBK38FNIKfw%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3035,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3049,28 +3045,28 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Neon Green Fast Break Prizm</t>
+          <t>Red Fast Break Prizm</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Scoot Henderson</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>$455.00</t>
+          <t>$165.00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135476131056?_skw=PSA+10&amp;epid=6060335679&amp;hash=item1f8b01b4f0:g:A-YAAOSwLr5ndPF5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmD75pN9Q6%2BU0daqK6OUOpd7r4G81zPmlEFgueS1kL3Qp42mldnS1o%2BSkO7uWkBcrq2B%2BiLkTQfUsky94Dl11VYTkgzYe8ZOYAPwGVhJaa%2FinWu60K6K8OuGZOnf%2Fdg41So%2BbxiJ72sH3GMGPdc6Y81s1HSGnUwNNHBwfufgo5NjMi9VlECbMrbfPfIMUnxbcZzAidSFIu19EtjLRl%2FJfmClBB7QtpWmbijDmnnMN2yOQ%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/267039893886?_skw=PSA+10&amp;epid=24065154976&amp;hash=item3e2cd1697e:g:rK4AAOSwJo1nGpTg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2B7Px%2Fz%2Flq%2F0z20PuiuD2Pc4TE6Aj0d2g4RPQi3K1e4Ypieh2vlE3a89iPYMPZcT9nqxFOTTJNAyvI9r1xpQv0pd90aiOsPrIj1JL43suw2dzWWk6Lp%2BKyXEC0wKJc0KAzExkzO0AAhYoiAnISOubwVQ%2FMPQdB0t3YGzEnsHPIKDHPbYAWI6UJ5q%2FZ4CnXCPV67RVAZWDiWqTLXF54e%2B5surPRvOQkA%2F0d5MXxwKgG46UzOTqCmUFmOSvvXETGizfHAXELTNmVb5u767SfSnz5%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3078,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3092,28 +3088,28 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Fast Break Prizm Autographs</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>$549.99</t>
+          <t>$1,463.00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/145396182190?_skw=PSA+10&amp;epid=17056532879&amp;hash=item21da49acae:g:xRQAAOSwqpllOyzT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnZ4SYGYK4Hud0QW42DjbhElD%2FMPSC3sF%2Bzc%2BZjPUmhB3jM8KLTtFdbUdL%2F0%2FrSLCo8ilxECYxekI0y0wv55L4zwBJc9Jh4nOVJpJgNK1rSnqoY3iqJv%2BvA6p5bDQs5dplRHSKQevEs5XcqniyZzQm45DGTea7ATY%2FXHx9WGlQuGwoDzzvgreo%2FOlGLFxGlU78Y7me853M%2FNDPIPE23oBtBYHVL7ZgCu0wQYDhznNXwDg%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/146321374406?_skw=PSA+10&amp;epid=16056510735&amp;hash=item22116efcc6:g:wpMAAOSwtKlndDlF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm0Dr%2BVzxsB0RcuaBCxahu4Ohc%2F4hLy%2FU1cyrAlwRbk4k0En8uqUFx3vwbHempkmRErIu9m%2FuwFATlag1M8rsHC1z%2FvWJvTJl7Wnzva4vxPsfJGsddcDepWkp3MquZqS%2FASEAAb4O7C%2FQPFyGSNSCuvuAZZ9f694hHUPsQO14laTl9V1ReUgjHeM48qVjoIb06GS1wzG%2Fg82ro2IdHhCIhpZG17pHRm6mmHbLfG0IMMLRYyhK2KE4kBBLSyb%2BBQP4mYWElK--MaVl9l6GZsEuUY%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3125,38 +3121,38 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>Gold Fast Break Prizm</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>$1,225.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146307197925?_skw=PSA+10&amp;epid=16056510735&amp;hash=item221096abe5:g:wpMAAOSwtKlndDlF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnPhNeOVJGq7lF9F4rZC9OQKTBjxDjtO0sFnMCBOmJXwL1onZ9YiusRwSdLJQsa4E7Phjoeg6W7gHPqdKPiTEwSac0Mrm485%2BKKvkaDdK%2Bfi95irpGPdKtfNvM1jpTgiAj3waq8iRHA%2FxFgFtlPmUX08KvwtCvDrP%2BVwp8KunNxfbQWrQzP1ghpzJhrhG4h9H5yvaGkWKUiCiJVLPtH8Z8y9eYENWM6Kj%2FlmsfFtNBBVw%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/396073922872?_skw=PSA+10&amp;epid=11058631937&amp;hash=item5c37d87138:g:98kAAOSwshhncxz7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm1te0FTxKs7F9POo3YB1Lon42iD%2ByJLdqlR27xLgM3zTljFBBSCx%2BhQU%2FouBkhKCZInI7ANIUggHy6%2Fxl6vi9JqikBwyRAZTfe67VXUG1irOXY0sIxLEXS%2BGQAQfGafj6CDSX0yPFDkxhcNxqQg05f7QusKJP4cGZXZIKRzsJQs%2FelZXii78SMoe91o%2BgC3R0s1pKQZ2N80ajd%2Bz1NV%2B8VHohdkBL8eBD3tnWDAnSwHXDz29CMPfTLA2mL9D5Ecq76mnAFm%2BeSAQw11UjMVhD%2F%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3168,34 +3164,34 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Charles Barkley</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>$190.50</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387782190750?_skw=PSA+10&amp;epid=19060325669&amp;hash=item5a499ea69e:g:500AAOSwVuNndHUO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlViggEw8fDoQ6Y5pCMzIZ97aViNihOoHE56DsglsE59dLBsVKJFRDgmYG1s9ZjzvZTWTAs1m%2BvnyHUIwJQQgIDGyU6kQmeUQtP2A7zXI45%2BH8OW%2F6lRDJw8qdyJuiDbSXjPggDpKpGFb%2BtAnLWgFsGAdZgxneocsU4p5w3QI7KckmXGtU%2BKR6Um4xfTX%2FZiFI0mSdAnsIlXq6Vp2aiGuPqo4FKVh57xFYtrf5Sf8NDS3djAplGVSjDwLOgXifHJ%2Bomp0XO7tgoU8skh6vPwb9l%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/126870043725?_skw=PSA+10&amp;epid=26059318341&amp;hash=item1d8a0b3c4d:g:joUAAOSwAyNnaLEJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnTF7LNCQzfayOWEAUXwdEDFe7m32%2F3Xi%2Bb9r%2FfTtX2l7Uw%2FDRFfMW2xWuR5blVPffwlLmlwuRP13JPG7txUQJL9N1AZahDvYk0vBdo1VoKo8u8al0z5it3g19xAVk81iV6g%2F8btzvUM%2F8kdz7IkeJrXSHRm6VC4C4LkVy4cBhUqQDev6PSuwYuSpGi52fF5RZdlRgD76ZBKeQ4naVWr8NkiOtghvF3UOHvtnVHELe0Zw%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3203,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3217,40 +3213,40 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Red Fast Break Prizm</t>
+          <t>Neon Green Fast Break Prizm</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>$1,125.00</t>
+          <t>$455.00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256768056170?_skw=PSA+10&amp;epid=8056534555&amp;hash=item3bc8919b6a:g:lkgAAOSwQdtnKUwP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnTHbKFGZrq1vD3oxIfEwx1hU29Rrz2xLgbNfTV1YkiEl8Jxy1hRv%2FZE6t%2BhDggPw683H07j3avl5bhEVZs%2Fc2eFa5FUH3MVe1oPoNRIoBCA6aBb5qQBEnc5WduF7nZ1wCtGp%2Bw6Q6YoFvhEKp2vQHR%2BW%2F4mPiJQa93sgl1%2BbqSzOnaTNvMOz0lfFBq7PHV1pnuoGstJxmjn1kLkaqAGFl9Fbpqlv3gaexZikI4b6Ws2axfpVIktyMlsEtkedL36zVXVeXnoBUfq8Qqi3eE3WR3%7Ctkp%3ABk9SR7rOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/135476131056?_skw=PSA+10&amp;epid=6060335679&amp;hash=item1f8b01b4f0:g:A-YAAOSwLr5ndPF5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmD75pN9Q6%2BU0daqK6OUOpd7r4G81zPmlEFgueS1kL3Qp42mldnS1o%2BSkO7uWkBcrq2B%2BiLkTQfUsky94Dl11VYTkgzYe8ZOYAPwGVhJaa%2FinWu60K6K8OuGZOnf%2Fdg41So%2BbxiJ72sH3GMGPdc6Y81s1HSGnUwNNHBwfufgo5NjMi9VlECbMrbfPfIMUnxbcZzAidSFIu19EtjLRl%2FJfmClBB7QtpWmbijDmnnMN2yOQ%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Breaking</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3260,28 +3256,28 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Blue Shimmer</t>
+          <t>Fast Break Prizm Autographs</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$549.99</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395557511476?_skw=PSA+10&amp;hash=item5c1910a134:g:r3IAAOSwFHdmEWK6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk5CNF8KTZ3xAU1WzHY4YSkmcIyBiQbw8leWArP3JXsIWcsQGrzgLdeXLJoqxoc7L6asg0pghn7Xndkdadl%2BriY0hy1H%2FERvhKoAa7ralGf43bfYLGXvK2SHmjoGmEtngWx4ZU76sy2%2FgHxNfwwzrmK%2F3QGoci5NZHz8hM2yUi86%2FHq5vg%2B5dNBVReSJiEyWJNiudzmRIdVJHSUwRB25pYu%2B7nu02udjq%2BZUeu4H5YcWw%3D%3D%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/145396182190?_skw=PSA+10&amp;epid=17056532879&amp;hash=item21da49acae:g:xRQAAOSwqpllOyzT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnZ4SYGYK4Hud0QW42DjbhElD%2FMPSC3sF%2Bzc%2BZjPUmhB3jM8KLTtFdbUdL%2F0%2FrSLCo8ilxECYxekI0y0wv55L4zwBJc9Jh4nOVJpJgNK1rSnqoY3iqJv%2BvA6p5bDQs5dplRHSKQevEs5XcqniyZzQm45DGTea7ATY%2FXHx9WGlQuGwoDzzvgreo%2FOlGLFxGlU78Y7me853M%2FNDPIPE23oBtBYHVL7ZgCu0wQYDhznNXwDg%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3293,38 +3289,38 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Silver Fast Break Prizm</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>$179.99</t>
+          <t>$1,225.00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135426128651?_skw=PSA+10&amp;epid=5056517964&amp;hash=item1f8806bb0b:g:oIcAAOSw-FVnU8JL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm1HVDkt2jMYXVrbjTNbRpZRceS%2BrvsnVm2LSWRq1Qtzr1jA4XDxIsYkBvKgis9oaLDkDuLicETXelTt0XMZM%2BiwgrQAFokADTqe2O8woJSiG%2BpK1Kde1Hz3rvoRv8xNvbYJ6rDpHcG8B6wByt0aXFsc1Na6hFYOFCZR4Q2J0TrikpiEIgAThEiykhrbY8RyDWm81qx6TaCvOXmu2PT0s3CiHXiWv5p2BS5V%2BbADLk4qqs90FyXKfUN%2BBAjyG5Jxp9WhaJuU86z259VbBBNddkF%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/146307197925?_skw=PSA+10&amp;epid=16056510735&amp;hash=item221096abe5:g:wpMAAOSwtKlndDlF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnPhNeOVJGq7lF9F4rZC9OQKTBjxDjtO0sFnMCBOmJXwL1onZ9YiusRwSdLJQsa4E7Phjoeg6W7gHPqdKPiTEwSac0Mrm485%2BKKvkaDdK%2Bfi95irpGPdKtfNvM1jpTgiAj3waq8iRHA%2FxFgFtlPmUX08KvwtCvDrP%2BVwp8KunNxfbQWrQzP1ghpzJhrhG4h9H5yvaGkWKUiCiJVLPtH8Z8y9eYENWM6Kj%2FlmsfFtNBBVw%3D%3D%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3336,114 +3332,120 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fleer</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sidney Green</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>$9,999.00</t>
+          <t>$190.50</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135466756470?_skw=PSA+10&amp;epid=14056493157&amp;hash=item1f8a72a976:g:I0kAAOSwv9hnbetF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmRk3lwX203WpjVI2cw6Gwg6QdlvmuwLAj%2FXGYweogLfWFYqJjqUYdt9nP34dNeX7Hz3XTeth%2BzmDex2sp8LBVPML2BJ5XyV7NQwjV8YaVJKY6VIMBLTQ9OtBofMbnWnuCQgmc%2BiialHeKO0TLpHmeeJY9ZSE89%2FiqeQeDJDwaifkAar%2FoNCQFvODS%2FIaZMxvZx6qBxGJAGgz55%2FyPZT4lh1RNJEPXRIFk%2Bf8E2S93gRg%3D%3D%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/387782190750?_skw=PSA+10&amp;epid=19060325669&amp;hash=item5a499ea69e:g:500AAOSwVuNndHUO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlViggEw8fDoQ6Y5pCMzIZ97aViNihOoHE56DsglsE59dLBsVKJFRDgmYG1s9ZjzvZTWTAs1m%2BvnyHUIwJQQgIDGyU6kQmeUQtP2A7zXI45%2BH8OW%2F6lRDJw8qdyJuiDbSXjPggDpKpGFb%2BtAnLWgFsGAdZgxneocsU4p5w3QI7KckmXGtU%2BKR6Um4xfTX%2FZiFI0mSdAnsIlXq6Vp2aiGuPqo4FKVh57xFYtrf5Sf8NDS3djAplGVSjDwLOgXifHJ%2Bomp0XO7tgoU8skh6vPwb9l%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Baseball</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>1978</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Topps</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Red Fast Break Prizm</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sparky Lyle</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>$319.68</t>
+          <t>$1,125.00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126861676075?_skw=PSA+10&amp;epid=27055957930&amp;hash=item1d898b8e2b:g:E0YAAOSwMfBndZzQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlPPcfGhhxBiMILSoOhzOdbCU5RLzKgjKf%2FnuERYt9kWkdAEibv8Z7aWG4BQeJ6LwnKH2ztYmb%2FETHdsJxsizYGJUEcuQ9nnRplm99yvIdLS3Nqbqid5cjG9Kdzv7F5y0TqoSz1w77XUIOEwtZtvxg4OOzXuyCnNvhHBLj6U9kE3eu%2BgZBttvySMU6Zme2WWQR3rLRS8EM06PFL6pABuxGkOVwGR7aijlaP4I0fsp2BxQ%3D%3D%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/256768056170?_skw=PSA+10&amp;epid=8056534555&amp;hash=item3bc8919b6a:g:lkgAAOSwQdtnKUwP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnTHbKFGZrq1vD3oxIfEwx1hU29Rrz2xLgbNfTV1YkiEl8Jxy1hRv%2FZE6t%2BhDggPw683H07j3avl5bhEVZs%2Fc2eFa5FUH3MVe1oPoNRIoBCA6aBb5qQBEnc5WduF7nZ1wCtGp%2Bw6Q6YoFvhEKp2vQHR%2BW%2F4mPiJQa93sgl1%2BbqSzOnaTNvMOz0lfFBq7PHV1pnuoGstJxmjn1kLkaqAGFl9Fbpqlv3gaexZikI4b6Ws2axfpVIktyMlsEtkedL36zVXVeXnoBUfq8Qqi3eE3WR3%7Ctkp%3ABk9SR7rOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Breaking</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Purple Fast Break Prizm</t>
+          <t>Blue Shimmer</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/364998793956?_skw=PSA+10&amp;epid=16058684996&amp;hash=item54fb9f9ae4:g:w5IAAOSw5bxmjJKi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmFdUcHNaOWakn0Pj18acJjvNXCgN8in0ZKeHPQd1BqzVI3FV%2FP8ALdKy4cevCFbmU95fPmKaamygmTTRuxBSrVgPLK9neUhTQbPz93SXxWbDI9VO3TzPlMvmDd527dkNdbXnJ%2B5Ib37T6Cl%2FeNAKLS1R%2FFtNcQUpDtzWwWkxv3PYUKI--1j9EBI0QmLXlNE6ex1QTPvPSMUoqLwN98Mzj%2FclZoSEoR5M1en0K6LPWgiP2HNgDCY3Tps4v85ZtubNjVc%2BH9zcJClI8uj4xdhFpS%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/395557511476?_skw=PSA+10&amp;hash=item5c1910a134:g:r3IAAOSwFHdmEWK6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk5CNF8KTZ3xAU1WzHY4YSkmcIyBiQbw8leWArP3JXsIWcsQGrzgLdeXLJoqxoc7L6asg0pghn7Xndkdadl%2BriY0hy1H%2FERvhKoAa7ralGf43bfYLGXvK2SHmjoGmEtngWx4ZU76sy2%2FgHxNfwwzrmK%2F3QGoci5NZHz8hM2yUi86%2FHq5vg%2B5dNBVReSJiEyWJNiudzmRIdVJHSUwRB25pYu%2B7nu02udjq%2BZUeu4H5YcWw%3D%3D%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3455,81 +3457,75 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Holo Fast Break Prizm</t>
+          <t>Silver Fast Break Prizm</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>$225.00</t>
+          <t>$179.99</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135475006340?_skw=PSA+10&amp;epid=21056522918&amp;hash=item1f8af08b84:g:IcwAAOSwDv5ndBzw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSOnhyiT45nWkWk%2FeW98aZ4d5ZK%2FqNchZ112gSoe5%2BZeDGYgHk2i4R%2FetvguLh6xxT%2FYrmqgjUHmQNRE5gfqasHMlZ7vLbTVVa2EIv8z4TWc34u6B1Y02xO96fn6rPCc3QZD9YYVpaOLWJjVutqIfuNFHYfTp8XiGL6AM1qK9N%2FBNkQeXOnR1h5%2FRcx2nBVEyiKoXugYryQEYm4QGBKCtZ%2FKJ%2FG9c4zYZ6lnykmAO%2BgK%2BcU7f7mK%2FE78M3Z8s9G41jWnLtjzQ1TcA5BOSr2uRP%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/135426128651?_skw=PSA+10&amp;epid=5056517964&amp;hash=item1f8806bb0b:g:oIcAAOSw-FVnU8JL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm1HVDkt2jMYXVrbjTNbRpZRceS%2BrvsnVm2LSWRq1Qtzr1jA4XDxIsYkBvKgis9oaLDkDuLicETXelTt0XMZM%2BiwgrQAFokADTqe2O8woJSiG%2BpK1Kde1Hz3rvoRv8xNvbYJ6rDpHcG8B6wByt0aXFsc1Na6hFYOFCZR4Q2J0TrikpiEIgAThEiykhrbY8RyDWm81qx6TaCvOXmu2PT0s3CiHXiWv5p2BS5V%2BbADLk4qqs90FyXKfUN%2BBAjyG5Jxp9WhaJuU86z259VbBBNddkF%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
+          <t>Baseball</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1978</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Blue Fast Break Prizm</t>
-        </is>
-      </c>
+          <t>Topps</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Sparky Lyle</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>$700.00</t>
+          <t>$319.68</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126849911075?_skw=PSA+10&amp;epid=9056529665&amp;hash=item1d88d80923:g:lE8AAOSwAG9nbHI1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkri%2FaX7SVc2GXUqvsVjzDs2sDNcuxjTT6m2LF1NaGT%2Bv68QOfSIAYaec%2B6XVKDtusqlLt4OgAjWbAKG73PFDD5c%2FWG8Z6qaWr%2Bknudg56kkCcw6ltHqZMwEodL3yYD5WOSQ5faUZS7aoKJCQFMHS8AT6uAFp7Lp3f3IL74akOON65RAltcUHl%2Bewb1GoxT89mDda%2FqqBMvk4bV%2BQurz75S9YBsiQKxFK%2Bu6%2BRWiKTxdA%3D%3D%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/126861676075?_skw=PSA+10&amp;epid=27055957930&amp;hash=item1d898b8e2b:g:E0YAAOSwMfBndZzQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlPPcfGhhxBiMILSoOhzOdbCU5RLzKgjKf%2FnuERYt9kWkdAEibv8Z7aWG4BQeJ6LwnKH2ztYmb%2FETHdsJxsizYGJUEcuQ9nnRplm99yvIdLS3Nqbqid5cjG9Kdzv7F5y0TqoSz1w77XUIOEwtZtvxg4OOzXuyCnNvhHBLj6U9kE3eu%2BgZBttvySMU6Zme2WWQR3rLRS8EM06PFL6pABuxGkOVwGR7aijlaP4I0fsp2BxQ%3D%3D%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3541,34 +3537,34 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>1987-88</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Fleer</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Dennis Rodman</t>
+          <t>Sidney Green</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>$161.40</t>
+          <t>$9,999.00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235885520476?_skw=PSA+10&amp;epid=14062591963&amp;hash=item36ebdf665c:g:QhEAAOSwmAJlryJq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlBCyEN4HXdxfQlRXDDs9A8VOmJP0Hi8gZNzIASrh802ABKmnpOqLfQhExAA0i4zwtDi6dBDvcaqggcfhj%2BAEA37s5szNzL2hyFIojA%2BVlxlq4gSfmsd%2FuUIVzH2WRWMqAg4312S%2FMNGPt4NIC%2FNxC1ofeoGXw1Iwfd453lp7OhJWuEQLlcQuh%2BLx%2FOrJgroeXzoWVSUjjiMZ%2BHUiiprLDPMXMtHFN7EiHDdopOxv3Z8vCNkbxVtqPhKCFA7EO9XGr6v3reb16eO5Dyv29VbO2Q%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/135466756470?_skw=PSA+10&amp;epid=14056493157&amp;hash=item1f8a72a976:g:I0kAAOSwv9hnbetF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmRk3lwX203WpjVI2cw6Gwg6QdlvmuwLAj%2FXGYweogLfWFYqJjqUYdt9nP34dNeX7Hz3XTeth%2BzmDex2sp8LBVPML2BJ5XyV7NQwjV8YaVJKY6VIMBLTQ9OtBofMbnWnuCQgmc%2BiialHeKO0TLpHmeeJY9ZSE89%2FiqeQeDJDwaifkAar%2FoNCQFvODS%2FIaZMxvZx6qBxGJAGgz55%2FyPZT4lh1RNJEPXRIFk%2Bf8E2S93gRg%3D%3D%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3580,38 +3576,38 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>Purple Fast Break Prizm</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>$399.99</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267061143113?_skw=PSA+10&amp;epid=22056582651&amp;hash=item3e2e15a649:g:j9wAAOSwWHNnMqFR&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnUtBQUzErK7lu5zZTxq7aTmMBcybiD4XkiQdCWv5XYDX%2FvyHBkBcVs0QjcPg6CW2oyXIB5SvCGmFeUnKyr%2B9W5SYLhhmT5KO%2BC%2FsXviI2qCPUnAX8xw2dGLYzPhNNEGVAqmSOkiXYloYpHej9OWMiEqiUtIQ9kMRY0lXFhB4wo30SIMdylYp7v9n9y84oni%2FL2WfPYzajbw%2F15Wn5DEjJ86S%2FC01cJ%2FWcB5Iu4XBK2qA%3D%3D%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/364998793956?_skw=PSA+10&amp;epid=16058684996&amp;hash=item54fb9f9ae4:g:w5IAAOSw5bxmjJKi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmFdUcHNaOWakn0Pj18acJjvNXCgN8in0ZKeHPQd1BqzVI3FV%2FP8ALdKy4cevCFbmU95fPmKaamygmTTRuxBSrVgPLK9neUhTQbPz93SXxWbDI9VO3TzPlMvmDd527dkNdbXnJ%2B5Ib37T6Cl%2FeNAKLS1R%2FFtNcQUpDtzWwWkxv3PYUKI--1j9EBI0QmLXlNE6ex1QTPvPSMUoqLwN98Mzj%2FclZoSEoR5M1en0K6LPWgiP2HNgDCY3Tps4v85ZtubNjVc%2BH9zcJClI8uj4xdhFpS%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3623,38 +3619,38 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Holo Fast Break Prizm</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>$492.00</t>
+          <t>$225.00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326380668289?_skw=PSA+10&amp;epid=15065165480&amp;hash=item4bfdcdc581:g:Pb4AAOSw5nxnBufg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnhUh56fU2oqiauYB9rB579Yf6Kx4FmKBNRlEu4OW6%2FvGKBr2YQkl3L52JuQDtbj4ZZqJGYPbq36%2FjekTLdO2wXZRFrfDfDxwGFa4z4IGPjiC0ZLndDIDT4ICtJmoi1QxTOPowk6r5Llwy13G770pPlON%2BnzO4JBZRlrSXpEa8AYmX1kxJSKDSjiI1ccfGZB4CNlCyHr7RBnUV5SAyDRZ7%2BJl%2FqFu%2BRikqNoJmeHhSduifUfcLvGi%2BJyXCTivakG8yg7d8opqtL1Wy2v2aeD5Dx%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/135475006340?_skw=PSA+10&amp;epid=21056522918&amp;hash=item1f8af08b84:g:IcwAAOSwDv5ndBzw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSOnhyiT45nWkWk%2FeW98aZ4d5ZK%2FqNchZ112gSoe5%2BZeDGYgHk2i4R%2FetvguLh6xxT%2FYrmqgjUHmQNRE5gfqasHMlZ7vLbTVVa2EIv8z4TWc34u6B1Y02xO96fn6rPCc3QZD9YYVpaOLWJjVutqIfuNFHYfTp8XiGL6AM1qK9N%2FBNkQeXOnR1h5%2FRcx2nBVEyiKoXugYryQEYm4QGBKCtZ%2FKJ%2FG9c4zYZ6lnykmAO%2BgK%2BcU7f7mK%2FE78M3Z8s9G41jWnLtjzQ1TcA5BOSr2uRP%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3666,38 +3662,34 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Fast Break Prizm</t>
-        </is>
-      </c>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Dennis Rodman</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>$575.88</t>
+          <t>$161.40</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326373060921?_skw=PSA+10&amp;epid=9065157689&amp;hash=item4bfd59b139:g:4qYAAOSwQJdnX1X-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYZ55nqFVdJ6W07Ydvzs6WBZH36YojtQN7O7eJyFu0uXXSX6yWMTkMC3QuUTfDhdTXcXxhWJt9i0utMQflNvxuOOdS92F9qiOQYrr7WManqUVUS5Fuki5%2FVsYE7JN5pn2lVGU9pibdMhYZpbs672iFKSM%2F3i8o9rcgiObJADkT4sYi2jfSAVffuseRJSmM7Z3nAjuxau3cXEtWG0MPiXZfl9u3Gtfx%2B4ajBD%2ByxaYfjSCMwBDmscaLxX%2FSHOllWXhCf2uXVKSCGC8XEAkCwVET%7Ctkp%3ABk9SR77OyKCcZQ</t>
+          <t>https://www.ebay.com/itm/235885520476?_skw=PSA+10&amp;epid=14062591963&amp;hash=item36ebdf665c:g:QhEAAOSwmAJlryJq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlBCyEN4HXdxfQlRXDDs9A8VOmJP0Hi8gZNzIASrh802ABKmnpOqLfQhExAA0i4zwtDi6dBDvcaqggcfhj%2BAEA37s5szNzL2hyFIojA%2BVlxlq4gSfmsd%2FuUIVzH2WRWMqAg4312S%2FMNGPt4NIC%2FNxC1ofeoGXw1Iwfd453lp7OhJWuEQLlcQuh%2BLx%2FOrJgroeXzoWVSUjjiMZ%2BHUiiprLDPMXMtHFN7EiHDdopOxv3Z8vCNkbxVtqPhKCFA7EO9XGr6v3reb16eO5Dyv29VbO2Q%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3709,49 +3701,51 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Red Fast Break Prizm</t>
+          <t>Blue Fast Break Prizm</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>$899.00</t>
+          <t>$700.00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256752452872?_skw=PSA+10&amp;epid=8056534555&amp;hash=item3bc7a38508:g:lkgAAOSwQdtnKUwP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnFTDIQcVlOdLGj8cN1RrhamWH7SHGnQSnFO%2Fzr0JTLFnfqEFHLivd9S6LmtUFk11Rh6XFW5tMpBEf%2FZc4uslT2wRWoHOuo9hNlPtFROZk%2Bm%2B1sgW6yqHo%2Bire%2BjgQ%2Fgd6cLNIH5gdwnSuK%2FluDwFpUz4CPHJb2pOwp31CtZSKokYXkhfZwXQj7tbvg0veclrSjrtY%2BWhCUNkETKdkGvWm6%2FN3YnJ9t1kvainT4U7NDfWsNlQ2nviojTzjIE%2B6vgfqrtJIKsD3CPJENWYhJoOA4%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/126849911075?_skw=PSA+10&amp;epid=9056529665&amp;hash=item1d88d80923:g:lE8AAOSwAG9nbHI1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkri%2FaX7SVc2GXUqvsVjzDs2sDNcuxjTT6m2LF1NaGT%2Bv68QOfSIAYaec%2B6XVKDtusqlLt4OgAjWbAKG73PFDD5c%2FWG8Z6qaWr%2Bknudg56kkCcw6ltHqZMwEodL3yYD5WOSQ5faUZS7aoKJCQFMHS8AT6uAFp7Lp3f3IL74akOON65RAltcUHl%2Bewb1GoxT89mDda%2FqqBMvk4bV%2BQurz75S9YBsiQKxFK%2Bu6%2BRWiKTxdA%3D%3D%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Football</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>2023</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3760,28 +3754,28 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Blue Ice Prizm</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>C. J. Stroud</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>$202.50</t>
+          <t>$399.99</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146270974084?_skw=PSA+10&amp;epid=13065165749&amp;hash=item220e6df084:g:quQAAOSwDRtnX4Sr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmFtLYFjqQ0Cojm6g1TU7GEJHAbnbSLyqE0WC%2FqO6Q3viQighpJP2W0TPtmToJSMXhu25hOw7TZu%2Fxnd5mjNe9V%2FWoaSBgSP%2FMPBVEkvLPwwkp60TaXgj6W3Ol5jokT5ZEuapFvs7RHvgrlManKxwH%2BtMThOIYhQda6%2BA9sXOi%2BUawvf%2F1oboaI%2FccFUpf8jkIvwwanf7igxbptA8oEtZp0iky96aMKDksZ3TA8EcAgM65kLuvbwov1wW6BtzVp5ER4hDgeoP3mUlB68ZcYsRtH%7Ctkp%3ABk9SR7zOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/267061143113?_skw=PSA+10&amp;epid=22056582651&amp;hash=item3e2e15a649:g:j9wAAOSwWHNnMqFR&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnUtBQUzErK7lu5zZTxq7aTmMBcybiD4XkiQdCWv5XYDX%2FvyHBkBcVs0QjcPg6CW2oyXIB5SvCGmFeUnKyr%2B9W5SYLhhmT5KO%2BC%2FsXviI2qCPUnAX8xw2dGLYzPhNNEGVAqmSOkiXYloYpHej9OWMiEqiUtIQ9kMRY0lXFhB4wo30SIMdylYp7v9n9y84oni%2FL2WfPYzajbw%2F15Wn5DEjJ86S%2FC01cJ%2FWcB5Iu4XBK2qA%3D%3D%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3787,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3803,28 +3797,28 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Fast Break Prizm Autographs</t>
+          <t>Blue Fast Break Prizm</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>$265.00</t>
+          <t>$492.00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326372309844?_skw=PSA+10&amp;epid=7056500595&amp;hash=item4bfd4e3b54:g:OKsAAOSw1gBnUR4N&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnZo%2FHp8B86Yrizz9Al5HYEToBW%2FUl1OpY5vlXagiaF%2B3TU3LMtbBA9MpOdk2xPjERNmN2E2Wz%2BQXwzSJZnKJMucGkHMlf32SdPzYGW2anQdO2mzaLgnr0bgm9h5zxBUfbMfr0S00fKgk8KR%2BJLWwnyQnoOS9yVwyyZxPJV%2FkxFvFPobteTz4q4XqaZH%2F9X9aNY%2FFEeLjcl%2Bif1DqA5aW%2BWqbH9trmi71W5x38XzbyaXevfVAriPnveRlxfWaMrn44wEzzVsMMDpJDA2gYqsqov%7Ctkp%3ABk9SR77OyKCcZQ</t>
+          <t>https://www.ebay.com/itm/326380668289?_skw=PSA+10&amp;epid=15065165480&amp;hash=item4bfdcdc581:g:Pb4AAOSw5nxnBufg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnhUh56fU2oqiauYB9rB579Yf6Kx4FmKBNRlEu4OW6%2FvGKBr2YQkl3L52JuQDtbj4ZZqJGYPbq36%2FjekTLdO2wXZRFrfDfDxwGFa4z4IGPjiC0ZLndDIDT4ICtJmoi1QxTOPowk6r5Llwy13G770pPlON%2BnzO4JBZRlrSXpEa8AYmX1kxJSKDSjiI1ccfGZB4CNlCyHr7RBnUV5SAyDRZ7%2BJl%2FqFu%2BRikqNoJmeHhSduifUfcLvGi%2BJyXCTivakG8yg7d8opqtL1Wy2v2aeD5Dx%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3840,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3856,102 +3850,102 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>$293.00</t>
+          <t>$575.88</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375866336206?_skw=PSA+10&amp;epid=15065165480&amp;hash=item57836123ce:g:AC4AAOSwKDhnTL9u&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn2AS1yOApN7Q4SjbLgXWSovUH9MMsKsgz0CmcNmyGjUB%2BemYe8ODriYnaCHea5M59HBV3aaO1PzkYtVD33q0reIJURNHUiqedITxzCBicXaKl2jSl0zumYqkjbyjnu9oYUXJMef5wGMQVsQqk0AdbNBU8AW%2B%2Fmm8GOkQEpVOcSv2qzHVPJKTlNaKCTAvZYBjyNXyRTtw7q3a6S68FjOf%2FJwrSbWEM4SF63h81tY97vH3BSHSI8jtphiLGUuK3wrzrvBnvEe8WPFMF1YQEfZI9o%7Ctkp%3ABk9SR77OyKCcZQ</t>
+          <t>https://www.ebay.com/itm/326373060921?_skw=PSA+10&amp;epid=9065157689&amp;hash=item4bfd59b139:g:4qYAAOSwQJdnX1X-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYZ55nqFVdJ6W07Ydvzs6WBZH36YojtQN7O7eJyFu0uXXSX6yWMTkMC3QuUTfDhdTXcXxhWJt9i0utMQflNvxuOOdS92F9qiOQYrr7WManqUVUS5Fuki5%2FVsYE7JN5pn2lVGU9pibdMhYZpbs672iFKSM%2F3i8o9rcgiObJADkT4sYi2jfSAVffuseRJSmM7Z3nAjuxau3cXEtWG0MPiXZfl9u3Gtfx%2B4ajBD%2ByxaYfjSCMwBDmscaLxX%2FSHOllWXhCf2uXVKSCGC8XEAkCwVET%7Ctkp%3ABk9SR77OyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Football</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>2023</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Panini Chronicles Draft Picks</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Green Cracked Ice Prizm</t>
+          <t>Red Fast Break Prizm</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bijan Robinson</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>$158.05</t>
+          <t>$899.00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176733049468?_skw=PSA+10&amp;epid=8061825467&amp;hash=item29261c527c:g:0YUAAOSwl-FmruTA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmOTZhWWeq1gLsXHrn9CQT1HSw0c8cx5eOc6uJciGQPHPldGAwWwPxBXGaj%2BlbPppl%2BbAu1UXSo6nyH6xtZM%2FU9w7%2FCssw8oIaKO1Pt53FYm84kRN14BZhY1yxQifwi3xl06wKb%2BVbsXTvWNa5usYtShF1uFMboU7aoxb9kFL%2F36i47q%2F6%2FLuou8cjt9z8OqNzTC7sFSrAqb%2BAITzWWFgVzNHMZwVb6Mddw6GpcQ1N4NZLq7lMDdI0nmIk3QmFOC5HbNh8fnff%2BkZsXAcioeVrB%7Ctkp%3ABk9SR77OyKCcZQ</t>
+          <t>https://www.ebay.com/itm/256752452872?_skw=PSA+10&amp;epid=8056534555&amp;hash=item3bc7a38508:g:lkgAAOSwQdtnKUwP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnFTDIQcVlOdLGj8cN1RrhamWH7SHGnQSnFO%2Fzr0JTLFnfqEFHLivd9S6LmtUFk11Rh6XFW5tMpBEf%2FZc4uslT2wRWoHOuo9hNlPtFROZk%2Bm%2B1sgW6yqHo%2Bire%2BjgQ%2Fgd6cLNIH5gdwnSuK%2FluDwFpUz4CPHJb2pOwp31CtZSKokYXkhfZwXQj7tbvg0veclrSjrtY%2BWhCUNkETKdkGvWm6%2FN3YnJ9t1kvainT4U7NDfWsNlQ2nviojTzjIE%2B6vgfqrtJIKsD3CPJENWYhJoOA4%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2023</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Purple Fast Break Prizm</t>
+          <t>Blue Ice Prizm</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>C. J. Stroud</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>$365.00</t>
+          <t>$202.50</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186840055607?_skw=PSA+10&amp;epid=22056519691&amp;hash=item2b8088ff37:g:fHUAAOSwuGdnW4TK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmDaKQZDENS%2FRM0UHdILehKUicar118PD5rSTMTFu8KxzjonGAMcUCJS3VVF46Egn9TzKATfXW6%2BydeK4aShXw5SLzfxYhzpxS5nZND3zg3rrlppNOKMk5DjRGQZ2Vbs2XnAjqf0yqUWhMyv9Qsnznus2a0SynNc6zvqPGH9woAfcTVn%2FbYnGvhZEYy%2BmbX0A%2FbYvMC5QDJxECzZIDmJZD%2FPaDGOT74wgTvdM7wUOnnIg%3D%3D%7Ctkp%3ABk9SR77OyKCcZQ</t>
+          <t>https://www.ebay.com/itm/146270974084?_skw=PSA+10&amp;epid=13065165749&amp;hash=item220e6df084:g:quQAAOSwDRtnX4Sr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmFtLYFjqQ0Cojm6g1TU7GEJHAbnbSLyqE0WC%2FqO6Q3viQighpJP2W0TPtmToJSMXhu25hOw7TZu%2Fxnd5mjNe9V%2FWoaSBgSP%2FMPBVEkvLPwwkp60TaXgj6W3Ol5jokT5ZEuapFvs7RHvgrlManKxwH%2BtMThOIYhQda6%2BA9sXOi%2BUawvf%2F1oboaI%2FccFUpf8jkIvwwanf7igxbptA8oEtZp0iky96aMKDksZ3TA8EcAgM65kLuvbwov1wW6BtzVp5ER4hDgeoP3mUlB68ZcYsRtH%7Ctkp%3ABk9SR7zOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -3963,38 +3957,38 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Holo Fast Break Prizm</t>
+          <t>Fast Break Prizm Autographs</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>$222.22</t>
+          <t>$265.00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205168938734?_skw=PSA+10&amp;epid=13056522060&amp;hash=item2fc5058eee:g:vmQAAOSw651nYNYa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmIDDySFj%2Bb58YL1XhX5rhqB4UGAwqZdlfkIoiS2uj3NGAMfojsOwtyHsh1fQAEuNTAaNiDW88nEwTAsn4oJegKdMu9VbUUZqZ5K1JmbteEuT7M7LuFcgGq23AeZUtrKn86XdTsBCq7K%2FqazGCYygE8dfq1c3M7ISxsYjO5%2BWOJ0Eq%2BR5AXZRNOgRcRyx9zhpwy4wiOlhlYEvMGui0lOoMxzbfultCjWxJCx5BMKWJecARiV%2FP37xBFAu2zG9wouea530bD3cBZnA5qHRbbDGlR%7Ctkp%3ABk9SR77OyKCcZQ</t>
+          <t>https://www.ebay.com/itm/326372309844?_skw=PSA+10&amp;epid=7056500595&amp;hash=item4bfd4e3b54:g:OKsAAOSw1gBnUR4N&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnZo%2FHp8B86Yrizz9Al5HYEToBW%2FUl1OpY5vlXagiaF%2B3TU3LMtbBA9MpOdk2xPjERNmN2E2Wz%2BQXwzSJZnKJMucGkHMlf32SdPzYGW2anQdO2mzaLgnr0bgm9h5zxBUfbMfr0S00fKgk8KR%2BJLWwnyQnoOS9yVwyyZxPJV%2FkxFvFPobteTz4q4XqaZH%2F9X9aNY%2FFEeLjcl%2Bif1DqA5aW%2BWqbH9trmi71W5x38XzbyaXevfVAriPnveRlxfWaMrn44wEzzVsMMDpJDA2gYqsqov%7Ctkp%3ABk9SR77OyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4006,81 +4000,79 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>Blue Fast Break Prizm</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>$320.00</t>
+          <t>$293.00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395513680807?_skw=PSA+10&amp;epid=6062628995&amp;hash=item5c1673d3a7:g:2T8AAOSwfV9mhyqv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlPvfo9Pe95NxqTKQIhT2B1ff1jw7acZ%2FZCDUTsAsyyhonZzfWx9dEilAqtmpZ%2FybFD6%2BwRilQpKEMMKT%2FFXX3v79k3wMoQ5yUIDrSgqLKEwNaxFbjG1BI4mPrs37DexdZa9vQk%2BqCUCr7X3NNiBPkRai2AttXPMQ0vzcW8%2BC%2F38fSjaut0xJO0C6HR2RT9GZaY9a0leCQ25SfIu4A77eiTFSUS9fRaq%2F%2BNYeYfmc7PIXVKse6YR0VxZVVgAsATlmILQ0SpoqDmGfsZK%2FqXGvet%7Ctkp%3ABk9SR77OyKCcZQ</t>
+          <t>https://www.ebay.com/itm/375866336206?_skw=PSA+10&amp;epid=15065165480&amp;hash=item57836123ce:g:AC4AAOSwKDhnTL9u&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn2AS1yOApN7Q4SjbLgXWSovUH9MMsKsgz0CmcNmyGjUB%2BemYe8ODriYnaCHea5M59HBV3aaO1PzkYtVD33q0reIJURNHUiqedITxzCBicXaKl2jSl0zumYqkjbyjnu9oYUXJMef5wGMQVsQqk0AdbNBU8AW%2B%2Fmm8GOkQEpVOcSv2qzHVPJKTlNaKCTAvZYBjyNXyRTtw7q3a6S68FjOf%2FJwrSbWEM4SF63h81tY97vH3BSHSI8jtphiLGUuK3wrzrvBnvEe8WPFMF1YQEfZI9o%7Ctkp%3ABk9SR77OyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023-24</t>
-        </is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2023</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Chronicles Draft Picks</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Green Cracked Ice Prizm</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Bijan Robinson</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$158.05</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316054965794?_skw=PSA+10&amp;epid=5065170623&amp;hash=item4996580e22:g:B6wAAOSwryJnYFln&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkOQchTi9JZCewL0qlRmqgUk0gsqP08kCPGPaU3T5Xgf7Wl1fWF0TgUgTW4iLs%2B8d3dAorst8zgz0K5b%2B54Ck5fKns04hmFUW%2BiZ5jCFfBPiHTYhsY384l0y9N9LD4gcWN3Igdy4NhwWnA5prIeZ5b8yb5nCHXn0fzAxima45hf6mUcB1vzZSBXH4HIyeMMelCN3jnfEGt8I%2Fye%2BhtahCSLtsH01vDjrSMgVCTrUjxiYA%3D%3D%7Ctkp%3ABk9SR77OyKCcZQ</t>
+          <t>https://www.ebay.com/itm/176733049468?_skw=PSA+10&amp;epid=8061825467&amp;hash=item29261c527c:g:0YUAAOSwl-FmruTA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmOTZhWWeq1gLsXHrn9CQT1HSw0c8cx5eOc6uJciGQPHPldGAwWwPxBXGaj%2BlbPppl%2BbAu1UXSo6nyH6xtZM%2FU9w7%2FCssw8oIaKO1Pt53FYm84kRN14BZhY1yxQifwi3xl06wKb%2BVbsXTvWNa5usYtShF1uFMboU7aoxb9kFL%2F36i47q%2F6%2FLuou8cjt9z8OqNzTC7sFSrAqb%2BAITzWWFgVzNHMZwVb6Mddw6GpcQ1N4NZLq7lMDdI0nmIk3QmFOC5HbNh8fnff%2BkZsXAcioeVrB%7Ctkp%3ABk9SR77OyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4092,79 +4084,81 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Purple Fast Break Prizm</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>$230.50</t>
+          <t>$365.00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316044595819?_skw=PSA+10&amp;epid=24071899525&amp;hash=item4995b9d26b:g:XbAAAOSwRYNnVnRT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkWn9B0W0Zc6kS0apQH6qmtUymJ3TXEQ5SRTtwoFlf57Ad%2BhhpYnAXfT5RjecaVRSJswWsGTvseUCn%2BZZBW2GOG8HLywowSuemQxNXDzJc4YotESGDaIELhiTzME0gv4ZPdQOmrDC%2BcOm1ZU5Omus4zSmqEjUZJWr4XLR82ZV2RQ2iz2oRNEiUAo6vLG8XtcvF1YiA%2FjgPGS5iSXFEsnnaY9qqsd2wIGbq3eZKuM72z3g%3D%3D%7Ctkp%3ABk9SR77OyKCcZQ</t>
+          <t>https://www.ebay.com/itm/186840055607?_skw=PSA+10&amp;epid=22056519691&amp;hash=item2b8088ff37:g:fHUAAOSwuGdnW4TK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmDaKQZDENS%2FRM0UHdILehKUicar118PD5rSTMTFu8KxzjonGAMcUCJS3VVF46Egn9TzKATfXW6%2BydeK4aShXw5SLzfxYhzpxS5nZND3zg3rrlppNOKMk5DjRGQZ2Vbs2XnAjqf0yqUWhMyv9Qsnznus2a0SynNc6zvqPGH9woAfcTVn%2FbYnGvhZEYy%2BmbX0A%2FbYvMC5QDJxECzZIDmJZD%2FPaDGOT74wgTvdM7wUOnnIg%3D%3D%7Ctkp%3ABk9SR77OyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Breaking</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>2022</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Donruss Optic</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Fast Break Purple</t>
+          <t>Holo Fast Break Prizm</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>$225.00</t>
+          <t>$222.22</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235863537205?_skw=PSA+10&amp;hash=item36ea8ff635:g:s6sAAOSw6utnVmDX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlsyZAkWzeEb%2F9pkbYob3%2FdpQdnXvGLEU4crrn5NxdlBKd9qUeHHlSNxa52nbmo6cb3gDVFwODsLjpINlUorAppDkGpi2LNwXP0%2BebiFFxOdyc1AhMNP6sNlQ3Lj%2BmElHRC0YGX2gWnnSYEaemTyb11Nxflc4ugUGGpMSM705SDvN%2BpjFGFXbMJtqCycvkUSVqoY06KUA7JU%2BN9%2FKUyto4wfEpLr%2Fdcxn0HCbEDI5Ch2g%3D%3D%7Ctkp%3ABk9SR77OyKCcZQ</t>
+          <t>https://www.ebay.com/itm/205168938734?_skw=PSA+10&amp;epid=13056522060&amp;hash=item2fc5058eee:g:vmQAAOSw651nYNYa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmIDDySFj%2Bb58YL1XhX5rhqB4UGAwqZdlfkIoiS2uj3NGAMfojsOwtyHsh1fQAEuNTAaNiDW88nEwTAsn4oJegKdMu9VbUUZqZ5K1JmbteEuT7M7LuFcgGq23AeZUtrKn86XdTsBCq7K%2FqazGCYygE8dfq1c3M7ISxsYjO5%2BWOJ0Eq%2BR5AXZRNOgRcRyx9zhpwy4wiOlhlYEvMGui0lOoMxzbfultCjWxJCx5BMKWJecARiV%2FP37xBFAu2zG9wouea530bD3cBZnA5qHRbbDGlR%7Ctkp%3ABk9SR77OyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4176,45 +4170,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Black Prizm</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Dennis Rodman</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>$775.00</t>
+          <t>$320.00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226487953730?_skw=PSA+10&amp;epid=7056527142&amp;hash=item34bbbbe942:g:AHkAAOSwWzJnTeSE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkEM0ESu8IXnwdwQF%2BVeM%2FLP3n7GAuiYXJnSFQEH5HVIEBaB9FC%2Bv2V7F1JuQom5rNfdd0fLKPKpS6gM0BKM9WjMkV%2BY8QOYnWTvhS%2FBQuyp5tUkhMQqlMlTgTqiSRxka3hiGa4uiRS2EOidnPqqYTIlKMMsB1RQzHjnjm2mueOHJwkZvG1Ke1SU%2Fxvln8Db3QtMCl%2BNMTi35XYblUEyPNPiuftzxRUAaFhbGk3I8D6Kep8tQighGYO%2FjAHspBB8XXOFfXbmUNMNtTPqFw1vwd8%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/395513680807?_skw=PSA+10&amp;epid=6062628995&amp;hash=item5c1673d3a7:g:2T8AAOSwfV9mhyqv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlPvfo9Pe95NxqTKQIhT2B1ff1jw7acZ%2FZCDUTsAsyyhonZzfWx9dEilAqtmpZ%2FybFD6%2BwRilQpKEMMKT%2FFXX3v79k3wMoQ5yUIDrSgqLKEwNaxFbjG1BI4mPrs37DexdZa9vQk%2BqCUCr7X3NNiBPkRai2AttXPMQ0vzcW8%2BC%2F38fSjaut0xJO0C6HR2RT9GZaY9a0leCQ25SfIu4A77eiTFSUS9fRaq%2F%2BNYeYfmc7PIXVKse6YR0VxZVVgAsATlmILQ0SpoqDmGfsZK%2FqXGvet%7Ctkp%3ABk9SR77OyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Breaking</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4234,66 +4228,64 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>$174.73</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204941264665?_skw=PSA+10&amp;hash=item2fb7738719:g:A58AAOSwg6VmvP9F&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnlxxic4v3yh%2Fxymfyf0yGEq38QB%2FecGig4S5ht6Fn%2BkCoADWUfpO9BhmI9%2BnuTajTU2XMTrNpHB1pLukn7E4L1J8iwlsyyYf6Otq2Z%2BhVnZ53i5p2AMmfLkKSnq16mIdt9OhzClXwoN7woaElBsoRNfpwdqXZRTvLW%2Bb8cPLxe7ITgIIt6oluK3zJcNHxJYroKzgt6GIz13QhNi5Sw7R4GmZCvzUhPKsNsND6tFMkCwdfvDuCwosJ6Dxg86ZmI9ENvAif3LOsCeIZjp0fA6sT1%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/316054965794?_skw=PSA+10&amp;epid=5065170623&amp;hash=item4996580e22:g:B6wAAOSwryJnYFln&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkOQchTi9JZCewL0qlRmqgUk0gsqP08kCPGPaU3T5Xgf7Wl1fWF0TgUgTW4iLs%2B8d3dAorst8zgz0K5b%2B54Ck5fKns04hmFUW%2BiZ5jCFfBPiHTYhsY384l0y9N9LD4gcWN3Igdy4NhwWnA5prIeZ5b8yb5nCHXn0fzAxima45hf6mUcB1vzZSBXH4HIyeMMelCN3jnfEGt8I%2Fye%2BhtahCSLtsH01vDjrSMgVCTrUjxiYA%3D%3D%7Ctkp%3ABk9SR77OyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
+          <t>Breaking</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2022</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Donruss Optic</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>Fast Break Purple</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Nikola Jokić</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>$454.00</t>
+          <t>$225.00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296868085438?_skw=PSA+10&amp;epid=6071609518&amp;hash=item451eb77ebe:g:EPsAAOSws7hnN046&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl5QoT6xAbP4Mdx%2Fpk1hZXSeTDfCgLQK0jnLCKhHgQnTvcDNVTVMZI04IQcjEJyWkfXAidTHoFf3Kpr7NEoqCJnr1bgA8h%2BD3KQEElZTGqWVc1VwNb9IUBDemNLsLu2Qn1rUf7OUld%2F3E%2F5rkrpo93hL5WIQAqUqO1CL1etQvvdVcaWqznTI6BAjuoO0EPtsYscPry9wx9aZ8UPCtn4eQYTgLz7F56AZgwnRbk3C2VGVw%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/235863537205?_skw=PSA+10&amp;hash=item36ea8ff635:g:s6sAAOSw6utnVmDX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlsyZAkWzeEb%2F9pkbYob3%2FdpQdnXvGLEU4crrn5NxdlBKd9qUeHHlSNxa52nbmo6cb3gDVFwODsLjpINlUorAppDkGpi2LNwXP0%2BebiFFxOdyc1AhMNP6sNlQ3Lj%2BmElHRC0YGX2gWnnSYEaemTyb11Nxflc4ugUGGpMSM705SDvN%2BpjFGFXbMJtqCycvkUSVqoY06KUA7JU%2BN9%2FKUyto4wfEpLr%2Fdcxn0HCbEDI5Ch2g%3D%3D%7Ctkp%3ABk9SR77OyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4305,45 +4297,45 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Fast Break Prizm Autographs</t>
+          <t>Blue Fast Break Prizm</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>$240.50</t>
+          <t>$230.50</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226481498053?_skw=PSA+10&amp;epid=7056500595&amp;hash=item34bb5967c5:g:OKsAAOSw1gBnUR4N&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkP7cvfKXGDvPBdvGHBW7RjWVPPk6HJ9ZOeI6HhBNb32c4slFh5dvm0h0gYTiKGjQW8W89Iy1n5WHng5zhizFDQk3v2Mw30I8JFQ3DSM0UXJNg%2BUoWK0k%2B5R2mOIvBkDMPsSb%2BBINokgVkdgRZC%2F430SgnmFrs%2F7NcgsiZI0bNHMjj3xiu1FlmAgTrBfn4%2BcqYYPEWlbVMChxmgpLIdq%2BkVNWHZMfIghTwsbVbruMuJd7ceoKf4JrIkFkilGVP0WYZLtK2zPj2kLroA8qwvxj%2FZ%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/316044595819?_skw=PSA+10&amp;epid=24071899525&amp;hash=item4995b9d26b:g:XbAAAOSwRYNnVnRT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkWn9B0W0Zc6kS0apQH6qmtUymJ3TXEQ5SRTtwoFlf57Ad%2BhhpYnAXfT5RjecaVRSJswWsGTvseUCn%2BZZBW2GOG8HLywowSuemQxNXDzJc4YotESGDaIELhiTzME0gv4ZPdQOmrDC%2BcOm1ZU5Omus4zSmqEjUZJWr4XLR82ZV2RQ2iz2oRNEiUAo6vLG8XtcvF1YiA%2FjgPGS5iSXFEsnnaY9qqsd2wIGbq3eZKuM72z3g%3D%3D%7Ctkp%3ABk9SR77OyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Breaking</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4356,26 +4348,30 @@
           <t>Panini Prizm</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Fast Break Prizm</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>$249.99</t>
+          <t>$174.73</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405418430749?_skw=PSA+10&amp;epid=10065171158&amp;hash=item5e64d2511d:g:8vMAAOSwBNhnW5x4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkVGxuRrzUCSEa8MKzflusWEarqQlKscvXR%2Bv8yDKc4qWs1efz68OlgYrVYDqjj1kD%2ByAbqLwuCbb0S2S9R4iTa5ydbZSuFQkGBBaF0ZK9jKfSz5G324czyF4zecrRR0fwTv0seXzU5vwSE9hrEXocIaO6Fm4aIsFgFuKB29Jk%2BD8oiwp6eNPPQxVMZMUEJ5%2B8xC1E8MuKZRxPFlKcWmMMIledc1QD4NwqiMpJF36mFFcphszXoDPuzWe9Z77j%2FHEjWB5fscs9FA3GnDHoXEkWj%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/204941264665?_skw=PSA+10&amp;hash=item2fb7738719:g:A58AAOSwg6VmvP9F&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnlxxic4v3yh%2Fxymfyf0yGEq38QB%2FecGig4S5ht6Fn%2BkCoADWUfpO9BhmI9%2BnuTajTU2XMTrNpHB1pLukn7E4L1J8iwlsyyYf6Otq2Z%2BhVnZ53i5p2AMmfLkKSnq16mIdt9OhzClXwoN7woaElBsoRNfpwdqXZRTvLW%2Bb8cPLxe7ITgIIt6oluK3zJcNHxJYroKzgt6GIz13QhNi5Sw7R4GmZCvzUhPKsNsND6tFMkCwdfvDuCwosJ6Dxg86ZmI9ENvAif3LOsCeIZjp0fA6sT1%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4385,38 +4381,40 @@
           <t>Basketball</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>2023</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Panini Prizm Draft Picks</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Green Wave Prizm</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Nikola Jokić</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$454.00</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286059462520?_skw=PSA+10&amp;epid=22063547990&amp;hash=item429a78ff78:g:N5IAAOSwXEtm5No6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlMvCHcEuLoe0KaKzN78izq3ZvLH3DZT2ppvtRvNMlBFXOcAReBh9FgF1QC%2FhsI3Yggys9ifhfcclKRHA5B%2FeVGM7%2ByzE5zjy0tEBxU65VzHUovfCGXtEouwpeh1Yqj%2BA8rARjANOga6Sfn%2BXFwPcqdHkIjm7RkbLy9GjkLM%2BP4Q0rUjYPigm2ve%2Fy2rJyG%2Fm0GInpQPpxAH0iKYANZmSSOqZYd2zTU5f1Sd%2BKoqKJqcQ%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/296868085438?_skw=PSA+10&amp;epid=6071609518&amp;hash=item451eb77ebe:g:EPsAAOSws7hnN046&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl5QoT6xAbP4Mdx%2Fpk1hZXSeTDfCgLQK0jnLCKhHgQnTvcDNVTVMZI04IQcjEJyWkfXAidTHoFf3Kpr7NEoqCJnr1bgA8h%2BD3KQEElZTGqWVc1VwNb9IUBDemNLsLu2Qn1rUf7OUld%2F3E%2F5rkrpo93hL5WIQAqUqO1CL1etQvvdVcaWqznTI6BAjuoO0EPtsYscPry9wx9aZ8UPCtn4eQYTgLz7F56AZgwnRbk3C2VGVw%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4428,38 +4426,38 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Red Fast Break Prizm</t>
+          <t>Black Prizm</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Dennis Rodman</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>$215.00</t>
+          <t>$775.00</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387700463152?_skw=PSA+10&amp;epid=23065172857&amp;hash=item5a44bf9630:g:1KIAAOSwEHlnUxuZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlDvS5vrDFmnvq6A%2ByV1LPtYUgiK3Ay%2Froc4vRr8d%2BikGT%2FcFEjj4TjG3l7TaV6AGqp5oVFdL8SAx3TSV9ccwYTJCR28zXPAp29jnAbS9V8AHEAurg7hVXPhMfOOb35GnbXtFd56iEOxR7cw3gTVpZfwvcFt0R5gQQq%2BVxwnVY%2FCQdgTSc%2F1sUyWzrzrB%2FjlWToJscEPTbt717xKndbSM573uyTNv%2FGmCubf616x0djkA%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/226487953730?_skw=PSA+10&amp;epid=7056527142&amp;hash=item34bbbbe942:g:AHkAAOSwWzJnTeSE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkEM0ESu8IXnwdwQF%2BVeM%2FLP3n7GAuiYXJnSFQEH5HVIEBaB9FC%2Bv2V7F1JuQom5rNfdd0fLKPKpS6gM0BKM9WjMkV%2BY8QOYnWTvhS%2FBQuyp5tUkhMQqlMlTgTqiSRxka3hiGa4uiRS2EOidnPqqYTIlKMMsB1RQzHjnjm2mueOHJwkZvG1Ke1SU%2Fxvln8Db3QtMCl%2BNMTi35XYblUEyPNPiuftzxRUAaFhbGk3I8D6Kep8tQighGYO%2FjAHspBB8XXOFfXbmUNMNtTPqFw1vwd8%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4469,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4481,28 +4479,28 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Fast Break Prizm Autographs</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$240.50</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-14</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167151814557?_skw=PSA+10&amp;epid=15065166127&amp;hash=item26eb06479d:g:z14AAOSwrF9nUVU2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlSmhu1I2ZGRqkyIi2aGxsPk%2F6gyw9%2Bb%2FrU2maNj7hxF7g%2Fp%2FzQ%2Bsc6kxZ%2B%2BlGSkuXXpMHMBwksJnmiYBxcM9YF77PBAZxBMUr%2BuSkokFAFRgZ7nQWVbuhGJhE2iiVMCplz3sRnZLyRV3%2FOzxr5ZXvOdLw4%2BOW2pqQMJS3fS552xOvTf11hVGUZuH99aLDCl%2BsIIqyf5iNl8UfndbTyNQbh9Fj1Y8cxdHMWeNt0%2BOaZm3SKXUN4I%2FicpbSJUQPj7lB0C1QjCBsidBHU4UQ0PzgE%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/226481498053?_skw=PSA+10&amp;epid=7056500595&amp;hash=item34bb5967c5:g:OKsAAOSw1gBnUR4N&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkP7cvfKXGDvPBdvGHBW7RjWVPPk6HJ9ZOeI6HhBNb32c4slFh5dvm0h0gYTiKGjQW8W89Iy1n5WHng5zhizFDQk3v2Mw30I8JFQ3DSM0UXJNg%2BUoWK0k%2B5R2mOIvBkDMPsSb%2BBINokgVkdgRZC%2F430SgnmFrs%2F7NcgsiZI0bNHMjj3xiu1FlmAgTrBfn4%2BcqYYPEWlbVMChxmgpLIdq%2BkVNWHZMfIghTwsbVbruMuJd7ceoKf4JrIkFkilGVP0WYZLtK2zPj2kLroA8qwvxj%2FZ%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4512,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4522,11 +4520,7 @@
           <t>Panini Prizm</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Fast Break Prizm</t>
-        </is>
-      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>Chet Holmgren</t>
@@ -4534,18 +4528,18 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>$182.50</t>
+          <t>$249.99</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205143264473?_skw=PSA+10&amp;epid=26060343685&amp;hash=item2fc37dccd9:g:RK0AAOSwdadnTvy9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnbvkjOPS3QvpiiA%2FpoAyH0hsd3UT0LV1nZBigwtKbgnjL3YQBQSjOPI6WjiDxDIqJ7K6%2Bp5zRJdSeSVxB7eqRj6NJNMjv79nbu4f7gY%2BziJImECZe%2BNgn0qnoHq8j9wfxQXbooJdkkhiGmSCscRUayuLOXDFD9yQDytVQjIklT2jyJg3TPa57YsINPj20ZRg7QgllLzEBvpYnNI592UG43Ksd4SckwBL63wak8rD8xUQ%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/405418430749?_skw=PSA+10&amp;epid=10065171158&amp;hash=item5e64d2511d:g:8vMAAOSwBNhnW5x4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkVGxuRrzUCSEa8MKzflusWEarqQlKscvXR%2Bv8yDKc4qWs1efz68OlgYrVYDqjj1kD%2ByAbqLwuCbb0S2S9R4iTa5ydbZSuFQkGBBaF0ZK9jKfSz5G324czyF4zecrRR0fwTv0seXzU5vwSE9hrEXocIaO6Fm4aIsFgFuKB29Jk%2BD8oiwp6eNPPQxVMZMUEJ5%2B8xC1E8MuKZRxPFlKcWmMMIledc1QD4NwqiMpJF36mFFcphszXoDPuzWe9Z77j%2FHEjWB5fscs9FA3GnDHoXEkWj%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4555,40 +4549,38 @@
           <t>Basketball</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
+      <c r="B99" t="n">
+        <v>2023</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm Draft Picks</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>Green Wave Prizm</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>$710.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167158819612?_skw=PSA+10&amp;epid=5056551319&amp;hash=item26eb712b1c:g:zz4AAOSw9XNnVOxS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnrVpfOYDQhCa%2BwXMq%2BLq3zhGgUYE29ryr--UGpjmaXt2SE99Fwk0ubDIAIHHbMEQBOyR4cDmR1yhVYJSXBSyGxVXExibxpbIjBdbw1lSyUj35elZMg4wlsv%2Fg25agwyfVPKkFke274TRyESqsInSJUq2azGzQxhU90kc4CbNqAlRhOrpc7OLgUq33v1qXc3CQ7QxcciwHK8Qh2SMnBFRk4A4jEDTuBmybdvqQIs17hmA%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/286059462520?_skw=PSA+10&amp;epid=22063547990&amp;hash=item429a78ff78:g:N5IAAOSwXEtm5No6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlMvCHcEuLoe0KaKzN78izq3ZvLH3DZT2ppvtRvNMlBFXOcAReBh9FgF1QC%2FhsI3Yggys9ifhfcclKRHA5B%2FeVGM7%2ByzE5zjy0tEBxU65VzHUovfCGXtEouwpeh1Yqj%2BA8rARjANOga6Sfn%2BXFwPcqdHkIjm7RkbLy9GjkLM%2BP4Q0rUjYPigm2ve%2Fy2rJyG%2Fm0GInpQPpxAH0iKYANZmSSOqZYd2zTU5f1Sd%2BKoqKJqcQ%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4600,38 +4592,38 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Fast Break Purple Mosaic Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$182.50</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126810410825?_skw=PSA+10&amp;epid=14073110103&amp;hash=item1d867d4f49:g:LMUAAOSwTgpnTnw-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkAFmbyFw5JgtSJmchjGqW5W1AJ%2FmqKRJ%2F3o2aCoGzgeupOB9ab4pvtdUwY9NjkPpWBehdUIm4yeOnRfW8Is0zij1fbGdSNaOLr%2BqZcZUGg3Gvd4ovrFPEsqkBeKI3S0uYOc5gMVWhvQjr22qicRwaZTwxTFCY8Ir6m%2B%2FaWi8x%2BoLtEvLelyOTk5XAhnWSv6ZYnwghzwvbOTwTL0upjUVJyr0ai2J7F876JZlMFYjXD6DGo7XX6B3aav65QKpiMeTJS3C0UuqgodCF8wRQF77Yv%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/205143264473?_skw=PSA+10&amp;epid=26060343685&amp;hash=item2fc37dccd9:g:RK0AAOSwdadnTvy9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnbvkjOPS3QvpiiA%2FpoAyH0hsd3UT0LV1nZBigwtKbgnjL3YQBQSjOPI6WjiDxDIqJ7K6%2Bp5zRJdSeSVxB7eqRj6NJNMjv79nbu4f7gY%2BziJImECZe%2BNgn0qnoHq8j9wfxQXbooJdkkhiGmSCscRUayuLOXDFD9yQDytVQjIklT2jyJg3TPa57YsINPj20ZRg7QgllLzEBvpYnNI592UG43Ksd4SckwBL63wak8rD8xUQ%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4643,45 +4635,51 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Gold Prizm</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Charles Barkley</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>$227.50</t>
+          <t>$710.00</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276764522566?_skw=PSA+10&amp;epid=25056566608&amp;hash=item4070737846:g:SEwAAOSw6iNnTkCf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnfj7gGp1VSaQW92QTnsylGOPDFCN--KDNkMz0da21%2BANukyXZ1mhoumXDo%2F8wAlk6uVdh1lpG83qT8f11os9BubDoUdB7Aof9YOgrwV1NydBPG8r8LtJVu1Dl50szSRuCOZmKAz3gALfhcxNda1NPU3uKveYgszVsPQejVbeQt07E73WOayRxtw7uJ5NpLnUzeRhA%2BFjy%2FQgc%2FYBDjr9mfWXZlr0haRJ9bCLdQgA6VDA%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/167158819612?_skw=PSA+10&amp;epid=5056551319&amp;hash=item26eb712b1c:g:zz4AAOSw9XNnVOxS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnrVpfOYDQhCa%2BwXMq%2BLq3zhGgUYE29ryr--UGpjmaXt2SE99Fwk0ubDIAIHHbMEQBOyR4cDmR1yhVYJSXBSyGxVXExibxpbIjBdbw1lSyUj35elZMg4wlsv%2Fg25agwyfVPKkFke274TRyESqsInSJUq2azGzQxhU90kc4CbNqAlRhOrpc7OLgUq33v1qXc3CQ7QxcciwHK8Qh2SMnBFRk4A4jEDTuBmybdvqQIs17hmA%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Football</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>2022</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -4690,28 +4688,28 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Gold Vinyl Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Trevor Lawrence</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/305943681881?_skw=PSA+10&amp;epid=10059459432&amp;hash=item473baa1b59:g:L~cAAOSwE8RnHrBY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKntVL9Dz10iQcSUHiBtHULEztwpoimAzGoe1xBm3F5qzdL9bJwCRBb7LoWmRIwX5B84RVric4RMFjF4D2ZLMHywvxZXrtHKFGNwMEEvtxF%2BTMyk%2BcxrBkoPsP5UxoDhdlcD2FLzehEFZClEXj5J6k8e83hcsYOayg30Y8zICqeGiZOKun29bYDw5V9UN1Tof9c0b70DNpKFkEO56JAeg9NnUGcddFUrYekoVpAEEj0OX2Xbiyb8RhSgX5jztCr8RSYVLbS9YjtuW7u5vOHQIF1K%7Ctkp%3ABk9SR8DOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/167151814557?_skw=PSA+10&amp;epid=15065166127&amp;hash=item26eb06479d:g:z14AAOSwrF9nUVU2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlSmhu1I2ZGRqkyIi2aGxsPk%2F6gyw9%2Bb%2FrU2maNj7hxF7g%2Fp%2FzQ%2Bsc6kxZ%2B%2BlGSkuXXpMHMBwksJnmiYBxcM9YF77PBAZxBMUr%2BuSkokFAFRgZ7nQWVbuhGJhE2iiVMCplz3sRnZLyRV3%2FOzxr5ZXvOdLw4%2BOW2pqQMJS3fS552xOvTf11hVGUZuH99aLDCl%2BsIIqyf5iNl8UfndbTyNQbh9Fj1Y8cxdHMWeNt0%2BOaZm3SKXUN4I%2FicpbSJUQPj7lB0C1QjCBsidBHU4UQ0PzgE%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4721,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4733,28 +4731,28 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Red Fast Break Prizm</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>$265.00</t>
+          <t>$215.00</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356317886328?_skw=PSA+10&amp;epid=9056556395&amp;hash=item52f6337778:g:Ik4AAOSwNkZnSPcx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnjTVzPlH2yWYA7PJ8DK19tIChVpKp%2BrintQyw7BOby2W7o5pQ6wYCWgUwHasNa4ZPIWqiZdvr49EPNxGuNZl161C86JLJiL%2B2FzQjsdalVEQUGjyyliYg%2FDMJXlEYB9%2F0eeWjjRYpxD%2FbBbNZemmftgsqU%2F9thw1SeOo%2BSM3JnJLPiK%2BXReVil%2Fo8zThXKtMkqucf%2BK9ka7Y%2BVtkIUlvvt0hvyjnUKpGOnNw87evP%2FaA%3D%3D%7Ctkp%3ABk9SR8LOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/387700463152?_skw=PSA+10&amp;epid=23065172857&amp;hash=item5a44bf9630:g:1KIAAOSwEHlnUxuZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlDvS5vrDFmnvq6A%2ByV1LPtYUgiK3Ay%2Froc4vRr8d%2BikGT%2FcFEjj4TjG3l7TaV6AGqp5oVFdL8SAx3TSV9ccwYTJCR28zXPAp29jnAbS9V8AHEAurg7hVXPhMfOOb35GnbXtFd56iEOxR7cw3gTVpZfwvcFt0R5gQQq%2BVxwnVY%2FCQdgTSc%2F1sUyWzrzrB%2FjlWToJscEPTbt717xKndbSM573uyTNv%2FGmCubf616x0djkA%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4766,38 +4764,34 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Fast Break Prizm</t>
-        </is>
-      </c>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Charles Barkley</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>$339.72</t>
+          <t>$227.50</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267081506126?_skw=PSA+10&amp;epid=23056554594&amp;hash=item3e2f4c5d4e:g:CZ8AAOSwM0lnSmys&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkKQP88McrHdCawIMdSdO5M7OrI4O6S23Mu6TB39JlG5woOLM6E7g9iOirGTDzu9LnkM3DmaT%2FFoRawiMI6dkyeYc8OFLt9O1M5lsAgFzh6u95dqvhkjnsuCsrn1fekZhS2tQuuMx4k1lR%2FbD2XX%2FuY61ukS5FJjG2J5AHSEyNmF8etTUc3TglFuWhWMSg1H7nlFHkTSBTatHJFYk2NXmQdgi%2Bb4l8u4YkzwGu%2BoxwiBO3Yv7BjQUX3xiwng9IHpT84paasv%2FJOGoNARVpt%2FIou%7Ctkp%3ABk9SR8LOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/276764522566?_skw=PSA+10&amp;epid=25056566608&amp;hash=item4070737846:g:SEwAAOSw6iNnTkCf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnfj7gGp1VSaQW92QTnsylGOPDFCN--KDNkMz0da21%2BANukyXZ1mhoumXDo%2F8wAlk6uVdh1lpG83qT8f11os9BubDoUdB7Aof9YOgrwV1NydBPG8r8LtJVu1Dl50szSRuCOZmKAz3gALfhcxNda1NPU3uKveYgszVsPQejVbeQt07E73WOayRxtw7uJ5NpLnUzeRhA%2BFjy%2FQgc%2FYBDjr9mfWXZlr0haRJ9bCLdQgA6VDA%3D%3D%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4809,51 +4803,49 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Red Fast Break Prizm</t>
+          <t>Fast Break Purple Mosaic Prizm</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>$425.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176718140048?_skw=PSA+10&amp;epid=28056516644&amp;hash=item292538d290:g:VCMAAOSwxmdnT6yg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlNhCh%2BksFmnsRAiJtGb3IrKCF05bf9UugCWf%2Bca6rhri2gDQd%2F6Bc%2FE9a1UYj%2FW21JJfQbhdPSrMlJyVI2vBRP6ZhQ6ru0kUAWk6JLfmpCbcd3DkzLUmJch1P6rgknUZTOr6zo7LTX2XdNLOoQS8wR6ipeTDBHUcEInO7kaKD00bpqK7L8OcwGYnQIJATK3572hBig3FyCLAfYekfXFy5kRjEVL1z165EwO4siXvy2s8tLGmzOT47aFIPVZNi3g10GE%2BU3qDC1ELgJ3Fr5hQ4U%7Ctkp%3ABk9SR8LOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/126810410825?_skw=PSA+10&amp;epid=14073110103&amp;hash=item1d867d4f49:g:LMUAAOSwTgpnTnw-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkAFmbyFw5JgtSJmchjGqW5W1AJ%2FmqKRJ%2F3o2aCoGzgeupOB9ab4pvtdUwY9NjkPpWBehdUIm4yeOnRfW8Is0zij1fbGdSNaOLr%2BqZcZUGg3Gvd4ovrFPEsqkBeKI3S0uYOc5gMVWhvQjr22qicRwaZTwxTFCY8Ir6m%2B%2FaWi8x%2BoLtEvLelyOTk5XAhnWSv6ZYnwghzwvbOTwTL0upjUVJyr0ai2J7F876JZlMFYjXD6DGo7XX6B3aav65QKpiMeTJS3C0UuqgodCF8wRQF77Yv%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2022</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -4862,28 +4854,28 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Gold Vinyl Prizm</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Trevor Lawrence</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>$550.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-07</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116163233651?_skw=PSA+10&amp;epid=28056536978&amp;hash=item1b0bde4773:g:nFkAAOSwXFVmMs3n&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkrRKRDR1grtRclMy7KF88Qe16e63rr14AQ5gJuCfjxF488TPKfie5LxkKLORLkmeVNkYa2s2VAiKBY8lGv6kMdPHFYpGobj9a4wX9JuXn%2Fp%2By3Uh34LMajDraEZ6A9kbnFPHseT4cBcbpYknGq8ZsQjQnfP1XE8Kwy7Gm1S3D5u602ww63bmO%2F7CTDJHQ%2BguMH40HVvko2ahQwDc4Pkj1ypIINOnGazsESffgPSIkgJw%3D%3D%7Ctkp%3ABk9SR8LOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/305943681881?_skw=PSA+10&amp;epid=10059459432&amp;hash=item473baa1b59:g:L~cAAOSwE8RnHrBY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKntVL9Dz10iQcSUHiBtHULEztwpoimAzGoe1xBm3F5qzdL9bJwCRBb7LoWmRIwX5B84RVric4RMFjF4D2ZLMHywvxZXrtHKFGNwMEEvtxF%2BTMyk%2BcxrBkoPsP5UxoDhdlcD2FLzehEFZClEXj5J6k8e83hcsYOayg30Y8zICqeGiZOKun29bYDw5V9UN1Tof9c0b70DNpKFkEO56JAeg9NnUGcddFUrYekoVpAEEj0OX2Xbiyb8RhSgX5jztCr8RSYVLbS9YjtuW7u5vOHQIF1K%7Ctkp%3ABk9SR8DOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4895,38 +4887,38 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Holo Fast Break Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>$349.99</t>
+          <t>$265.00</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/166045467028?_skw=PSA+10&amp;epid=13056522060&amp;hash=item26a914c194:g:ODcAAOSwsGNkQwWK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk9ZCLlY2A%2F5zD11Ykw4uXJU1gk3fFfq2zoGZSSLBGHt1N9yhjh2ShqoW8HcAeZg0Tt6Orwxjhsg2R8ctPwJVz9JV7n5%2B2CbkRx6QSqec2NHVmGkBuCYMuuSS6AxVQ7%2FYAnqnlXL0%2BM%2FlititLpeNImkVq0pSWYEyvKEerTNAzMrMl20UoSVsK8tJIrjzpkQGhPIPV21XOOfpU0DXVOOK%2FRQ2jhkFEuqXasRv2z4LYCKfnSgZWADu6cMRqmgMoEI4hc84ici6uiFFAGCAE9RMRh%7Ctkp%3ABk9SR8LOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/356317886328?_skw=PSA+10&amp;epid=9056556395&amp;hash=item52f6337778:g:Ik4AAOSwNkZnSPcx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnjTVzPlH2yWYA7PJ8DK19tIChVpKp%2BrintQyw7BOby2W7o5pQ6wYCWgUwHasNa4ZPIWqiZdvr49EPNxGuNZl161C86JLJiL%2B2FzQjsdalVEQUGjyyliYg%2FDMJXlEYB9%2F0eeWjjRYpxD%2FbBbNZemmftgsqU%2F9thw1SeOo%2BSM3JnJLPiK%2BXReVil%2Fo8zThXKtMkqucf%2BK9ka7Y%2BVtkIUlvvt0hvyjnUKpGOnNw87evP%2FaA%3D%3D%7Ctkp%3ABk9SR8LOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4938,38 +4930,38 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Purple Fast Break Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>$189.00</t>
+          <t>$339.72</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326327516058?_skw=PSA+10&amp;epid=10056585777&amp;hash=item4bfaa2bb9a:g:9e8AAOSwotRnKVGV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmTEmDxO6%2FhTtKJ6k%2FnxaLNl7gLbuQp0QIfprZqEdGXIdlWV86sugPJTW5P7UTlhkG9L5%2FSQoTVKaIdYihqfgLO7UwQrO5S8R693V8WQkWMNFTV9jmLrrVmBoY4yvLXtE022d6tcOdpshXliJk4G3BmDVJ%2BTxGSd%2FCawTzvHTPn62sa4QOEbmMqEV2jOeL7TnT8%2BxfBhRXRUPr74xk6VqO768jMjrkvGGk7KwwJxKTURqwDB11DriU0teGJ65q%2FN9GQHlV02Bg3EtQMJAJtl%2FQf%7Ctkp%3ABk9SR8LOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/267081506126?_skw=PSA+10&amp;epid=23056554594&amp;hash=item3e2f4c5d4e:g:CZ8AAOSwM0lnSmys&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkKQP88McrHdCawIMdSdO5M7OrI4O6S23Mu6TB39JlG5woOLM6E7g9iOirGTDzu9LnkM3DmaT%2FFoRawiMI6dkyeYc8OFLt9O1M5lsAgFzh6u95dqvhkjnsuCsrn1fekZhS2tQuuMx4k1lR%2FbD2XX%2FuY61ukS5FJjG2J5AHSEyNmF8etTUc3TglFuWhWMSg1H7nlFHkTSBTatHJFYk2NXmQdgi%2Bb4l8u4YkzwGu%2BoxwiBO3Yv7BjQUX3xiwng9IHpT84paasv%2FJOGoNARVpt%2FIou%7Ctkp%3ABk9SR8LOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -4981,34 +4973,38 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Fast Break Prizm</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>$280.00</t>
+          <t>$550.00</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226465185234?_skw=PSA+10&amp;epid=15056528569&amp;hash=item34ba607dd2:g:nfkAAOSwCrNnQ50g&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnkrB5m10s2wUxxZUWf65rz329fURXykPkEBJH6fV33JKniLfbdb%2B%2FMRVE7JUieDFLz9JvrnQxUlBzGcn5xkz34lPiVZWY0eLj8mwlrWeQnB7afnWTEVNAKy7gg3VGrSl7UpM%2FOY%2BOk04Y3KnEt63lkiM05A5DlITVYFT1aT5EUGOd2CuMLEddU3VJVxjaeuLOiyNosuZljoPJ5CQAce29Ph0%2FqWHnopZALfku9opUdqKUVxEOsgg95p0OmmSMQKS6P%2BrbcYX6he614YrIL7P5L%7Ctkp%3ABk9SR8LOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/116163233651?_skw=PSA+10&amp;epid=28056536978&amp;hash=item1b0bde4773:g:nFkAAOSwXFVmMs3n&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkrRKRDR1grtRclMy7KF88Qe16e63rr14AQ5gJuCfjxF488TPKfie5LxkKLORLkmeVNkYa2s2VAiKBY8lGv6kMdPHFYpGobj9a4wX9JuXn%2Fp%2By3Uh34LMajDraEZ6A9kbnFPHseT4cBcbpYknGq8ZsQjQnfP1XE8Kwy7Gm1S3D5u602ww63bmO%2F7CTDJHQ%2BguMH40HVvko2ahQwDc4Pkj1ypIINOnGazsESffgPSIkgJw%3D%3D%7Ctkp%3ABk9SR8LOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5030,28 +5026,28 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>Holo Fast Break Prizm</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>$1,198.00</t>
+          <t>$349.99</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365249781913?_skw=PSA+10&amp;epid=18056521247&amp;hash=item550a956099:g:O6IAAOSwz1hlY8Qw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmiqvfnGW%2FXiFbsBKHjNzj3GEpj313afv5If1rnVPaGwCM%2F%2BUd%2Blt9yKpPkICiYCPqw1nt2%2FZtZ6WPHY3u62MQ6UiysxK2Kxs%2FeZenMCITzh9VDeJkqlkJixzcOnx5spwHweFNg49%2Bcb3gT6lMY68njmvCJTXdCsj4dVLcQ64Ygula4FiYVuXSUT%2BVdNwr%2Bzx0fLSWGnXc4lWmFg7%2FYocQdhrnz%2FbYZcI8KNBMxNRp%2FSestIaZqGoACyq5S9B4jnQqkeyfajpWyFpMSogo8Z0Hn%7Ctkp%3ABk9SR8LOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/166045467028?_skw=PSA+10&amp;epid=13056522060&amp;hash=item26a914c194:g:ODcAAOSwsGNkQwWK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk9ZCLlY2A%2F5zD11Ykw4uXJU1gk3fFfq2zoGZSSLBGHt1N9yhjh2ShqoW8HcAeZg0Tt6Orwxjhsg2R8ctPwJVz9JV7n5%2B2CbkRx6QSqec2NHVmGkBuCYMuuSS6AxVQ7%2FYAnqnlXL0%2BM%2FlititLpeNImkVq0pSWYEyvKEerTNAzMrMl20UoSVsK8tJIrjzpkQGhPIPV21XOOfpU0DXVOOK%2FRQ2jhkFEuqXasRv2z4LYCKfnSgZWADu6cMRqmgMoEI4hc84ici6uiFFAGCAE9RMRh%7Ctkp%3ABk9SR8LOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5063,38 +5059,38 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Red Fast Break Prizm</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>$220.00</t>
+          <t>$425.00</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316012799815?_skw=PSA+10&amp;epid=6056522134&amp;hash=item4993d4a747:g:2PEAAOSwiF5nSsOy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmLYnU7hUHCx15ViKf%2BIqtD%2BB87SMZrq0VEG2z1F8p9Tg8bqyC7GsZRlolG8xlO1XNDIAQKQEAHdcyYu0By6mpZs9iFcFvFXJy4hmnU6BLZoEV8nFMDi3v%2BdsZrbiKJsw2nlJlQStpGIbsDhmLDlvQOzpb%2BC9RnUDbsEiR7Z2xwHMP8hcoXlyuYNXZaJrlB4BUHsdIkFcDqHZbEh483KZp1l4bGSZOgJKm8WHmLhRK9aA%3D%3D%7Ctkp%3ABk9SR8LOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/176718140048?_skw=PSA+10&amp;epid=28056516644&amp;hash=item292538d290:g:VCMAAOSwxmdnT6yg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlNhCh%2BksFmnsRAiJtGb3IrKCF05bf9UugCWf%2Bca6rhri2gDQd%2F6Bc%2FE9a1UYj%2FW21JJfQbhdPSrMlJyVI2vBRP6ZhQ6ru0kUAWk6JLfmpCbcd3DkzLUmJch1P6rgknUZTOr6zo7LTX2XdNLOoQS8wR6ipeTDBHUcEInO7kaKD00bpqK7L8OcwGYnQIJATK3572hBig3FyCLAfYekfXFy5kRjEVL1z165EwO4siXvy2s8tLGmzOT47aFIPVZNi3g10GE%2BU3qDC1ELgJ3Fr5hQ4U%7Ctkp%3ABk9SR8LOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5106,38 +5102,38 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Blue Prizm</t>
+          <t>Purple Fast Break Prizm</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$189.00</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276723490921?_skw=PSA+10&amp;epid=8065159893&amp;hash=item406e016069:g:uXsAAOSwwktnLxQK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmCtp518vOiaLXBfDfAvfRWF9M6GbNNi%2BvAh%2BL2ZVg6%2FN7tmhZysvvAQN5%2BGLLumk861gZWpvlMOpbOpgeFSZEVJI2G9%2BHXUNNz8mXhy4vwH%2BaXzcFuq%2BJGKOJyUVOV0Tqz%2Bw%2FrTfnPvXaKDYsFohoUHsU5wAlwsNfB5a2RBins%2F3QgULR19%2BRFXgRL6YNsVxq5Q7cLDA%2ByIyGSdTCofOlYM1jWAYnVqLDPzumhSsicJQ%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/326327516058?_skw=PSA+10&amp;epid=10056585777&amp;hash=item4bfaa2bb9a:g:9e8AAOSwotRnKVGV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmTEmDxO6%2FhTtKJ6k%2FnxaLNl7gLbuQp0QIfprZqEdGXIdlWV86sugPJTW5P7UTlhkG9L5%2FSQoTVKaIdYihqfgLO7UwQrO5S8R693V8WQkWMNFTV9jmLrrVmBoY4yvLXtE022d6tcOdpshXliJk4G3BmDVJ%2BTxGSd%2FCawTzvHTPn62sa4QOEbmMqEV2jOeL7TnT8%2BxfBhRXRUPr74xk6VqO768jMjrkvGGk7KwwJxKTURqwDB11DriU0teGJ65q%2FN9GQHlV02Bg3EtQMJAJtl%2FQf%7Ctkp%3ABk9SR8LOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5154,33 +5150,33 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Red Fast Break Prizm</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>$900.00</t>
+          <t>$1,198.00</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256725499979?_skw=PSA+10&amp;epid=8056534555&amp;hash=item3bc608404b:g:lkgAAOSwQdtnKUwP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmk0ZUd15jzE9DnhC5OUDVXhHwvfBFCtoDGu5qfByQrp%2BT8vF5VsSJuirhjfqXk0WGzK9VJhAt4XK09%2FtZvjRiaZLTp792BmWL57%2BX1%2BpY5Z3aoe70cLpRoeRJz%2FVc%2BqH7HAqYs81A7ow5x5TziNKjo3Zm54cCZYRCQnDvKvLoNF7IF9wnQvUWslEJTnCFOzkZIPHkt6RG6x41jxCC60Y3r9lsTnxWGugKKO9eNxFBLlw%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/365249781913?_skw=PSA+10&amp;epid=18056521247&amp;hash=item550a956099:g:O6IAAOSwz1hlY8Qw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmiqvfnGW%2FXiFbsBKHjNzj3GEpj313afv5If1rnVPaGwCM%2F%2BUd%2Blt9yKpPkICiYCPqw1nt2%2FZtZ6WPHY3u62MQ6UiysxK2Kxs%2FeZenMCITzh9VDeJkqlkJixzcOnx5spwHweFNg49%2Bcb3gT6lMY68njmvCJTXdCsj4dVLcQ64Ygula4FiYVuXSUT%2BVdNwr%2Bzx0fLSWGnXc4lWmFg7%2FYocQdhrnz%2FbYZcI8KNBMxNRp%2FSestIaZqGoACyq5S9B4jnQqkeyfajpWyFpMSogo8Z0Hn%7Ctkp%3ABk9SR8LOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5192,38 +5188,34 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Fast Break Prizm</t>
-        </is>
-      </c>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>$165.00</t>
+          <t>$280.00</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126707094601?_skw=PSA+10&amp;epid=17065165256&amp;hash=item1d8054d449:g:xoEAAOSwQJNnAKLd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn%2FpGqkje0NYBktgrEGxhgvweB6EkKE7Xp46qeZrHed1FWn8Oz%2F4WzwO0N38Sp6uMly4C7Gp0BIR0zUOPIaUDKk2j1n2k9ZrO94UoIykItZTvmhfZb7Q7o2Sb2F3l3Ret6318UX7Yd8%2Fi%2F9%2B%2FTEsKZvEWFodqFz2TgEgtxozU1Bu%2Bc3mUvt2%2BuVJdSC%2BZhauEkn%2BEVvmjCmGtvjmX0kM6NchGoY--JNNutjopDApGk6wnyQGqzSGdHALBQ%2Fb7wZhXHjfz4jGrGyynI4fxYUso7v%7Ctkp%3ABk9SR8TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/226465185234?_skw=PSA+10&amp;epid=15056528569&amp;hash=item34ba607dd2:g:nfkAAOSwCrNnQ50g&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnkrB5m10s2wUxxZUWf65rz329fURXykPkEBJH6fV33JKniLfbdb%2B%2FMRVE7JUieDFLz9JvrnQxUlBzGcn5xkz34lPiVZWY0eLj8mwlrWeQnB7afnWTEVNAKy7gg3VGrSl7UpM%2FOY%2BOk04Y3KnEt63lkiM05A5DlITVYFT1aT5EUGOd2CuMLEddU3VJVxjaeuLOiyNosuZljoPJ5CQAce29Ph0%2FqWHnopZALfku9opUdqKUVxEOsgg95p0OmmSMQKS6P%2BrbcYX6he614YrIL7P5L%7Ctkp%3ABk9SR8LOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5227,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5245,28 +5237,28 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Fast Break Prizm Autographs</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>$190.00</t>
+          <t>$220.00</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156507781847?_skw=PSA+10&amp;epid=4056512142&amp;hash=item2470973ad7:g:eesAAOSw~JZnMQVS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnjHHNJWPb2qgi7vkud31vVSvV1FiW3H7CuYewFtvvzLaGKNSba4m4j8KqYWGH83uyxXqQNK%2B1W328pJpSMFqz3fHf8DZukT50Z9f9URKN0H4%2F1rGYI2u9Vk8YmudTGUZPQD%2BMaEJ8Wb69HQTYyVkmEKsXv5wR6mZCpjP6h6NUcYysfgYdKIhYBGQ23xNpUamHrLxXOYLTmclNUOPtwqqzLq4kuIJsRq3gdRalaHmNB6u8B8whhd7k%2F1iPt48mFJ82ZKaJjkMpg1Cl4uM9KJ%2Ftm%7Ctkp%3ABk9SR8TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/316012799815?_skw=PSA+10&amp;epid=6056522134&amp;hash=item4993d4a747:g:2PEAAOSwiF5nSsOy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmLYnU7hUHCx15ViKf%2BIqtD%2BB87SMZrq0VEG2z1F8p9Tg8bqyC7GsZRlolG8xlO1XNDIAQKQEAHdcyYu0By6mpZs9iFcFvFXJy4hmnU6BLZoEV8nFMDi3v%2BdsZrbiKJsw2nlJlQStpGIbsDhmLDlvQOzpb%2BC9RnUDbsEiR7Z2xwHMP8hcoXlyuYNXZaJrlB4BUHsdIkFcDqHZbEh483KZp1l4bGSZOgJKm8WHmLhRK9aA%3D%3D%7Ctkp%3ABk9SR8LOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5278,38 +5270,38 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Blue Prizm</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>$459.99</t>
+          <t>$175.00</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387647083869?_skw=PSA+10&amp;epid=9056529665&amp;hash=item5a4191155d:g:x-YAAOSwYdtnIYXW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlvNw8Hij%2FK%2BxmuG2PeTl%2FfD5g5RuRonIsAAF8%2Fpf%2FplL8lqvrN1b75%2FvkJT%2BXq%2F8hxmEoRX%2BounpYEIUM7Y3OY8xSU2EpDMy7SM2WxGO7aw9CVIJmiuXSxTVZJSeQLnAm8T1pQQgjt1IqGMvsfeuyZwz4Ik3vlKwkuvkbT4QblzEa%2FIW%2FaJlGLy420QudA%2BfuUsIZga%2BM%2BBT0TbWfmFyEl4VaiDIMuvnrHcCI9GLJeow%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/276723490921?_skw=PSA+10&amp;epid=8065159893&amp;hash=item406e016069:g:uXsAAOSwwktnLxQK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmCtp518vOiaLXBfDfAvfRWF9M6GbNNi%2BvAh%2BL2ZVg6%2FN7tmhZysvvAQN5%2BGLLumk861gZWpvlMOpbOpgeFSZEVJI2G9%2BHXUNNz8mXhy4vwH%2BaXzcFuq%2BJGKOJyUVOV0Tqz%2Bw%2FrTfnPvXaKDYsFohoUHsU5wAlwsNfB5a2RBins%2F3QgULR19%2BRFXgRL6YNsVxq5Q7cLDA%2ByIyGSdTCofOlYM1jWAYnVqLDPzumhSsicJQ%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5313,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5331,28 +5323,28 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Purple Fast Break Prizm</t>
+          <t>Red Fast Break Prizm</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>$550.00</t>
+          <t>$900.00</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167115966310?_skw=PSA+10&amp;epid=12060310378&amp;hash=item26e8e34766:g:~kAAAOSwSqlnQD8N&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkao0gvw%2BWOmmOkmCz6Q5CDknmO8QlloqMmksaZ3AqJu6xQuW%2FyPpTWHzjqAb72EuY5dFa0o9L1bcq3SwyH6dnL4XyNcdf8uPikKLnlB8ZD%2FXU8rvczMc%2B8uJu4nEpm6BEJWeWzxktYFASxSUBF2oLChFfMwwmtQAU6FVuZ%2FdW9pBrHmSZy3AFUUzR7uUu6CpYz7dlsBqocr2tU1NNe2tAJ2k5ujtG9utuvR8E5T3h9K1g%2BGIiDlamNhYadTi%2FZvHoFTYbG4gCcNRQGrcynkvjt%7Ctkp%3ABk9SR8TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/256725499979?_skw=PSA+10&amp;epid=8056534555&amp;hash=item3bc608404b:g:lkgAAOSwQdtnKUwP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmk0ZUd15jzE9DnhC5OUDVXhHwvfBFCtoDGu5qfByQrp%2BT8vF5VsSJuirhjfqXk0WGzK9VJhAt4XK09%2FtZvjRiaZLTp792BmWL57%2BX1%2BpY5Z3aoe70cLpRoeRJz%2FVc%2BqH7HAqYs81A7ow5x5TziNKjo3Zm54cCZYRCQnDvKvLoNF7IF9wnQvUWslEJTnCFOzkZIPHkt6RG6x41jxCC60Y3r9lsTnxWGugKKO9eNxFBLlw%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5364,38 +5356,38 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Fast Break Prizm</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>$155.00</t>
+          <t>$165.00</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296784274008?_skw=PSA+10&amp;epid=6056509659&amp;hash=item4519b8a258:g:KXYAAOSwe9dnIkFJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl8cJr0Qjl%2Frxj5eq%2BeBJORP45EqnxcCe%2F9ZByzSpow8CsvWNu3LriczqK4Nt1X6lyZo4QUHY6m%2FClT5E%2FX%2FgZ7bnsMnyEp%2BEY6OMp8wjgjnN3ezTHCiuGlXf0C4z79gXrdEixxOPcKsP3L%2FqJ6wcUKl%2F2O652x6ntD8%2BH6ktFppgtnuv4rEPYZpL2dVPWmC3v2CWGFrT2AEj4O%2F8FUzFc0rCk7AKQ7GvcWT%2BnkfMtZ7BnIS7BuRXJ9ZTuIZVphmfUeUYz5ZCPmV6pHQx3%2FNUD5%7Ctkp%3ABk9SR8TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/126707094601?_skw=PSA+10&amp;epid=17065165256&amp;hash=item1d8054d449:g:xoEAAOSwQJNnAKLd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn%2FpGqkje0NYBktgrEGxhgvweB6EkKE7Xp46qeZrHed1FWn8Oz%2F4WzwO0N38Sp6uMly4C7Gp0BIR0zUOPIaUDKk2j1n2k9ZrO94UoIykItZTvmhfZb7Q7o2Sb2F3l3Ret6318UX7Yd8%2Fi%2F9%2B%2FTEsKZvEWFodqFz2TgEgtxozU1Bu%2Bc3mUvt2%2BuVJdSC%2BZhauEkn%2BEVvmjCmGtvjmX0kM6NchGoY--JNNutjopDApGk6wnyQGqzSGdHALBQ%2Fb7wZhXHjfz4jGrGyynI4fxYUso7v%7Ctkp%3ABk9SR8TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5399,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5417,69 +5409,71 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Purple Fast Break Prizm</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$550.00</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126537479623?_skw=PSA+10&amp;epid=13056533121&amp;hash=item1d7638b5c7:g:aRIAAOSw9qxmcy2A&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm%2BgDTjZElSNm5mBnbeQhuru00Ul%2B3pn3x2nSHXHdMsxXbRBgYrYtF0%2FWh3B21q6UIdBrirXXiUk41JNwUKpSes%2FZCe%2Fru0vK8PV1iqVQoJjcL9BXPgnTg%2Fk3cEq6aOyAI9Rd82XYIriOO87T%2F8JTaLE6HFuS7AOjjV3gw3yVt4wx0Dfa%2F1eYMP2RNVhQL2VDiithywClssdLAIRmSZOBo6%2BUQs37L9W%2FfE0Zj4pta2pg%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/167115966310?_skw=PSA+10&amp;epid=12060310378&amp;hash=item26e8e34766:g:~kAAAOSwSqlnQD8N&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkao0gvw%2BWOmmOkmCz6Q5CDknmO8QlloqMmksaZ3AqJu6xQuW%2FyPpTWHzjqAb72EuY5dFa0o9L1bcq3SwyH6dnL4XyNcdf8uPikKLnlB8ZD%2FXU8rvczMc%2B8uJu4nEpm6BEJWeWzxktYFASxSUBF2oLChFfMwwmtQAU6FVuZ%2FdW9pBrHmSZy3AFUUzR7uUu6CpYz7dlsBqocr2tU1NNe2tAJ2k5ujtG9utuvR8E5T3h9K1g%2BGIiDlamNhYadTi%2FZvHoFTYbG4gCcNRQGrcynkvjt%7Ctkp%3ABk9SR8TOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Football</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2023</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>Blue Fast Break Prizm</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Joe Burrow</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>$349.99</t>
+          <t>$155.00</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326311643096?_skw=PSA+10&amp;epid=23065182368&amp;hash=item4bf9b087d8:g:8RoAAOSwDpFnFqKv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKknujOXxUYp%2BVML69rsM73ticDzhGi486g1oc%2BRjLooOuP5DL9gQeV%2BATflrgzcwBFwDnkd4z9FU9Eq20OHxZL2o0ofvcfxgWjW%2Bang%2Bzuh46HyubuM7Kvd8u0Lg1BTM0eL2Yxfyo8ZAf2ioIJVEltZV1CDo6SP%2FcmYC4XWqYDOvHAxV0pmgrISBU9dau8gCWKQ%2FF0v2Eg8zCHeLxc0E2AAkiQzyUoThffuHFKQMqvBWQ%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/296784274008?_skw=PSA+10&amp;epid=6056509659&amp;hash=item4519b8a258:g:KXYAAOSwe9dnIkFJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl8cJr0Qjl%2Frxj5eq%2BeBJORP45EqnxcCe%2F9ZByzSpow8CsvWNu3LriczqK4Nt1X6lyZo4QUHY6m%2FClT5E%2FX%2FgZ7bnsMnyEp%2BEY6OMp8wjgjnN3ezTHCiuGlXf0C4z79gXrdEixxOPcKsP3L%2FqJ6wcUKl%2F2O652x6ntD8%2BH6ktFppgtnuv4rEPYZpL2dVPWmC3v2CWGFrT2AEj4O%2F8FUzFc0rCk7AKQ7GvcWT%2BnkfMtZ7BnIS7BuRXJ9ZTuIZVphmfUeUYz5ZCPmV6pHQx3%2FNUD5%7Ctkp%3ABk9SR8TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5491,69 +5485,81 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Purple Fast Break Prizm</t>
+          <t>Blue Fast Break Prizm</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Gradey Dick</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$459.99</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126791015550?_skw=PSA+10&amp;epid=9065156962&amp;hash=item1d85555c7e:g:3fMAAOSwcPZnL5Oq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnE3aqZqS%2Fmf1KKyToZtLK1DOPX1F2Krd%2FIsJ1U22qZXxGp95o85rzErtCMEYG06bcu1QEDISJy%2FBfogZkrudgshpSw%2FgYxcXtxVI4pPLtJipBALpsJ27GJCm3Mp16S1kcebbNehelyzNuj4TOOlBbv0%2BwdJrFoPmplWj08MbkBovd%2FWK8wfRvlaZv8AHdmjDtpiD4PIUdH6ELVA%2B5mNcRmXzoFpvnqGPpwUoFF6aWP%2FQ%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/387647083869?_skw=PSA+10&amp;epid=9056529665&amp;hash=item5a4191155d:g:x-YAAOSwYdtnIYXW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlvNw8Hij%2FK%2BxmuG2PeTl%2FfD5g5RuRonIsAAF8%2Fpf%2FplL8lqvrN1b75%2FvkJT%2BXq%2F8hxmEoRX%2BounpYEIUM7Y3OY8xSU2EpDMy7SM2WxGO7aw9CVIJmiuXSxTVZJSeQLnAm8T1pQQgjt1IqGMvsfeuyZwz4Ik3vlKwkuvkbT4QblzEa%2FIW%2FaJlGLy420QudA%2BfuUsIZga%2BM%2BBT0TbWfmFyEl4VaiDIMuvnrHcCI9GLJeow%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Breaking</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Fast Break Orange</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
+          <t>Fast Break Prizm Autographs</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>OG Anunoby</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>$160.75</t>
+          <t>$190.00</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387539796140?_skw=PSA+10&amp;hash=item5a3b2c00ac:g:zKkAAOSw3e1nHIjC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlQlTeL6W4GAVJKo%2BHA23AsXv7bLxg1xHFETibNLI8bL95%2Blc2gaWlQdaFtMGYKBVCpVatydKSsr2o8Hf2q6g3Xz8O%2FODU7st72MmEVwDQFsTR2Wi4aDu1fXJChQBJBMZ8B54VXXH9RfqqJe%2FXgOGBZchT2uwYScSiYAEzvmLUFPtHiv4vEPp9I8kfL41fWn8rBYv4kZkp5zv8ruBSvaMlMuPUi%2Br0RGqJV9JjukhoMGuATa9UKbBUa9jdZZ2h7ckfXt%2FAMnLLI6CRt3xawMI9f%7Ctkp%3ABk9SR8TOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/156507781847?_skw=PSA+10&amp;epid=4056512142&amp;hash=item2470973ad7:g:eesAAOSw~JZnMQVS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnjHHNJWPb2qgi7vkud31vVSvV1FiW3H7CuYewFtvvzLaGKNSba4m4j8KqYWGH83uyxXqQNK%2B1W328pJpSMFqz3fHf8DZukT50Z9f9URKN0H4%2F1rGYI2u9Vk8YmudTGUZPQD%2BMaEJ8Wb69HQTYyVkmEKsXv5wR6mZCpjP6h6NUcYysfgYdKIhYBGQ23xNpUamHrLxXOYLTmclNUOPtwqqzLq4kuIJsRq3gdRalaHmNB6u8B8whhd7k%2F1iPt48mFJ82ZKaJjkMpg1Cl4uM9KJ%2Ftm%7Ctkp%3ABk9SR8TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5571,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5575,41 +5581,39 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Red Fast Break Prizm</t>
+          <t>Blue Fast Break Prizm</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>$1,026.00</t>
+          <t>$325.00</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167097295367?_skw=PSA+10&amp;epid=22056515358&amp;hash=item26e7c66207:g:8wkAAOSwKNtnON8f&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmzC0taENao3GpIuo9ZazoVCGfqLRDs6pRV5goeoQuu2Wbf04ghmT3LM%2FYSso%2B55RLBZ0x73G3UlU7np7XMzvQgZhhnr4A6NX4zW%2F3NmiMvez3xBWbLSQc%2BmDDDMqYD9NvgGSFF9r%2BG65phIaiM6ZgIYfDm7%2BhZVxXx%2FKwrT%2FFzIuJ4Edxydbyf7vufAMpSPD9E5UChM46ZkXYxMf7ysZvpBlwFpgDbWg3E3rebfnsJQfFsHKflHuNvV68KelVtJwTkbckP2d89p%2F2LGbI1vVLf%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/126537479623?_skw=PSA+10&amp;epid=13056533121&amp;hash=item1d7638b5c7:g:aRIAAOSw9qxmcy2A&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm%2BgDTjZElSNm5mBnbeQhuru00Ul%2B3pn3x2nSHXHdMsxXbRBgYrYtF0%2FWh3B21q6UIdBrirXXiUk41JNwUKpSes%2FZCe%2Fru0vK8PV1iqVQoJjcL9BXPgnTg%2Fk3cEq6aOyAI9Rd82XYIriOO87T%2F8JTaLE6HFuS7AOjjV3gw3yVt4wx0Dfa%2F1eYMP2RNVhQL2VDiithywClssdLAIRmSZOBo6%2BUQs37L9W%2FfE0Zj4pta2pg%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023-24</t>
-        </is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2023</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -5618,28 +5622,28 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Fast Break Prizm</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Joe Burrow</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$349.99</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/315693782462?_skw=PSA+10&amp;epid=15065166127&amp;hash=item4980d0d5be:g:8NUAAOSwaHVmyJSa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnBLxtgrsZXeoiNiIyA9bIGKDzHwSwoTmU%2BJlS6B1NX83arqGMRfT1%2BXbGpWrAzuhvVMJ3KNDzWaD9ozdAh8FYln%2FVO3mg82ZU8twcBSdAa95F%2Fr1KrsutMVvVsCgFKzgoOwHoSICSEWZt4MmXtP%2FmmrrcK%2FdD1PfvdaT1bPz8Ot69XZ9Eig9x3gWqTSo2XTMCDGD42LnpIo4jN1NjQNAj7GdcBjXFlN03e%2FANFpLAVWj%2FH%2FtKIFny1E7xc6LI7XyX9DrSX5HwWt1alcGjGmTMh%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/326311643096?_skw=PSA+10&amp;epid=23065182368&amp;hash=item4bf9b087d8:g:8RoAAOSwDpFnFqKv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKknujOXxUYp%2BVML69rsM73ticDzhGi486g1oc%2BRjLooOuP5DL9gQeV%2BATflrgzcwBFwDnkd4z9FU9Eq20OHxZL2o0ofvcfxgWjW%2Bang%2Bzuh46HyubuM7Kvd8u0Lg1BTM0eL2Yxfyo8ZAf2ioIJVEltZV1CDo6SP%2FcmYC4XWqYDOvHAxV0pmgrISBU9dau8gCWKQ%2FF0v2Eg8zCHeLxc0E2AAkiQzyUoThffuHFKQMqvBWQ%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5651,77 +5655,69 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>Purple Fast Break Prizm</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Gradey Dick</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>$555.00</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365233349861?_skw=PSA+10&amp;epid=18056521247&amp;hash=item55099aa4e5:g:O6IAAOSwz1hlY8Qw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkZE1v4bxibQrJoVUZUhCz8pvmxEXn8uMgchddoVjnwJ4B%2FEOawAC5dT3PPdYu5gXCL9Perg6o3afRjgaqwdZX3KBlIGuimlrezCqzjZbVorpFmpqokiX%2BdGnTQXxHhm4XvF88%2FvVLdfVUHEUXR1YlJCnCbIuhIyhD3%2FJmlx5H9R3150a3pbwlxoJIit3hL3QRmZtClEgUDsvJmNH959GLkxkNwYeW0VIk8esc6n6BzGQ%3D%3D%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/126791015550?_skw=PSA+10&amp;epid=9065156962&amp;hash=item1d85555c7e:g:3fMAAOSwcPZnL5Oq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnE3aqZqS%2Fmf1KKyToZtLK1DOPX1F2Krd%2FIsJ1U22qZXxGp95o85rzErtCMEYG06bcu1QEDISJy%2FBfogZkrudgshpSw%2FgYxcXtxVI4pPLtJipBALpsJ27GJCm3Mp16S1kcebbNehelyzNuj4TOOlBbv0%2BwdJrFoPmplWj08MbkBovd%2FWK8wfRvlaZv8AHdmjDtpiD4PIUdH6ELVA%2B5mNcRmXzoFpvnqGPpwUoFF6aWP%2FQ%3D%3D%7Ctkp%3ABk9SR8TOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022-23</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>De'Aaron Fox</t>
-        </is>
-      </c>
+          <t>Breaking</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Fast Break Orange</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>$152.50</t>
+          <t>$160.75</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267066754636?_skw=PSA+10&amp;epid=16060337763&amp;hash=item3e2e6b464c:g:ULsAAOSwFMRnOP5r&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlKQiAt3rbk2hxB%2FnUIMxb6T5Z%2BQtoAAmoiSoASPVEZd02Wzq65VEE7kdddW2qU0uFaSkgwUO8%2BFK19hfZeBrPSV114BxIGUeffIFcNsm2GiZaJPeMgRnGvjgdXvsIpQhraatl4va3aocmPYa0kvxGf5cH0%2BgiVuvgDMBu9b6pK0nfX5KpJ1RgLLi4r8FQWsZbvYskcqroVTp%2FKhb0Z1D3N1lItHPzIhcvJYcFcMXvnP6zMO8%2FRari87xdU99DdkHMPUkJEHf9I7b%2Bhj3DkdSxG%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/387539796140?_skw=PSA+10&amp;hash=item5a3b2c00ac:g:zKkAAOSw3e1nHIjC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlQlTeL6W4GAVJKo%2BHA23AsXv7bLxg1xHFETibNLI8bL95%2Blc2gaWlQdaFtMGYKBVCpVatydKSsr2o8Hf2q6g3Xz8O%2FODU7st72MmEVwDQFsTR2Wi4aDu1fXJChQBJBMZ8B54VXXH9RfqqJe%2FXgOGBZchT2uwYScSiYAEzvmLUFPtHiv4vEPp9I8kfL41fWn8rBYv4kZkp5zv8ruBSvaMlMuPUi%2Br0RGqJV9JjukhoMGuATa9UKbBUa9jdZZ2h7ckfXt%2FAMnLLI6CRt3xawMI9f%7Ctkp%3ABk9SR8TOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5729,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5743,28 +5739,28 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Pink Fast Break Prizm</t>
+          <t>Red Fast Break Prizm</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$1,026.00</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276723572149?_skw=PSA+10&amp;epid=3065167214&amp;hash=item406e029db5:g:ibAAAOSwdlRnLyE9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkPH3eS3oCZm2DzhJuYDfk5SVT7UIMN3r28kfpbs%2Fzb9oHOHt0izseQAD%2FisNo5hRU1zeVQa5Zm%2FJ1h5xTsxi1aPuTxPVl2%2FVD1n%2FesCcstJBjod1oV2zlA2sPiUvU8eI0%2B16TtICxqqOBiyn49TuEwZ6jLyxYhhT2qy1at%2B8I84o2CIY8qOVmbJZolj8HF%2BHFJyXzqBLNpClRS9mjKRo8aGUAQPsxOWO%2BjWBNgvO2vYx1N0grLstLnhXTm0FibFuIbSOYACna79ERByBWONKcT%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/167097295367?_skw=PSA+10&amp;epid=22056515358&amp;hash=item26e7c66207:g:8wkAAOSwKNtnON8f&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmzC0taENao3GpIuo9ZazoVCGfqLRDs6pRV5goeoQuu2Wbf04ghmT3LM%2FYSso%2B55RLBZ0x73G3UlU7np7XMzvQgZhhnr4A6NX4zW%2F3NmiMvez3xBWbLSQc%2BmDDDMqYD9NvgGSFF9r%2BG65phIaiM6ZgIYfDm7%2BhZVxXx%2FKwrT%2FFzIuJ4Edxydbyf7vufAMpSPD9E5UChM46ZkXYxMf7ysZvpBlwFpgDbWg3E3rebfnsJQfFsHKflHuNvV68KelVtJwTkbckP2d89p%2F2LGbI1vVLf%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5776,7 +5772,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5784,26 +5780,30 @@
           <t>Panini Prizm</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Fast Break Prizm</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>$399.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167021287139?_skw=PSA+10&amp;epid=22056498060&amp;hash=item26e33e96e3:g:FwkAAOSwbTBnC9Pp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkGokcaoH5mxG812sCMXIksGYCrter%2F7YGCKCyCUSX5EvDVpOAx%2FSrNMzt%2F6jgXyyvoqaEhxz8x%2BxtVLZeC8BBsqbvCyixGDGPN%2Ft6lvtgBbxBTkXTg5%2FiOhImTiqAUmLbZQT%2BjYxyB54FxCvrKYuoyufmRKwiP5hWFE%2FzKq3RfmxHzxCHQ4x5dNhX9hyPls44CUOca%2BWowc58391XvZgw9NrmBqWNdBptLFO2w4M9cxA%3D%3D%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/315693782462?_skw=PSA+10&amp;epid=15065166127&amp;hash=item4980d0d5be:g:8NUAAOSwaHVmyJSa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnBLxtgrsZXeoiNiIyA9bIGKDzHwSwoTmU%2BJlS6B1NX83arqGMRfT1%2BXbGpWrAzuhvVMJ3KNDzWaD9ozdAh8FYln%2FVO3mg82ZU8twcBSdAa95F%2Fr1KrsutMVvVsCgFKzgoOwHoSICSEWZt4MmXtP%2FmmrrcK%2FdD1PfvdaT1bPz8Ot69XZ9Eig9x3gWqTSo2XTMCDGD42LnpIo4jN1NjQNAj7GdcBjXFlN03e%2FANFpLAVWj%2FH%2FtKIFny1E7xc6LI7XyX9DrSX5HwWt1alcGjGmTMh%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5815,38 +5815,38 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$555.00</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156497068836?_skw=PSA+10&amp;epid=18056517934&amp;hash=item246ff3c324:g:ihUAAOSwJo9nKs5P&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkqnM7zxzPrh0kIy5J5v5tje7%2Fx9%2F2sFSbtl0yc88ECSe8bg%2BHqzismOq2fj9nvGlzgvVdAlfjVNig47PVrFrihMz307ETsXQX%2FQ8ITpG%2FQ7AFfI%2Bhf1pCmdupmgYUvRPUpdFFaEgoXFI%2B6AXiIoy6IHKi9K5VCQ4omkLTNTU2dnqav8sn4Sm4HhYAfOPQQrsggmrMyOi0XFLg9v3NOTHp2ey66HbyQ5o221lqE1%2FUrp6rYR1yjRaP4esuzdvn8ZJKIhVxZf9cj3H6RHegbs7Vn%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/365233349861?_skw=PSA+10&amp;epid=18056521247&amp;hash=item55099aa4e5:g:O6IAAOSwz1hlY8Qw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkZE1v4bxibQrJoVUZUhCz8pvmxEXn8uMgchddoVjnwJ4B%2FEOawAC5dT3PPdYu5gXCL9Perg6o3afRjgaqwdZX3KBlIGuimlrezCqzjZbVorpFmpqokiX%2BdGnTQXxHhm4XvF88%2FvVLdfVUHEUXR1YlJCnCbIuhIyhD3%2FJmlx5H9R3150a3pbwlxoJIit3hL3QRmZtClEgUDsvJmNH959GLkxkNwYeW0VIk8esc6n6BzGQ%3D%3D%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5858,75 +5858,77 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Panini Prizm Draft Picks</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>$191.99</t>
+          <t>$152.50</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/315409636286?_skw=PSA+10&amp;epid=25065153662&amp;hash=item496fe11bbe:g:G2gAAOSwRSlmW9e1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk3evqUigVvqxXNbAc8NEDF8MGjHPKFfkjPt5vUZyZ2tHEJ67Ca5ouZHfnNxxzsl5j%2Fu%2Fp0ro%2FE5alPWqq87Uw4%2FL8ePP2mqtz9zApo3%2Furo6G%2BFmmLPYUwo0UlVpQEgkLUW%2FX0AReq5HM5jxbLCRTOzfqbnt44LNzPZx1vpGK76C44qjuAoeCKOtPG3xbNoRkC%2Fsy1mhgRlPtewBJ6b%2BPfHX2scSUI5mS6i2ItxEO%2FPw%3D%3D%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/267066754636?_skw=PSA+10&amp;epid=16060337763&amp;hash=item3e2e6b464c:g:ULsAAOSwFMRnOP5r&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlKQiAt3rbk2hxB%2FnUIMxb6T5Z%2BQtoAAmoiSoASPVEZd02Wzq65VEE7kdddW2qU0uFaSkgwUO8%2BFK19hfZeBrPSV114BxIGUeffIFcNsm2GiZaJPeMgRnGvjgdXvsIpQhraatl4va3aocmPYa0kvxGf5cH0%2BgiVuvgDMBu9b6pK0nfX5KpJ1RgLLi4r8FQWsZbvYskcqroVTp%2FKhb0Z1D3N1lItHPzIhcvJYcFcMXvnP6zMO8%2FRari87xdU99DdkHMPUkJEHf9I7b%2Bhj3DkdSxG%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Breaking</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>2023</v>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Fast Break</t>
+          <t>Pink Fast Break Prizm</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Jarace Walker</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>$205.50</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387593579963?_skw=PSA+10&amp;hash=item5a3e60adbb:g:a8QAAOSw3tVnLk3x&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlg4%2F3HVd1vqgjuSDbN0h8eSa4WZQp%2FLXi7mFrkEgT7ZhU4mCbtyp%2F6tyr4voSJSkrRcrr3TNjSdiMar%2F4uxS%2FYnXQccEJIMepq9fyoRwKDi7QS5RX1o6gTO8NBuGY0bS3CXgmmzj7GPnOmB1Lt%2BnjLd7ZSrymTGFyqUMkRSI%2BESESebdj1E%2B7aG81hB%2FjIxOj1gWW7VGt4VoEOersEeFIktWU9IKNwZrq609L%2F%2BSy%2FRw%3D%3D%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/276723572149?_skw=PSA+10&amp;epid=3065167214&amp;hash=item406e029db5:g:ibAAAOSwdlRnLyE9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkPH3eS3oCZm2DzhJuYDfk5SVT7UIMN3r28kfpbs%2Fzb9oHOHt0izseQAD%2FisNo5hRU1zeVQa5Zm%2FJ1h5xTsxi1aPuTxPVl2%2FVD1n%2FesCcstJBjod1oV2zlA2sPiUvU8eI0%2B16TtICxqqOBiyn49TuEwZ6jLyxYhhT2qy1at%2B8I84o2CIY8qOVmbJZolj8HF%2BHFJyXzqBLNpClRS9mjKRo8aGUAQPsxOWO%2BjWBNgvO2vYx1N0grLstLnhXTm0FibFuIbSOYACna79ERByBWONKcT%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5940,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5946,30 +5948,26 @@
           <t>Panini Prizm</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Red Fast Break Prizm</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>$299.99</t>
+          <t>$399.00</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375776526451?_skw=PSA+10&amp;epid=23065172857&amp;hash=item577e06c073:g:TTkAAOSwYgJnLtm1&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmt9vR9J2jpWOuf%2BiwXov9bMmXBzltwXRgkP14of8GNDmbErh3Orxv1ev4C9EdrsFTaoj37pCNYWcK9MRpCUQkcMFY%2FRC4KuSQOXW44K%2B2sXctTjfsO%2BKVXtzdKX3%2BCYEKjHxIAe0SS3Zcq%2FlvR1dLhGvmNa0arHw7WqGncPlf4BJi5eOH1CCvch0f4G8l0cSWBFENAlZxmYJesa%2BnndftRIWVFkGYZT5cghh1lYuKxP0Ac25ck%2BCWb0QC8NdyZpvPzupf3ACxrnM4ucPCwh%2FpA%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/167021287139?_skw=PSA+10&amp;epid=22056498060&amp;hash=item26e33e96e3:g:FwkAAOSwbTBnC9Pp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkGokcaoH5mxG812sCMXIksGYCrter%2F7YGCKCyCUSX5EvDVpOAx%2FSrNMzt%2F6jgXyyvoqaEhxz8x%2BxtVLZeC8BBsqbvCyixGDGPN%2Ft6lvtgBbxBTkXTg5%2FiOhImTiqAUmLbZQT%2BjYxyB54FxCvrKYuoyufmRKwiP5hWFE%2FzKq3RfmxHzxCHQ4x5dNhX9hyPls44CUOca%2BWowc58391XvZgw9NrmBqWNdBptLFO2w4M9cxA%3D%3D%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5979,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5991,28 +5989,28 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Gold Fast Break Prizm</t>
+          <t>Blue Fast Break Prizm</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>$279.99</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176637901755?_skw=PSA+10&amp;epid=19062602677&amp;hash=item2920707bbb:g:VHkAAOSwasJnFFHK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkE6TvU61API3wOI7zq3pJB0WeWOC3wX9zQC00xVQ0DA0f9BzN9ZUDyQGj8PvUae1PwyLgDhq4GCEdeb6ug91F8thHwQo2ilrTfMfXe5okc8NcVDLw13ppPbWD3HvswojV7RgqNdoWbPeflP%2F1fWmuTNdo0CRDEOuZDglAynBQ%2BOtFaU82rpZMHy%2BUMEU%2B67ERV2rWa%2BdE0PaAjHtkCPoD2Q17UW46%2BFsAguhAMk7jVbmpN4i9a3B4eDbPrKLOr4zdLW5swU9%2F2ewlZ3RukUF%2Bn%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/156497068836?_skw=PSA+10&amp;epid=18056517934&amp;hash=item246ff3c324:g:ihUAAOSwJo9nKs5P&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkqnM7zxzPrh0kIy5J5v5tje7%2Fx9%2F2sFSbtl0yc88ECSe8bg%2BHqzismOq2fj9nvGlzgvVdAlfjVNig47PVrFrihMz307ETsXQX%2FQ8ITpG%2FQ7AFfI%2Bhf1pCmdupmgYUvRPUpdFFaEgoXFI%2B6AXiIoy6IHKi9K5VCQ4omkLTNTU2dnqav8sn4Sm4HhYAfOPQQrsggmrMyOi0XFLg9v3NOTHp2ey66HbyQ5o221lqE1%2FUrp6rYR1yjRaP4esuzdvn8ZJKIhVxZf9cj3H6RHegbs7Vn%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -6024,51 +6022,45 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Fast Break Prizm Autographs</t>
-        </is>
-      </c>
+          <t>Panini Prizm Draft Picks</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>$459.95</t>
+          <t>$191.99</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176637993905?_skw=PSA+10&amp;epid=17056532879&amp;hash=item292071e3b1:g:QLsAAOSw9w1nBMJK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn9W8gnFYOLvyEzGRpAigKDnNe8GDOSrOEXrg%2FmIEjKVi2aoAoSjUPtPuKK2A8NGpn6eV%2FNWHekLYXlatemu9hbw%2FVOAXupI5I9EEQxIKjmq99DQXP0zXI7nb213WmxaHOI1hJ6Wj6e1xfSUdjKyFsrELhbatYrBoMPBcUv8gXqoAl9BviA7d0mdc0eaIcFpM8nsVSHAKv5FSI4M3gfiVAI44o5sEd5BPkinZfpG4Ph%2BEP6mjaeSbBe8wpVh2VZFhDOxp4rR%2FAW6jDrnG68Wubt%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/315409636286?_skw=PSA+10&amp;epid=25065153662&amp;hash=item496fe11bbe:g:G2gAAOSwRSlmW9e1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk3evqUigVvqxXNbAc8NEDF8MGjHPKFfkjPt5vUZyZ2tHEJ67Ca5ouZHfnNxxzsl5j%2Fu%2Fp0ro%2FE5alPWqq87Uw4%2FL8ePP2mqtz9zApo3%2Furo6G%2BFmmLPYUwo0UlVpQEgkLUW%2FX0AReq5HM5jxbLCRTOzfqbnt44LNzPZx1vpGK76C44qjuAoeCKOtPG3xbNoRkC%2Fsy1mhgRlPtewBJ6b%2BPfHX2scSUI5mS6i2ItxEO%2FPw%3D%3D%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
+          <t>Breaking</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2023</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6077,28 +6069,28 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Gold Fast Break Prizm</t>
+          <t>Fast Break</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>$197.00</t>
+          <t>$205.50</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375541131803?_skw=PSA+10&amp;epid=15058642375&amp;hash=item576ffeea1b:g:6SMAAOSw6yxmltrd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmKQoOM32aZnl%2B5WK3nQFCTmGe%2BuvGItow6AvMkAFlaY56M6wvE3DSKnKyYno4M9t1c0khiUs0NqFJe5M5WqViyod2lp%2F1Y4GFux2jNf2dSmQSA0zIIwcaISAqSCmmiIJCSmlYCz5axMkSMgeCzYJTrfb0dz2HG2bIRMthdrWuiI3Zsax8Sppi%2BpF%2FAy0BpyaTFp9FZ9fiWsCBZuV91p2u7nhsLCHpr1hKN7hPiQUNkdw%3D%3D%7Ctkp%3ABk9SR8bOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/387593579963?_skw=PSA+10&amp;hash=item5a3e60adbb:g:a8QAAOSw3tVnLk3x&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlg4%2F3HVd1vqgjuSDbN0h8eSa4WZQp%2FLXi7mFrkEgT7ZhU4mCbtyp%2F6tyr4voSJSkrRcrr3TNjSdiMar%2F4uxS%2FYnXQccEJIMepq9fyoRwKDi7QS5RX1o6gTO8NBuGY0bS3CXgmmzj7GPnOmB1Lt%2BnjLd7ZSrymTGFyqUMkRSI%2BESESebdj1E%2B7aG81hB%2FjIxOj1gWW7VGt4VoEOersEeFIktWU9IKNwZrq609L%2F%2BSy%2FRw%3D%3D%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -6110,7 +6102,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6118,26 +6110,30 @@
           <t>Panini Prizm</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Red Fast Break Prizm</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$299.99</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-17</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186730815306?_skw=PSA+10&amp;epid=19060325669&amp;hash=item2b7a061f4a:g:TyIAAOSw1ZBnDdCk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmYXcgifQRFCoktseguaFdLpzk56UVmBlwO2eiVuRwAZFktrqmZ5oGTXcYnjwgqjWvv4py1ODo1HJ63%2Begz--wAyiFb%2F6oiPp2hq9ItTSQWaaV8IkJPkZGnq38a6EYR0nfeYYbCTrTn9hkizD8Vfxqt83ofZytsK0h%2FFpuGtn4ymdTrho%2F2DvxZnN0KCAPc4UV27BgqOQEAWj%2B8flhIXBD2eveiRw3I3at5251v%2BSxC6Q%3D%3D%7Ctkp%3ABk9SR8jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/375776526451?_skw=PSA+10&amp;epid=23065172857&amp;hash=item577e06c073:g:TTkAAOSwYgJnLtm1&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmt9vR9J2jpWOuf%2BiwXov9bMmXBzltwXRgkP14of8GNDmbErh3Orxv1ev4C9EdrsFTaoj37pCNYWcK9MRpCUQkcMFY%2FRC4KuSQOXW44K%2B2sXctTjfsO%2BKVXtzdKX3%2BCYEKjHxIAe0SS3Zcq%2FlvR1dLhGvmNa0arHw7WqGncPlf4BJi5eOH1CCvch0f4G8l0cSWBFENAlZxmYJesa%2BnndftRIWVFkGYZT5cghh1lYuKxP0Ac25ck%2BCWb0QC8NdyZpvPzupf3ACxrnM4ucPCwh%2FpA%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -6154,29 +6150,33 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Gold Fast Break Prizm</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>$599.99</t>
+          <t>$279.99</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/305906334030?_skw=PSA+10&amp;epid=19060338083&amp;hash=item473970394e:g:W-QAAOSwgJNnNRx0&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnUIMzieY4q%2BWCJ1ee4I8LqiyDDZ%2F8LWMHPgKj0oh8PNht%2Fu1fsl9JYW6dYzrrYQp0uptK%2Bk4TqAzxx%2FdxhWGOb1rrHo6rp26dnzep0bpilehXxR8Z2%2FE3DdyuBRn1wXUmsjq%2BsGBm%2ByFVXgaIEHctRrp6S%2BCJWURIgQn8HWgyK1CeBvkDeyI4xnoyiv2lVZHkqyp0vhF%2FKKMRtnQ53G0xfpREht8M%2FQs3MlstmJ8W3lQ%3D%3D%7Ctkp%3ABk9SR8jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/176637901755?_skw=PSA+10&amp;epid=19062602677&amp;hash=item2920707bbb:g:VHkAAOSwasJnFFHK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkE6TvU61API3wOI7zq3pJB0WeWOC3wX9zQC00xVQ0DA0f9BzN9ZUDyQGj8PvUae1PwyLgDhq4GCEdeb6ug91F8thHwQo2ilrTfMfXe5okc8NcVDLw13ppPbWD3HvswojV7RgqNdoWbPeflP%2F1fWmuTNdo0CRDEOuZDglAynBQ%2BOtFaU82rpZMHy%2BUMEU%2B67ERV2rWa%2BdE0PaAjHtkCPoD2Q17UW46%2BFsAguhAMk7jVbmpN4i9a3B4eDbPrKLOr4zdLW5swU9%2F2ewlZ3RukUF%2Bn%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -6188,34 +6188,38 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Fast Break Prizm Autographs</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Allen Iverson</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$459.95</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/315929426300?_skw=PSA+10&amp;epid=22056580357&amp;hash=item498edc797c:g:zLIAAOSwiBRnLBMs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk2QwBOEP07gljMiUwQw6sy2gng5jeWgLc4qYTkzTwErkAxrklH3a%2Bj4PC4IuyI%2FGAGnQr80aXQlECpIKNyFc8yqra5dY88aRowVghNbz7Pe1OuS6P96ELeZo9CvY5KCb7g7HUVepmiAzYPuH%2B6%2FBRjBfiyu44aeCjZFA9Fv4LliClq72HAm0c%2BxuG0uf9%2FOwesIQvVdDNYaOjIAl4YUjxsT6dB2TztH9VxStKD4IdI%2Bg%3D%3D%7Ctkp%3ABk9SR8jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/176637993905?_skw=PSA+10&amp;epid=17056532879&amp;hash=item292071e3b1:g:QLsAAOSw9w1nBMJK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn9W8gnFYOLvyEzGRpAigKDnNe8GDOSrOEXrg%2FmIEjKVi2aoAoSjUPtPuKK2A8NGpn6eV%2FNWHekLYXlatemu9hbw%2FVOAXupI5I9EEQxIKjmq99DQXP0zXI7nb213WmxaHOI1hJ6Wj6e1xfSUdjKyFsrELhbatYrBoMPBcUv8gXqoAl9BviA7d0mdc0eaIcFpM8nsVSHAKv5FSI4M3gfiVAI44o5sEd5BPkinZfpG4Ph%2BEP6mjaeSbBe8wpVh2VZFhDOxp4rR%2FAW6jDrnG68Wubt%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -6227,38 +6231,38 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>Gold Fast Break Prizm</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>$449.00</t>
+          <t>$197.00</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235819607151?_skw=PSA+10&amp;epid=26065170361&amp;hash=item36e7f1a46f:g:ll0AAOSwnRtnK6tD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlFeSpJi5CSrONgvt%2Fto8nRJqyXl%2FESg0jkTMi7U8l9jsEHC03zJD1dgBoLCWa%2FNy%2F1%2Fv93byfpQWTbbH71BKuu183OjsvFG1T%2FxSz99dlEbIbDyyM7CIz%2BY25GVmcqkHRCPA9PkxvdpvNcy6dNar7z7xjXjWUozNU%2Fni6nEsyfTFa7TqmqB8ec8eZ76OBxKXVaYBluGXHSxRad%2BwEDb26yYW5CKt6XN8fB6WuAex4dtDVW0KEt8i4sbmelOMDRQO3Iao8Duq2l9c9u%2BPE%2Fpjm7%7Ctkp%3ABk9SR8jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/375541131803?_skw=PSA+10&amp;epid=15058642375&amp;hash=item576ffeea1b:g:6SMAAOSw6yxmltrd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmKQoOM32aZnl%2B5WK3nQFCTmGe%2BuvGItow6AvMkAFlaY56M6wvE3DSKnKyYno4M9t1c0khiUs0NqFJe5M5WqViyod2lp%2F1Y4GFux2jNf2dSmQSA0zIIwcaISAqSCmmiIJCSmlYCz5axMkSMgeCzYJTrfb0dz2HG2bIRMthdrWuiI3Zsax8Sppi%2BpF%2FAy0BpyaTFp9FZ9fiWsCBZuV91p2u7nhsLCHpr1hKN7hPiQUNkdw%3D%3D%7Ctkp%3ABk9SR8bOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -6270,38 +6274,34 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Gold Fast Break Prizm</t>
-        </is>
-      </c>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>$599.99</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395898176573?_skw=PSA+10&amp;epid=19056515789&amp;hash=item5c2d5ec43d:g:EvwAAOSwFHZnNB47&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnqbCHXdPfZ7VarxT%2FoGzqtsTyZxl3f%2FwJHHGN3T%2B1pFOv3FzIThSR8t1%2Bv3Xzi%2FuaeKqIBj2Swza6O1P0Rqj2dYTDbc2vVNhCcPyCx92OtwFyt1LeucWzixypduaShDApPASQ9i0gBBi%2FuWKny%2Fhzy%2BuafCatDiIKpq1D6VNZW%2FI2U7p%2FAYicTdNlva%2BXVHIGkSxARS%2FLiPUPGk7E%2FQruZvQFLw1fRWaze5EqrYuVPnQyUjJ%2B9LwdMXqcYV3h8JTIxBBsYQUgrs8oZriRZmXVF%7Ctkp%3ABk9SR8jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/186730815306?_skw=PSA+10&amp;epid=19060325669&amp;hash=item2b7a061f4a:g:TyIAAOSw1ZBnDdCk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmYXcgifQRFCoktseguaFdLpzk56UVmBlwO2eiVuRwAZFktrqmZ5oGTXcYnjwgqjWvv4py1ODo1HJ63%2Begz--wAyiFb%2F6oiPp2hq9ItTSQWaaV8IkJPkZGnq38a6EYR0nfeYYbCTrTn9hkizD8Vfxqt83ofZytsK0h%2FFpuGtn4ymdTrho%2F2DvxZnN0KCAPc4UV27BgqOQEAWj%2B8flhIXBD2eveiRw3I3at5251v%2BSxC6Q%3D%3D%7Ctkp%3ABk9SR8jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -6313,38 +6313,34 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Gold Fast Break Prizm</t>
-        </is>
-      </c>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Gradey Dick</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>$256.00</t>
+          <t>$599.99</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276717832205?_skw=PSA+10&amp;epid=2339539910&amp;hash=item406dab080d:g:KE0AAOSw2EZnKoyk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmAsPQ8M4QFaevEkStXYsxPS29vwxkgNahts7TvXKXDMtoeQsvkWTwkvVZKbCypaScLLIQwgJXBT8cRrH%2F33Rt1srKGRsdVWu1CLlrTtv5fwFVePz70tm%2FLTR0EKyATbhhY%2FcdGeCs0n8cISJqYGZxakEhSaiw36x6%2B1mYSNIrQDb9OqFMlQL9q8IfI05cFCy%2BZnUEtitj32dLJVncU0A6mbZJEgWizYRWgKbsxfDUCmQ%3D%3D%7Ctkp%3ABk9SR8jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/305906334030?_skw=PSA+10&amp;epid=19060338083&amp;hash=item473970394e:g:W-QAAOSwgJNnNRx0&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnUIMzieY4q%2BWCJ1ee4I8LqiyDDZ%2F8LWMHPgKj0oh8PNht%2Fu1fsl9JYW6dYzrrYQp0uptK%2Bk4TqAzxx%2FdxhWGOb1rrHo6rp26dnzep0bpilehXxR8Z2%2FE3DdyuBRn1wXUmsjq%2BsGBm%2ByFVXgaIEHctRrp6S%2BCJWURIgQn8HWgyK1CeBvkDeyI4xnoyiv2lVZHkqyp0vhF%2FKKMRtnQ53G0xfpREht8M%2FQs3MlstmJ8W3lQ%3D%3D%7Ctkp%3ABk9SR8jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -6356,38 +6352,34 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Holo Fast Break Prizm</t>
-        </is>
-      </c>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Allen Iverson</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226441055989?_skw=PSA+10&amp;epid=13068486902&amp;hash=item34b8f04ef5:g:jK0AAOSwFLNnL6u2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnW5H02%2BFnV%2FN7o0AgPRIZpbpgXzv5MT4302hJMRgDgIRtshnyE7piv0l4PD1f5%2FN5phRQnmL5gXoddXLfHndPPERb4jAaxBN97m89clBIkn4acwoWMgiMwCz1OEmsYA4md1TQ3QuXdZwZPgBFumfZMZAPuFnWKOaxCDGXixYkmCns7albWmJI2sv8O3rztFgNWAqEubxbx4VxNuQ2F2w5heD5fxBAb3tOFCjPJzQgLWfjngmwj3aNv4Ah6odefaWXd%2BYu95TAsd0yExECGSm1X%7Ctkp%3ABk9SR8jOyKCcZQ</t>
+          <t>https://www.ebay.com/itm/315929426300?_skw=PSA+10&amp;epid=22056580357&amp;hash=item498edc797c:g:zLIAAOSwiBRnLBMs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk2QwBOEP07gljMiUwQw6sy2gng5jeWgLc4qYTkzTwErkAxrklH3a%2Bj4PC4IuyI%2FGAGnQr80aXQlECpIKNyFc8yqra5dY88aRowVghNbz7Pe1OuS6P96ELeZo9CvY5KCb7g7HUVepmiAzYPuH%2B6%2FBRjBfiyu44aeCjZFA9Fv4LliClq72HAm0c%2BxuG0uf9%2FOwesIQvVdDNYaOjIAl4YUjxsT6dB2TztH9VxStKD4IdI%2Bg%3D%3D%7Ctkp%3ABk9SR8jOyKCcZQ</t>
         </is>
       </c>
     </row>
@@ -6409,26 +6401,198 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Blue Fast Break Prizm</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Dereck Lively</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$449.00</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/235819607151?_skw=PSA+10&amp;epid=26065170361&amp;hash=item36e7f1a46f:g:ll0AAOSwnRtnK6tD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlFeSpJi5CSrONgvt%2Fto8nRJqyXl%2FESg0jkTMi7U8l9jsEHC03zJD1dgBoLCWa%2FNy%2F1%2Fv93byfpQWTbbH71BKuu183OjsvFG1T%2FxSz99dlEbIbDyyM7CIz%2BY25GVmcqkHRCPA9PkxvdpvNcy6dNar7z7xjXjWUozNU%2Fni6nEsyfTFa7TqmqB8ec8eZ76OBxKXVaYBluGXHSxRad%2BwEDb26yYW5CKt6XN8fB6WuAex4dtDVW0KEt8i4sbmelOMDRQO3Iao8Duq2l9c9u%2BPE%2Fpjm7%7Ctkp%3ABk9SR8jOyKCcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Gold Fast Break Prizm</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Klay Thompson</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/395898176573?_skw=PSA+10&amp;epid=19056515789&amp;hash=item5c2d5ec43d:g:EvwAAOSwFHZnNB47&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnqbCHXdPfZ7VarxT%2FoGzqtsTyZxl3f%2FwJHHGN3T%2B1pFOv3FzIThSR8t1%2Bv3Xzi%2FuaeKqIBj2Swza6O1P0Rqj2dYTDbc2vVNhCcPyCx92OtwFyt1LeucWzixypduaShDApPASQ9i0gBBi%2FuWKny%2Fhzy%2BuafCatDiIKpq1D6VNZW%2FI2U7p%2FAYicTdNlva%2BXVHIGkSxARS%2FLiPUPGk7E%2FQruZvQFLw1fRWaze5EqrYuVPnQyUjJ%2B9LwdMXqcYV3h8JTIxBBsYQUgrs8oZriRZmXVF%7Ctkp%3ABk9SR8jOyKCcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Gold Fast Break Prizm</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Gradey Dick</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>$256.00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/276717832205?_skw=PSA+10&amp;epid=2339539910&amp;hash=item406dab080d:g:KE0AAOSw2EZnKoyk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmAsPQ8M4QFaevEkStXYsxPS29vwxkgNahts7TvXKXDMtoeQsvkWTwkvVZKbCypaScLLIQwgJXBT8cRrH%2F33Rt1srKGRsdVWu1CLlrTtv5fwFVePz70tm%2FLTR0EKyATbhhY%2FcdGeCs0n8cISJqYGZxakEhSaiw36x6%2B1mYSNIrQDb9OqFMlQL9q8IfI05cFCy%2BZnUEtitj32dLJVncU0A6mbZJEgWizYRWgKbsxfDUCmQ%3D%3D%7Ctkp%3ABk9SR8jOyKCcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Holo Fast Break Prizm</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Victor Wembanyama</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>$400.00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/226441055989?_skw=PSA+10&amp;epid=13068486902&amp;hash=item34b8f04ef5:g:jK0AAOSwFLNnL6u2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnW5H02%2BFnV%2FN7o0AgPRIZpbpgXzv5MT4302hJMRgDgIRtshnyE7piv0l4PD1f5%2FN5phRQnmL5gXoddXLfHndPPERb4jAaxBN97m89clBIkn4acwoWMgiMwCz1OEmsYA4md1TQ3QuXdZwZPgBFumfZMZAPuFnWKOaxCDGXixYkmCns7albWmJI2sv8O3rztFgNWAqEubxbx4VxNuQ2F2w5heD5fxBAb3tOFCjPJzQgLWfjngmwj3aNv4Ah6odefaWXd%2BYu95TAsd0yExECGSm1X%7Ctkp%3ABk9SR8jOyKCcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Blue Fast Break Prizm</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Dereck Lively</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>$175.00</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
         <is>
           <t>https://www.ebay.com/itm/116379961787?_skw=PSA+10&amp;epid=3065167417&amp;hash=item1b18c949bb:g:vQoAAOSwUMpnKBMn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnIBN31jg2kft2v9dqOW3JsRajKSvh4xgfBEZZn%2BjahnawL%2FHEvI0abcBs6gTjZwgYKoiIlQ64d5Chd0lmqbuy28e6s4aZofMywZUrdCW%2FVXD4znlyIQu5tSm98Vgt734ILtNNsw4qfesqniRZaEsV7yME2bE%2FErKhR%2FIrAyKxRkJNZFpAb3PBARuRsMtU5EnZZsfwxGkoKtKrT04k5DdI397h7ujggEjPGFYC5NeQKTuUuM8p%2BWSa2L%2BhdpVh55CkIwZ3HVQ27zrzloaSIm%2Fr2%7Ctkp%3ABk9SR8jOyKCcZQ</t>
         </is>
